--- a/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
   <si>
     <t>RCTFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,123 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E7" s="2">
         <v>43799</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43708</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43616</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43524</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43434</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43343</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43251</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43159</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43069</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42978</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42886</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42794</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42704</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42613</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>1500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1400</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1100</v>
       </c>
       <c r="G8" s="3">
         <v>1100</v>
       </c>
       <c r="H8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I8" s="3">
         <v>1400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K8" s="3">
         <v>1700</v>
       </c>
-      <c r="J8" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
-      </c>
-      <c r="O8" s="3">
-        <v>1500</v>
       </c>
       <c r="P8" s="3">
         <v>1500</v>
@@ -786,10 +790,13 @@
         <v>1500</v>
       </c>
       <c r="R8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S8" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -797,99 +804,105 @@
         <v>1200</v>
       </c>
       <c r="E9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F9" s="3">
         <v>1500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1200</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1700</v>
       </c>
       <c r="I9" s="3">
         <v>1600</v>
       </c>
       <c r="J9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K9" s="3">
         <v>1500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1400</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1300</v>
       </c>
       <c r="Q9" s="3">
         <v>1300</v>
       </c>
       <c r="R9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-200</v>
       </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
-      </c>
-      <c r="L10" s="3">
-        <v>200</v>
       </c>
       <c r="M10" s="3">
         <v>200</v>
       </c>
       <c r="N10" s="3">
+        <v>200</v>
+      </c>
+      <c r="O10" s="3">
         <v>-400</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>100</v>
-      </c>
-      <c r="P10" s="3">
-        <v>200</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
       </c>
       <c r="R10" s="3">
+        <v>200</v>
+      </c>
+      <c r="S10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1017,34 +1037,34 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K14" s="3">
-        <v>100</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
         <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
         <v>100</v>
@@ -1056,10 +1076,13 @@
         <v>100</v>
       </c>
       <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1070,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
         <v>100</v>
       </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
       <c r="H15" s="3">
         <v>0</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -1106,10 +1129,13 @@
         <v>100</v>
       </c>
       <c r="R15" s="3">
+        <v>100</v>
+      </c>
+      <c r="S15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="G17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2300</v>
-      </c>
       <c r="J17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K17" s="3">
         <v>4300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
-        <v>-800</v>
-      </c>
       <c r="G18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-2600</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-300</v>
       </c>
       <c r="Q18" s="3">
         <v>-300</v>
       </c>
       <c r="R18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S18" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,46 +1329,49 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-600</v>
       </c>
       <c r="H21" s="3">
         <v>-600</v>
       </c>
       <c r="I21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-2500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-200</v>
       </c>
       <c r="P21" s="3">
         <v>-200</v>
@@ -1343,10 +1380,13 @@
         <v>-200</v>
       </c>
       <c r="R21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S21" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
-        <v>-800</v>
-      </c>
       <c r="G23" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H23" s="3">
         <v>-600</v>
       </c>
       <c r="I23" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="J23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2600</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-300</v>
       </c>
       <c r="Q23" s="3">
         <v>-300</v>
       </c>
       <c r="R23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S23" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-800</v>
-      </c>
       <c r="G26" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H26" s="3">
         <v>-600</v>
       </c>
       <c r="I26" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="J26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2600</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-300</v>
       </c>
       <c r="Q26" s="3">
         <v>-300</v>
       </c>
       <c r="R26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
-        <v>-800</v>
-      </c>
       <c r="G27" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H27" s="3">
         <v>-600</v>
       </c>
       <c r="I27" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="J27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2600</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-300</v>
       </c>
       <c r="Q27" s="3">
         <v>-300</v>
       </c>
       <c r="R27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
-        <v>-800</v>
-      </c>
       <c r="G33" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H33" s="3">
         <v>-600</v>
       </c>
       <c r="I33" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="J33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2600</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-300</v>
       </c>
       <c r="Q33" s="3">
         <v>-300</v>
       </c>
       <c r="R33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
-        <v>-800</v>
-      </c>
       <c r="G35" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H35" s="3">
         <v>-600</v>
       </c>
       <c r="I35" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="J35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2600</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-300</v>
       </c>
       <c r="Q35" s="3">
         <v>-300</v>
       </c>
       <c r="R35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E38" s="2">
         <v>43799</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43708</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43616</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43524</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43434</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43343</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43251</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43159</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43069</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42978</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42886</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42794</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42704</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42613</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2179,19 +2266,22 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,58 +2330,64 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>700</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1300</v>
       </c>
       <c r="J43" s="3">
         <v>1300</v>
       </c>
       <c r="K43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L43" s="3">
         <v>1100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1100</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2302,25 +2398,25 @@
         <v>300</v>
       </c>
       <c r="F44" s="3">
+        <v>300</v>
+      </c>
+      <c r="G44" s="3">
         <v>400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
       </c>
       <c r="I44" s="3">
+        <v>300</v>
+      </c>
+      <c r="J44" s="3">
         <v>400</v>
-      </c>
-      <c r="J44" s="3">
-        <v>500</v>
       </c>
       <c r="K44" s="3">
         <v>500</v>
       </c>
       <c r="L44" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="M44" s="3">
         <v>300</v>
@@ -2332,16 +2428,19 @@
         <v>300</v>
       </c>
       <c r="P44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Q44" s="3">
         <v>400</v>
       </c>
       <c r="R44" s="3">
+        <v>400</v>
+      </c>
+      <c r="S44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2367,11 +2466,11 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
       <c r="M45" s="3">
         <v>0</v>
       </c>
@@ -2385,63 +2484,69 @@
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="E46" s="3">
         <v>1100</v>
       </c>
       <c r="F46" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G46" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="H46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="N46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="S46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
-        <v>1300</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2502,10 +2610,10 @@
         <v>600</v>
       </c>
       <c r="F48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
@@ -2514,34 +2622,37 @@
         <v>700</v>
       </c>
       <c r="J48" s="3">
+        <v>700</v>
+      </c>
+      <c r="K48" s="3">
         <v>800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>4100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>4300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>4400</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1800</v>
+        <v>1600</v>
       </c>
       <c r="E54" s="3">
         <v>1700</v>
       </c>
       <c r="F54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
-        <v>1800</v>
-      </c>
       <c r="H54" s="3">
-        <v>2100</v>
+        <v>1700</v>
       </c>
       <c r="I54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J54" s="3">
         <v>2400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5200</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5500</v>
-      </c>
-      <c r="P54" s="3">
-        <v>5900</v>
       </c>
       <c r="Q54" s="3">
         <v>5900</v>
       </c>
       <c r="R54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="S54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,96 +3010,100 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="E57" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="F57" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="G57" s="3">
         <v>4500</v>
       </c>
       <c r="H57" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="I57" s="3">
-        <v>4500</v>
+        <v>4300</v>
       </c>
       <c r="J57" s="3">
         <v>4300</v>
       </c>
       <c r="K57" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="L57" s="3">
         <v>4400</v>
       </c>
       <c r="M57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="N57" s="3">
         <v>4800</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E58" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F58" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="G58" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="H58" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I58" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="J58" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="K58" s="3">
         <v>3400</v>
       </c>
       <c r="L58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="M58" s="3">
         <v>4200</v>
-      </c>
-      <c r="M58" s="3">
-        <v>3400</v>
       </c>
       <c r="N58" s="3">
         <v>3400</v>
       </c>
       <c r="O58" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="P58" s="3">
         <v>3500</v>
@@ -2980,108 +3114,117 @@
       <c r="R58" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10100</v>
+        <v>10000</v>
       </c>
       <c r="E59" s="3">
-        <v>9800</v>
+        <v>9700</v>
       </c>
       <c r="F59" s="3">
-        <v>9700</v>
+        <v>9500</v>
       </c>
       <c r="G59" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="H59" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="I59" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="J59" s="3">
         <v>8300</v>
       </c>
       <c r="K59" s="3">
+        <v>8300</v>
+      </c>
+      <c r="L59" s="3">
         <v>7900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>6900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>5700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>18400</v>
+        <v>18000</v>
       </c>
       <c r="E60" s="3">
-        <v>17900</v>
+        <v>17800</v>
       </c>
       <c r="F60" s="3">
-        <v>17800</v>
+        <v>17300</v>
       </c>
       <c r="G60" s="3">
-        <v>17100</v>
+        <v>17200</v>
       </c>
       <c r="H60" s="3">
-        <v>16800</v>
+        <v>16500</v>
       </c>
       <c r="I60" s="3">
-        <v>16500</v>
+        <v>16200</v>
       </c>
       <c r="J60" s="3">
+        <v>15900</v>
+      </c>
+      <c r="K60" s="3">
         <v>16000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>15700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>15500</v>
-      </c>
-      <c r="M60" s="3">
-        <v>15300</v>
       </c>
       <c r="N60" s="3">
         <v>15300</v>
       </c>
       <c r="O60" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="P60" s="3">
         <v>14800</v>
       </c>
       <c r="Q60" s="3">
+        <v>14800</v>
+      </c>
+      <c r="R60" s="3">
         <v>14500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,13 +3273,16 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E62" s="3">
         <v>700</v>
@@ -3151,37 +3297,40 @@
         <v>700</v>
       </c>
       <c r="I62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J62" s="3">
         <v>800</v>
       </c>
       <c r="K62" s="3">
+        <v>800</v>
+      </c>
+      <c r="L62" s="3">
         <v>900</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1000</v>
       </c>
       <c r="M62" s="3">
         <v>1000</v>
       </c>
       <c r="N62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O62" s="3">
         <v>1100</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1000</v>
       </c>
       <c r="P62" s="3">
         <v>1000</v>
       </c>
       <c r="Q62" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="R62" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19100</v>
+        <v>18800</v>
       </c>
       <c r="E66" s="3">
-        <v>18700</v>
+        <v>18500</v>
       </c>
       <c r="F66" s="3">
-        <v>18500</v>
+        <v>18000</v>
       </c>
       <c r="G66" s="3">
-        <v>17800</v>
+        <v>17900</v>
       </c>
       <c r="H66" s="3">
-        <v>17500</v>
+        <v>17200</v>
       </c>
       <c r="I66" s="3">
-        <v>17300</v>
+        <v>16900</v>
       </c>
       <c r="J66" s="3">
+        <v>16700</v>
+      </c>
+      <c r="K66" s="3">
         <v>16800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>15800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>15400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-57000</v>
+        <v>-55600</v>
       </c>
       <c r="E72" s="3">
-        <v>-56700</v>
+        <v>-55100</v>
       </c>
       <c r="F72" s="3">
-        <v>-56500</v>
+        <v>-54700</v>
       </c>
       <c r="G72" s="3">
-        <v>-55700</v>
+        <v>-54500</v>
       </c>
       <c r="H72" s="3">
-        <v>-55100</v>
+        <v>-53800</v>
       </c>
       <c r="I72" s="3">
-        <v>-54600</v>
+        <v>-53200</v>
       </c>
       <c r="J72" s="3">
+        <v>-52700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-53900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-45300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-45400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-44900</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-45100</v>
       </c>
       <c r="O72" s="3">
         <v>-45100</v>
       </c>
       <c r="P72" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-44800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-44500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-44100</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-17300</v>
+        <v>-17200</v>
       </c>
       <c r="E76" s="3">
-        <v>-17000</v>
+        <v>-16700</v>
       </c>
       <c r="F76" s="3">
-        <v>-16800</v>
+        <v>-16400</v>
       </c>
       <c r="G76" s="3">
-        <v>-16000</v>
+        <v>-16200</v>
       </c>
       <c r="H76" s="3">
-        <v>-15400</v>
+        <v>-15500</v>
       </c>
       <c r="I76" s="3">
         <v>-14900</v>
       </c>
       <c r="J76" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-14200</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-11500</v>
       </c>
       <c r="L76" s="3">
         <v>-11500</v>
       </c>
       <c r="M76" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="N76" s="3">
         <v>-11100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-11200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-10200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-9500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43890</v>
+      </c>
+      <c r="E80" s="2">
         <v>43799</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43708</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43616</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43524</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43434</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43343</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43251</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43159</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43069</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42978</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42886</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42794</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42704</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42613</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
-        <v>-800</v>
-      </c>
       <c r="G81" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="H81" s="3">
         <v>-600</v>
       </c>
       <c r="I81" s="3">
-        <v>-700</v>
+        <v>-500</v>
       </c>
       <c r="J81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2600</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-300</v>
       </c>
       <c r="Q81" s="3">
         <v>-300</v>
       </c>
       <c r="R81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="S81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4037,16 +4236,16 @@
         <v>0</v>
       </c>
       <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>100</v>
       </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -4073,10 +4272,13 @@
         <v>100</v>
       </c>
       <c r="R83" s="3">
+        <v>100</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
         <v>100</v>
       </c>
       <c r="F89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>200</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,46 +4615,47 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>100</v>
       </c>
-      <c r="E91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
-        <v>100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>200</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-200</v>
       </c>
       <c r="P91" s="3">
         <v>-200</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4554,37 +4784,37 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>300</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-200</v>
       </c>
       <c r="P94" s="3">
         <v>-200</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5058,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4826,15 +5072,15 @@
       <c r="E100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -4845,14 +5091,14 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
@@ -4860,13 +5106,16 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5164,11 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4963,6 +5215,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
@@ -766,7 +766,7 @@
         <v>1400</v>
       </c>
       <c r="J8" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K8" s="3">
         <v>1700</v>
@@ -813,10 +813,10 @@
         <v>1300</v>
       </c>
       <c r="H9" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="I9" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="J9" s="3">
         <v>1600</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3">
         <v>100</v>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
         <v>2400</v>
@@ -1161,22 +1161,22 @@
         <v>1700</v>
       </c>
       <c r="E17" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F17" s="3">
         <v>1600</v>
       </c>
       <c r="G17" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="H17" s="3">
         <v>1700</v>
       </c>
       <c r="I17" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="J17" s="3">
-        <v>2200</v>
+        <v>2300</v>
       </c>
       <c r="K17" s="3">
         <v>4300</v>
@@ -1220,7 +1220,7 @@
         <v>-200</v>
       </c>
       <c r="G18" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H18" s="3">
         <v>-600</v>
@@ -1353,7 +1353,7 @@
         <v>-600</v>
       </c>
       <c r="I21" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J21" s="3">
         <v>-600</v>
@@ -1453,16 +1453,16 @@
         <v>-200</v>
       </c>
       <c r="G23" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H23" s="3">
         <v>-600</v>
       </c>
       <c r="I23" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J23" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K23" s="3">
         <v>-2600</v>
@@ -1612,16 +1612,16 @@
         <v>-200</v>
       </c>
       <c r="G26" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H26" s="3">
         <v>-600</v>
       </c>
       <c r="I26" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J26" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K26" s="3">
         <v>-2600</v>
@@ -1665,16 +1665,16 @@
         <v>-200</v>
       </c>
       <c r="G27" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H27" s="3">
         <v>-600</v>
       </c>
       <c r="I27" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J27" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K27" s="3">
         <v>-2600</v>
@@ -1983,16 +1983,16 @@
         <v>-200</v>
       </c>
       <c r="G33" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H33" s="3">
         <v>-600</v>
       </c>
       <c r="I33" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J33" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K33" s="3">
         <v>-2600</v>
@@ -2089,16 +2089,16 @@
         <v>-200</v>
       </c>
       <c r="G35" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H35" s="3">
         <v>-600</v>
       </c>
       <c r="I35" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J35" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K35" s="3">
         <v>-2600</v>
@@ -2342,13 +2342,13 @@
         <v>700</v>
       </c>
       <c r="E43" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="F43" s="3">
         <v>700</v>
       </c>
       <c r="G43" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H43" s="3">
         <v>700</v>
@@ -2498,22 +2498,22 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
-        <v>1000</v>
-      </c>
       <c r="G46" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="H46" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I46" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="J46" s="3">
         <v>1700</v>
@@ -2613,7 +2613,7 @@
         <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
@@ -2922,25 +2922,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F54" s="3">
         <v>1700</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1600</v>
       </c>
       <c r="G54" s="3">
         <v>1700</v>
       </c>
       <c r="H54" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="I54" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="J54" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="K54" s="3">
         <v>2600</v>
@@ -3017,25 +3017,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F57" s="3">
         <v>4700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>4700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="I57" s="3">
         <v>4500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>4500</v>
-      </c>
-      <c r="H57" s="3">
-        <v>4400</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4300</v>
-      </c>
-      <c r="J57" s="3">
-        <v>4300</v>
       </c>
       <c r="K57" s="3">
         <v>4300</v>
@@ -3070,25 +3070,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="E58" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="F58" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="G58" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="H58" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="I58" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="J58" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="K58" s="3">
         <v>3400</v>
@@ -3123,25 +3123,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10000</v>
+        <v>10500</v>
       </c>
       <c r="E59" s="3">
-        <v>9700</v>
+        <v>10200</v>
       </c>
       <c r="F59" s="3">
-        <v>9500</v>
+        <v>9900</v>
       </c>
       <c r="G59" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="H59" s="3">
-        <v>8800</v>
+        <v>9300</v>
       </c>
       <c r="I59" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J59" s="3">
         <v>8600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>8300</v>
       </c>
       <c r="K59" s="3">
         <v>8300</v>
@@ -3176,25 +3176,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>18600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>18100</v>
+      </c>
+      <c r="G60" s="3">
         <v>18000</v>
       </c>
-      <c r="E60" s="3">
-        <v>17800</v>
-      </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>17300</v>
       </c>
-      <c r="G60" s="3">
-        <v>17200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>16500</v>
-      </c>
       <c r="I60" s="3">
-        <v>16200</v>
+        <v>17000</v>
       </c>
       <c r="J60" s="3">
-        <v>15900</v>
+        <v>16700</v>
       </c>
       <c r="K60" s="3">
         <v>16000</v>
@@ -3282,16 +3282,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
         <v>700</v>
       </c>
       <c r="F62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="G62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H62" s="3">
         <v>700</v>
@@ -3494,25 +3494,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>18800</v>
+        <v>19700</v>
       </c>
       <c r="E66" s="3">
-        <v>18500</v>
+        <v>19300</v>
       </c>
       <c r="F66" s="3">
+        <v>18900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>18700</v>
+      </c>
+      <c r="H66" s="3">
         <v>18000</v>
       </c>
-      <c r="G66" s="3">
-        <v>17900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>17200</v>
-      </c>
       <c r="I66" s="3">
-        <v>16900</v>
+        <v>17700</v>
       </c>
       <c r="J66" s="3">
-        <v>16700</v>
+        <v>17500</v>
       </c>
       <c r="K66" s="3">
         <v>16800</v>
@@ -3780,25 +3780,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-55600</v>
+        <v>-58200</v>
       </c>
       <c r="E72" s="3">
-        <v>-55100</v>
+        <v>-57700</v>
       </c>
       <c r="F72" s="3">
-        <v>-54700</v>
+        <v>-57300</v>
       </c>
       <c r="G72" s="3">
-        <v>-54500</v>
+        <v>-57100</v>
       </c>
       <c r="H72" s="3">
-        <v>-53800</v>
+        <v>-56400</v>
       </c>
       <c r="I72" s="3">
-        <v>-53200</v>
+        <v>-55700</v>
       </c>
       <c r="J72" s="3">
-        <v>-52700</v>
+        <v>-55200</v>
       </c>
       <c r="K72" s="3">
         <v>-53900</v>
@@ -3992,25 +3992,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-17200</v>
       </c>
-      <c r="E76" s="3">
-        <v>-16700</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-16400</v>
-      </c>
       <c r="G76" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="H76" s="3">
         <v>-16200</v>
       </c>
-      <c r="H76" s="3">
-        <v>-15500</v>
-      </c>
       <c r="I76" s="3">
-        <v>-14900</v>
+        <v>-15600</v>
       </c>
       <c r="J76" s="3">
-        <v>-14300</v>
+        <v>-15000</v>
       </c>
       <c r="K76" s="3">
         <v>-14200</v>
@@ -4165,16 +4165,16 @@
         <v>-200</v>
       </c>
       <c r="G81" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="H81" s="3">
         <v>-600</v>
       </c>
       <c r="I81" s="3">
-        <v>-500</v>
+        <v>-600</v>
       </c>
       <c r="J81" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="K81" s="3">
         <v>-2600</v>
@@ -4625,10 +4625,10 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G94" s="3">
         <v>-100</v>
@@ -4796,10 +4796,10 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
   <si>
     <t>RCTFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,270 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F7" s="2">
         <v>43890</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43799</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43708</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43616</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43524</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43434</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43343</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43251</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43159</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43069</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42978</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42886</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42794</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42704</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42613</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1700</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1500</v>
       </c>
       <c r="N8" s="3">
         <v>1600</v>
       </c>
       <c r="O8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1500</v>
       </c>
       <c r="R8" s="3">
         <v>1500</v>
       </c>
       <c r="S8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="U8" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1500</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1300</v>
       </c>
       <c r="I9" s="3">
         <v>1700</v>
       </c>
       <c r="J9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="L9" s="3">
         <v>1600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1300</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1400</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1500</v>
       </c>
       <c r="P9" s="3">
         <v>1400</v>
       </c>
       <c r="Q9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S9" s="3">
         <v>1300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
-      </c>
-      <c r="F10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-200</v>
       </c>
       <c r="H10" s="3">
         <v>-100</v>
       </c>
       <c r="I10" s="3">
+        <v>-600</v>
+      </c>
+      <c r="J10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K10" s="3">
         <v>-200</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +948,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1003,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,49 +1062,55 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>100</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>100</v>
@@ -1079,15 +1119,21 @@
         <v>100</v>
       </c>
       <c r="S14" s="3">
+        <v>100</v>
+      </c>
+      <c r="T14" s="3">
+        <v>100</v>
+      </c>
+      <c r="U14" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>0</v>
@@ -1096,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>100</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1132,10 +1178,16 @@
         <v>100</v>
       </c>
       <c r="S15" s="3">
+        <v>100</v>
+      </c>
+      <c r="T15" s="3">
+        <v>100</v>
+      </c>
+      <c r="U15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,8 +1204,10 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1161,105 +1215,117 @@
         <v>1700</v>
       </c>
       <c r="E17" s="3">
-        <v>1900</v>
+        <v>2100</v>
       </c>
       <c r="F17" s="3">
-        <v>1600</v>
+        <v>1800</v>
       </c>
       <c r="G17" s="3">
         <v>1900</v>
       </c>
       <c r="H17" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="I17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>2300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>4300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>1800</v>
       </c>
       <c r="R17" s="3">
         <v>1900</v>
       </c>
       <c r="S17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="U17" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>800</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-600</v>
-      </c>
       <c r="I18" s="3">
-        <v>-500</v>
+        <v>-1100</v>
       </c>
       <c r="J18" s="3">
         <v>-600</v>
       </c>
       <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M18" s="3">
         <v>-2600</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1345,10 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,61 +1400,73 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>900</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-600</v>
-      </c>
       <c r="I21" s="3">
-        <v>-600</v>
+        <v>-1100</v>
       </c>
       <c r="J21" s="3">
         <v>-600</v>
       </c>
       <c r="K21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M21" s="3">
         <v>-2500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
       </c>
       <c r="R21" s="3">
         <v>-200</v>
       </c>
       <c r="S21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U21" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1438,61 +1518,73 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N23" s="3">
-        <v>100</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1636,14 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1695,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N26" s="3">
-        <v>100</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N27" s="3">
-        <v>100</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1872,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1931,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1990,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +2049,14 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,61 +2108,73 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N33" s="3">
-        <v>100</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2226,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N35" s="3">
-        <v>100</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F38" s="2">
         <v>43890</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43799</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43708</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43616</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43524</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43434</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43343</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43251</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43159</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43069</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42978</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42886</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42794</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42704</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42613</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2376,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,16 +2399,18 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>0</v>
@@ -2269,19 +2443,25 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,66 +2513,78 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
-      </c>
-      <c r="E43" s="3">
-        <v>900</v>
       </c>
       <c r="F43" s="3">
         <v>700</v>
       </c>
       <c r="G43" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="H43" s="3">
         <v>700</v>
       </c>
       <c r="I43" s="3">
+        <v>700</v>
+      </c>
+      <c r="J43" s="3">
+        <v>700</v>
+      </c>
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1000</v>
       </c>
       <c r="N43" s="3">
         <v>1100</v>
       </c>
       <c r="O43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q43" s="3">
         <v>900</v>
-      </c>
-      <c r="P43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>1200</v>
       </c>
       <c r="R43" s="3">
         <v>1000</v>
       </c>
       <c r="S43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E44" s="3">
         <v>300</v>
@@ -2401,28 +2593,28 @@
         <v>300</v>
       </c>
       <c r="G44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
       </c>
       <c r="I44" s="3">
+        <v>400</v>
+      </c>
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
+        <v>300</v>
+      </c>
+      <c r="L44" s="3">
         <v>400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>500</v>
-      </c>
-      <c r="M44" s="3">
-        <v>300</v>
-      </c>
-      <c r="N44" s="3">
-        <v>300</v>
       </c>
       <c r="O44" s="3">
         <v>300</v>
@@ -2431,16 +2623,22 @@
         <v>300</v>
       </c>
       <c r="Q44" s="3">
+        <v>300</v>
+      </c>
+      <c r="R44" s="3">
+        <v>300</v>
+      </c>
+      <c r="S44" s="3">
         <v>400</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2448,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -2469,14 +2667,14 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
-      </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
@@ -2487,66 +2685,78 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1100</v>
+        <v>1900</v>
       </c>
       <c r="E46" s="3">
-        <v>1200</v>
+        <v>1400</v>
       </c>
       <c r="F46" s="3">
         <v>1100</v>
       </c>
       <c r="G46" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="H46" s="3">
         <v>1100</v>
       </c>
       <c r="I46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K46" s="3">
         <v>1400</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1700</v>
-      </c>
-      <c r="K46" s="3">
-        <v>1800</v>
       </c>
       <c r="L46" s="3">
         <v>1700</v>
       </c>
       <c r="M46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1700</v>
       </c>
       <c r="R46" s="3">
         <v>1400</v>
       </c>
       <c r="S46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="U46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,13 +2808,19 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
@@ -2613,10 +2829,10 @@
         <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
@@ -2625,34 +2841,40 @@
         <v>700</v>
       </c>
       <c r="K48" s="3">
+        <v>700</v>
+      </c>
+      <c r="L48" s="3">
+        <v>700</v>
+      </c>
+      <c r="M48" s="3">
         <v>800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3600</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>4100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>4300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>4400</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2926,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2985,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +3044,14 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +3103,14 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3162,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1700</v>
+        <v>2900</v>
       </c>
       <c r="E54" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F54" s="3">
         <v>1700</v>
       </c>
       <c r="G54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K54" s="3">
         <v>2100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
-      </c>
-      <c r="L54" s="3">
-        <v>5200</v>
-      </c>
-      <c r="M54" s="3">
-        <v>5000</v>
       </c>
       <c r="N54" s="3">
         <v>5200</v>
       </c>
       <c r="O54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="P54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>5100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5900</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3248,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3271,69 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F57" s="3">
         <v>4900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J57" s="3">
+        <v>4600</v>
+      </c>
+      <c r="K57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="L57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="M57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="N57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="O57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="P57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="Q57" s="3">
         <v>4900</v>
       </c>
-      <c r="F57" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G57" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H57" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>4500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>4300</v>
-      </c>
-      <c r="L57" s="3">
-        <v>4400</v>
-      </c>
-      <c r="M57" s="3">
-        <v>4400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>4800</v>
-      </c>
-      <c r="O57" s="3">
-        <v>4900</v>
-      </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>5100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>5300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>5200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3091,25 +3359,25 @@
         <v>3500</v>
       </c>
       <c r="K58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="L58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="M58" s="3">
         <v>3400</v>
-      </c>
-      <c r="L58" s="3">
-        <v>3400</v>
-      </c>
-      <c r="M58" s="3">
-        <v>4200</v>
       </c>
       <c r="N58" s="3">
         <v>3400</v>
       </c>
       <c r="O58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="P58" s="3">
         <v>3400</v>
       </c>
-      <c r="P58" s="3">
-        <v>3500</v>
-      </c>
       <c r="Q58" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="R58" s="3">
         <v>3500</v>
@@ -3117,114 +3385,132 @@
       <c r="S58" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U58" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10500</v>
+        <v>10900</v>
       </c>
       <c r="E59" s="3">
-        <v>10200</v>
+        <v>11000</v>
       </c>
       <c r="F59" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>10100</v>
+      </c>
+      <c r="I59" s="3">
         <v>9900</v>
       </c>
-      <c r="G59" s="3">
-        <v>9800</v>
-      </c>
-      <c r="H59" s="3">
-        <v>9300</v>
-      </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
+        <v>9400</v>
+      </c>
+      <c r="K59" s="3">
         <v>9000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>8600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>8300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>7900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>6900</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>7100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>7000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>6100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>6000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>5700</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>20200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>19100</v>
+      </c>
+      <c r="G60" s="3">
         <v>18800</v>
       </c>
-      <c r="E60" s="3">
-        <v>18600</v>
-      </c>
-      <c r="F60" s="3">
-        <v>18100</v>
-      </c>
-      <c r="G60" s="3">
-        <v>18000</v>
-      </c>
       <c r="H60" s="3">
-        <v>17300</v>
+        <v>18300</v>
       </c>
       <c r="I60" s="3">
+        <v>18800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>17500</v>
+      </c>
+      <c r="K60" s="3">
         <v>17000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>16700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>16000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>15700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>15500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>15300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>15300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>14800</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>14800</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>14500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,8 +3562,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,52 +3577,58 @@
         <v>900</v>
       </c>
       <c r="E62" s="3">
+        <v>900</v>
+      </c>
+      <c r="F62" s="3">
+        <v>900</v>
+      </c>
+      <c r="G62" s="3">
         <v>700</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>800</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>1000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1100</v>
       </c>
       <c r="P62" s="3">
         <v>1000</v>
       </c>
       <c r="Q62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R62" s="3">
         <v>1000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T62" s="3">
         <v>900</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3680,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3739,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3798,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>19700</v>
+        <v>21100</v>
       </c>
       <c r="E66" s="3">
-        <v>19300</v>
+        <v>21100</v>
       </c>
       <c r="F66" s="3">
-        <v>18900</v>
+        <v>19900</v>
       </c>
       <c r="G66" s="3">
-        <v>18700</v>
+        <v>19500</v>
       </c>
       <c r="H66" s="3">
-        <v>18000</v>
+        <v>19100</v>
       </c>
       <c r="I66" s="3">
+        <v>19600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>18200</v>
+      </c>
+      <c r="K66" s="3">
         <v>17700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>17500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>16800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>16700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>16500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>16300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>16400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>15700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>15800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>15400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3884,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3939,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3998,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4057,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +4116,73 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-58200</v>
+        <v>-58900</v>
       </c>
       <c r="E72" s="3">
-        <v>-57700</v>
+        <v>-59700</v>
       </c>
       <c r="F72" s="3">
-        <v>-57300</v>
+        <v>-58800</v>
       </c>
       <c r="G72" s="3">
-        <v>-57100</v>
+        <v>-58300</v>
       </c>
       <c r="H72" s="3">
-        <v>-56400</v>
+        <v>-58000</v>
       </c>
       <c r="I72" s="3">
+        <v>-58400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-55700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-55200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-53900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-45300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-45400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-44900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-45100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-45100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-44800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-44500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-44100</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4234,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4293,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4352,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-18000</v>
+        <v>-18200</v>
       </c>
       <c r="E76" s="3">
-        <v>-17500</v>
+        <v>-19100</v>
       </c>
       <c r="F76" s="3">
-        <v>-17200</v>
+        <v>-18200</v>
       </c>
       <c r="G76" s="3">
-        <v>-17000</v>
+        <v>-17700</v>
       </c>
       <c r="H76" s="3">
-        <v>-16200</v>
+        <v>-17400</v>
       </c>
       <c r="I76" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-16400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-15600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-15000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-14200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-11500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-11500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-11100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-11200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-9800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-9500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4470,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44074</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43982</v>
+      </c>
+      <c r="F80" s="2">
         <v>43890</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43799</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43708</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43616</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43524</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43434</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43343</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43251</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43159</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43069</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42978</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42886</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42794</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42704</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42613</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-800</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="N81" s="3">
-        <v>100</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,13 +4620,15 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -4239,19 +4637,19 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -4275,10 +4673,16 @@
         <v>100</v>
       </c>
       <c r="S83" s="3">
+        <v>100</v>
+      </c>
+      <c r="T83" s="3">
+        <v>100</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4734,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4793,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4852,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4911,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4970,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E89" s="3">
+        <v>300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>200</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,26 +5056,28 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
@@ -4646,22 +5088,22 @@
         <v>0</v>
       </c>
       <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>200</v>
-      </c>
-      <c r="P91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>-200</v>
       </c>
       <c r="R91" s="3">
         <v>-200</v>
@@ -4669,8 +5111,14 @@
       <c r="S91" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U91" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5170,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,34 +5229,40 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-600</v>
       </c>
       <c r="E94" s="3">
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
       </c>
       <c r="I94" s="3">
         <v>-100</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -4811,16 +5271,16 @@
         <v>0</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
         <v>300</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-200</v>
       </c>
       <c r="R94" s="3">
         <v>-200</v>
@@ -4828,8 +5288,14 @@
       <c r="S94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5315,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5370,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5429,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5488,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,32 +5547,38 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>8</v>
+      <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
@@ -5094,28 +5586,34 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5665,14 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5176,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F102" s="3">
         <v>0</v>
@@ -5218,6 +5722,12 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>RCTFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,143 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E7" s="2">
         <v>44074</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43982</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43890</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43799</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43708</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43616</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43524</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43434</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43343</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43251</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43159</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43069</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42978</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42886</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42794</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42704</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42613</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2500</v>
       </c>
-      <c r="E8" s="3">
-        <v>1800</v>
-      </c>
       <c r="F8" s="3">
-        <v>1200</v>
+        <v>1900</v>
       </c>
       <c r="G8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I8" s="3">
         <v>1500</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1200</v>
       </c>
       <c r="J8" s="3">
         <v>1200</v>
       </c>
       <c r="K8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L8" s="3">
         <v>1400</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1700</v>
       </c>
       <c r="M8" s="3">
         <v>1700</v>
       </c>
       <c r="N8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1500</v>
       </c>
       <c r="S8" s="3">
         <v>1500</v>
@@ -807,10 +810,13 @@
         <v>1500</v>
       </c>
       <c r="U8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V8" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -818,117 +824,123 @@
         <v>1700</v>
       </c>
       <c r="E9" s="3">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="F9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O9" s="3">
         <v>1200</v>
       </c>
-      <c r="G9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="P9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R9" s="3">
         <v>1500</v>
       </c>
-      <c r="I9" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1700</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1500</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1500</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1400</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1300</v>
       </c>
       <c r="T9" s="3">
         <v>1300</v>
       </c>
       <c r="U9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="V9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3">
         <v>800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-200</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-200</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>400</v>
-      </c>
-      <c r="O10" s="3">
-        <v>200</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
       </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
         <v>-400</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>100</v>
-      </c>
-      <c r="S10" s="3">
-        <v>200</v>
       </c>
       <c r="T10" s="3">
         <v>200</v>
       </c>
       <c r="U10" s="3">
+        <v>200</v>
+      </c>
+      <c r="V10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -950,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1009,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1077,13 +1096,13 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
@@ -1092,28 +1111,28 @@
         <v>100</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>100</v>
@@ -1125,10 +1144,13 @@
         <v>100</v>
       </c>
       <c r="U14" s="3">
+        <v>100</v>
+      </c>
+      <c r="V14" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1136,7 +1158,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>0</v>
@@ -1148,16 +1170,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
         <v>100</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
       <c r="K15" s="3">
         <v>0</v>
       </c>
       <c r="L15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
@@ -1184,10 +1206,13 @@
         <v>100</v>
       </c>
       <c r="U15" s="3">
+        <v>100</v>
+      </c>
+      <c r="V15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1700</v>
       </c>
-      <c r="E17" s="3">
-        <v>2100</v>
-      </c>
       <c r="F17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J17" s="3">
+      <c r="P17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="L17" s="3">
-        <v>2300</v>
-      </c>
-      <c r="M17" s="3">
-        <v>4300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O17" s="3">
+      <c r="U17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
-        <v>-1100</v>
-      </c>
       <c r="J18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="K18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2600</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-300</v>
       </c>
       <c r="T18" s="3">
         <v>-300</v>
       </c>
       <c r="U18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V18" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1406,31 +1439,34 @@
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E21" s="3">
         <v>900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-600</v>
       </c>
       <c r="K21" s="3">
         <v>-600</v>
@@ -1439,22 +1475,22 @@
         <v>-600</v>
       </c>
       <c r="M21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N21" s="3">
         <v>-2500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-200</v>
       </c>
       <c r="S21" s="3">
         <v>-200</v>
@@ -1463,10 +1499,13 @@
         <v>-200</v>
       </c>
       <c r="U21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V21" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1524,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>800</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="3">
+        <v>900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-600</v>
       </c>
       <c r="K23" s="3">
         <v>-600</v>
       </c>
       <c r="L23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M23" s="3">
         <v>-700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2600</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-300</v>
       </c>
       <c r="T23" s="3">
         <v>-300</v>
       </c>
       <c r="U23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V23" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1642,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>800</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="3">
+        <v>900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-600</v>
       </c>
       <c r="K26" s="3">
         <v>-600</v>
       </c>
       <c r="L26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M26" s="3">
         <v>-700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2600</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-300</v>
       </c>
       <c r="T26" s="3">
         <v>-300</v>
       </c>
       <c r="U26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>800</v>
+        <v>-100</v>
       </c>
       <c r="E27" s="3">
+        <v>900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-600</v>
       </c>
       <c r="K27" s="3">
         <v>-600</v>
       </c>
       <c r="L27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M27" s="3">
         <v>-700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2600</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-300</v>
       </c>
       <c r="T27" s="3">
         <v>-300</v>
       </c>
       <c r="U27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2114,67 +2183,73 @@
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>800</v>
+        <v>-100</v>
       </c>
       <c r="E33" s="3">
+        <v>900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-600</v>
       </c>
       <c r="K33" s="3">
         <v>-600</v>
       </c>
       <c r="L33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M33" s="3">
         <v>-700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2600</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-300</v>
       </c>
       <c r="T33" s="3">
         <v>-300</v>
       </c>
       <c r="U33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>800</v>
+        <v>-100</v>
       </c>
       <c r="E35" s="3">
+        <v>900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-600</v>
       </c>
       <c r="K35" s="3">
         <v>-600</v>
       </c>
       <c r="L35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M35" s="3">
         <v>-700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2600</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-300</v>
       </c>
       <c r="T35" s="3">
         <v>-300</v>
       </c>
       <c r="U35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E38" s="2">
         <v>44074</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43982</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43890</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43799</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43708</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43616</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43524</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43434</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43343</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43251</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43159</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43069</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42978</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42886</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42794</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42704</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42613</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,8 +2486,9 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2413,7 +2499,7 @@
         <v>200</v>
       </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2449,19 +2535,22 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
         <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,25 +2608,28 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E43" s="3">
         <v>1300</v>
-      </c>
-      <c r="E43" s="3">
-        <v>700</v>
       </c>
       <c r="F43" s="3">
         <v>700</v>
       </c>
       <c r="G43" s="3">
+        <v>700</v>
+      </c>
+      <c r="H43" s="3">
         <v>900</v>
-      </c>
-      <c r="H43" s="3">
-        <v>700</v>
       </c>
       <c r="I43" s="3">
         <v>700</v>
@@ -2546,48 +2638,51 @@
         <v>700</v>
       </c>
       <c r="K43" s="3">
+        <v>700</v>
+      </c>
+      <c r="L43" s="3">
         <v>1000</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1300</v>
       </c>
       <c r="M43" s="3">
         <v>1300</v>
       </c>
       <c r="N43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O43" s="3">
         <v>1100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>1000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>900</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>500</v>
+      </c>
+      <c r="E44" s="3">
         <v>400</v>
-      </c>
-      <c r="E44" s="3">
-        <v>300</v>
       </c>
       <c r="F44" s="3">
         <v>300</v>
@@ -2599,25 +2694,25 @@
         <v>300</v>
       </c>
       <c r="I44" s="3">
+        <v>300</v>
+      </c>
+      <c r="J44" s="3">
         <v>400</v>
-      </c>
-      <c r="J44" s="3">
-        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
       </c>
       <c r="L44" s="3">
+        <v>300</v>
+      </c>
+      <c r="M44" s="3">
         <v>400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>500</v>
       </c>
       <c r="N44" s="3">
         <v>500</v>
       </c>
       <c r="O44" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P44" s="3">
         <v>300</v>
@@ -2629,16 +2724,19 @@
         <v>300</v>
       </c>
       <c r="S44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T44" s="3">
         <v>400</v>
       </c>
       <c r="U44" s="3">
+        <v>400</v>
+      </c>
+      <c r="V44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2646,11 +2744,11 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
@@ -2673,11 +2771,11 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
-      </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
@@ -2691,30 +2789,33 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="E46" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
-        <v>1200</v>
-      </c>
       <c r="H46" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="I46" s="3">
         <v>1100</v>
@@ -2723,40 +2824,43 @@
         <v>1100</v>
       </c>
       <c r="K46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2814,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2823,7 +2930,7 @@
         <v>1000</v>
       </c>
       <c r="E48" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
@@ -2847,34 +2954,37 @@
         <v>700</v>
       </c>
       <c r="M48" s="3">
+        <v>700</v>
+      </c>
+      <c r="N48" s="3">
         <v>800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3600</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>4100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4400</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2932,8 +3042,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3109,8 +3228,11 @@
       <c r="U52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,25 +3290,28 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H54" s="3">
         <v>1900</v>
-      </c>
-      <c r="F54" s="3">
-        <v>1700</v>
-      </c>
-      <c r="G54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="H54" s="3">
-        <v>1700</v>
       </c>
       <c r="I54" s="3">
         <v>1800</v>
@@ -3195,40 +3320,43 @@
         <v>1800</v>
       </c>
       <c r="K54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L54" s="3">
         <v>2100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5500</v>
-      </c>
-      <c r="S54" s="3">
-        <v>5900</v>
       </c>
       <c r="T54" s="3">
         <v>5900</v>
       </c>
       <c r="U54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="V54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,90 +3402,94 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5700</v>
+        <v>5600</v>
       </c>
       <c r="E57" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="F57" s="3">
+        <v>5900</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I57" s="3">
         <v>4900</v>
       </c>
-      <c r="G57" s="3">
-        <v>5000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>4800</v>
-      </c>
-      <c r="I57" s="3">
-        <v>5400</v>
-      </c>
       <c r="J57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="K57" s="3">
         <v>4600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>4500</v>
       </c>
       <c r="L57" s="3">
         <v>4500</v>
       </c>
       <c r="M57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="N57" s="3">
         <v>4300</v>
-      </c>
-      <c r="N57" s="3">
-        <v>4400</v>
       </c>
       <c r="O57" s="3">
         <v>4400</v>
       </c>
       <c r="P57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Q57" s="3">
         <v>4800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5100</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="F58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="G58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="I58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="J58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="K58" s="3">
         <v>3500</v>
@@ -3365,22 +3498,22 @@
         <v>3500</v>
       </c>
       <c r="M58" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="N58" s="3">
         <v>3400</v>
       </c>
       <c r="O58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="P58" s="3">
         <v>4200</v>
-      </c>
-      <c r="P58" s="3">
-        <v>3400</v>
       </c>
       <c r="Q58" s="3">
         <v>3400</v>
       </c>
       <c r="R58" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="S58" s="3">
         <v>3500</v>
@@ -3391,126 +3524,135 @@
       <c r="U58" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="F59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="G59" s="3">
         <v>10900</v>
       </c>
-      <c r="E59" s="3">
-        <v>11000</v>
-      </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>10600</v>
       </c>
-      <c r="G59" s="3">
-        <v>10300</v>
-      </c>
-      <c r="H59" s="3">
-        <v>10100</v>
-      </c>
       <c r="I59" s="3">
-        <v>9900</v>
+        <v>10400</v>
       </c>
       <c r="J59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K59" s="3">
         <v>9400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>8600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7900</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>6900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>6100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>5700</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20200</v>
+        <v>20600</v>
       </c>
       <c r="E60" s="3">
-        <v>20200</v>
+        <v>20800</v>
       </c>
       <c r="F60" s="3">
-        <v>19100</v>
+        <v>20800</v>
       </c>
       <c r="G60" s="3">
-        <v>18800</v>
+        <v>19600</v>
       </c>
       <c r="H60" s="3">
-        <v>18300</v>
+        <v>19400</v>
       </c>
       <c r="I60" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="J60" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K60" s="3">
         <v>17500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>16700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>15700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15500</v>
-      </c>
-      <c r="P60" s="3">
-        <v>15300</v>
       </c>
       <c r="Q60" s="3">
         <v>15300</v>
       </c>
       <c r="R60" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="S60" s="3">
         <v>14800</v>
       </c>
       <c r="T60" s="3">
+        <v>14800</v>
+      </c>
+      <c r="U60" s="3">
         <v>14500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3568,8 +3710,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3577,13 +3722,13 @@
         <v>900</v>
       </c>
       <c r="E62" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F62" s="3">
         <v>900</v>
       </c>
       <c r="G62" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="H62" s="3">
         <v>800</v>
@@ -3592,43 +3737,46 @@
         <v>800</v>
       </c>
       <c r="J62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K62" s="3">
         <v>700</v>
       </c>
       <c r="L62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M62" s="3">
         <v>800</v>
       </c>
       <c r="N62" s="3">
+        <v>800</v>
+      </c>
+      <c r="O62" s="3">
         <v>900</v>
-      </c>
-      <c r="O62" s="3">
-        <v>1000</v>
       </c>
       <c r="P62" s="3">
         <v>1000</v>
       </c>
       <c r="Q62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R62" s="3">
         <v>1100</v>
-      </c>
-      <c r="R62" s="3">
-        <v>1000</v>
       </c>
       <c r="S62" s="3">
         <v>1000</v>
       </c>
       <c r="T62" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="U62" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21100</v>
+        <v>21500</v>
       </c>
       <c r="E66" s="3">
-        <v>21100</v>
+        <v>21800</v>
       </c>
       <c r="F66" s="3">
-        <v>19900</v>
+        <v>21700</v>
       </c>
       <c r="G66" s="3">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="H66" s="3">
-        <v>19100</v>
+        <v>20100</v>
       </c>
       <c r="I66" s="3">
-        <v>19600</v>
+        <v>19700</v>
       </c>
       <c r="J66" s="3">
+        <v>20200</v>
+      </c>
+      <c r="K66" s="3">
         <v>18200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>17700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>16800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>15700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-58900</v>
+        <v>-60800</v>
       </c>
       <c r="E72" s="3">
+        <v>-60700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-61500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-60600</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-60100</v>
+      </c>
+      <c r="I72" s="3">
         <v>-59700</v>
       </c>
-      <c r="F72" s="3">
-        <v>-58800</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-58300</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-58000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-58400</v>
-      </c>
       <c r="J72" s="3">
+        <v>-60200</v>
+      </c>
+      <c r="K72" s="3">
         <v>-57000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-55700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-55200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-53900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-45300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-45400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-44900</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-45100</v>
       </c>
       <c r="R72" s="3">
         <v>-45100</v>
       </c>
       <c r="S72" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="T72" s="3">
         <v>-44800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-44500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-44100</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-18200</v>
+        <v>-18800</v>
       </c>
       <c r="E76" s="3">
-        <v>-19100</v>
+        <v>-18700</v>
       </c>
       <c r="F76" s="3">
-        <v>-18200</v>
+        <v>-19700</v>
       </c>
       <c r="G76" s="3">
-        <v>-17700</v>
+        <v>-18800</v>
       </c>
       <c r="H76" s="3">
-        <v>-17400</v>
+        <v>-18300</v>
       </c>
       <c r="I76" s="3">
-        <v>-17800</v>
+        <v>-17900</v>
       </c>
       <c r="J76" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-16400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-15600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-15000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-14200</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-11500</v>
       </c>
       <c r="O76" s="3">
         <v>-11500</v>
       </c>
       <c r="P76" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="Q76" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-11200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-10200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-9800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-9500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44165</v>
+      </c>
+      <c r="E80" s="2">
         <v>44074</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43982</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43890</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43799</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43708</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43616</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43524</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43434</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43343</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43251</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43159</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43069</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42978</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42886</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42794</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42704</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42613</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>800</v>
+        <v>-100</v>
       </c>
       <c r="E81" s="3">
+        <v>900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-600</v>
       </c>
       <c r="K81" s="3">
         <v>-600</v>
       </c>
       <c r="L81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M81" s="3">
         <v>-700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2600</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-300</v>
       </c>
       <c r="T81" s="3">
         <v>-300</v>
       </c>
       <c r="U81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="V81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4631,7 +4829,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
@@ -4643,16 +4841,16 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
         <v>100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
       <c r="L83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -4679,10 +4877,13 @@
         <v>100</v>
       </c>
       <c r="U83" s="3">
+        <v>100</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>200</v>
+      </c>
+      <c r="E89" s="3">
         <v>500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>100</v>
       </c>
       <c r="I89" s="3">
+        <v>100</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>100</v>
+      </c>
+      <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="R89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="S89" s="3">
+        <v>300</v>
+      </c>
+      <c r="T89" s="3">
+        <v>200</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-400</v>
-      </c>
-      <c r="R89" s="3">
-        <v>300</v>
-      </c>
-      <c r="S89" s="3">
-        <v>200</v>
-      </c>
-      <c r="T89" s="3">
-        <v>0</v>
-      </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5067,20 +5287,20 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
@@ -5094,19 +5314,19 @@
         <v>0</v>
       </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>200</v>
-      </c>
-      <c r="R91" s="3">
-        <v>-200</v>
       </c>
       <c r="S91" s="3">
         <v>-200</v>
@@ -5117,8 +5337,11 @@
       <c r="U91" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,22 +5461,25 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-600</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
         <v>0</v>
       </c>
       <c r="G94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -5259,31 +5488,31 @@
         <v>-100</v>
       </c>
       <c r="J94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
       </c>
       <c r="M94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>300</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-200</v>
       </c>
       <c r="S94" s="3">
         <v>-200</v>
@@ -5294,8 +5523,11 @@
       <c r="U94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,19 +5795,22 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>8</v>
+      <c r="F100" s="3">
+        <v>0</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>8</v>
@@ -5573,15 +5818,15 @@
       <c r="H100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I100" s="3">
+      <c r="I100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
@@ -5592,14 +5837,14 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
@@ -5607,13 +5852,16 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5671,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5680,11 +5931,11 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
@@ -5728,6 +5979,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>RCTFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,146 +665,150 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E7" s="2">
         <v>44165</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44074</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43982</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43890</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43799</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43708</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43616</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43524</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43434</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43343</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43251</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43159</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43069</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42978</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42886</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42794</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42704</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42613</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="E8" s="3">
         <v>2500</v>
       </c>
       <c r="F8" s="3">
-        <v>1900</v>
+        <v>2700</v>
       </c>
       <c r="G8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H8" s="3">
         <v>1300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J8" s="3">
         <v>1600</v>
-      </c>
-      <c r="I8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1200</v>
       </c>
       <c r="K8" s="3">
         <v>1200</v>
       </c>
       <c r="L8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M8" s="3">
         <v>1400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1700</v>
       </c>
       <c r="N8" s="3">
         <v>1700</v>
       </c>
       <c r="O8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
-      </c>
-      <c r="S8" s="3">
-        <v>1500</v>
       </c>
       <c r="T8" s="3">
         <v>1500</v>
@@ -813,134 +817,143 @@
         <v>1500</v>
       </c>
       <c r="V8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W8" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1700</v>
+        <v>2300</v>
       </c>
       <c r="E9" s="3">
         <v>1700</v>
       </c>
       <c r="F9" s="3">
-        <v>2100</v>
+        <v>1800</v>
       </c>
       <c r="G9" s="3">
-        <v>1300</v>
+        <v>2200</v>
       </c>
       <c r="H9" s="3">
         <v>1300</v>
       </c>
       <c r="I9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N9" s="3">
+      <c r="R9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S9" s="3">
         <v>1500</v>
       </c>
-      <c r="O9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <v>1400</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1500</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1400</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1300</v>
       </c>
       <c r="U9" s="3">
         <v>1300</v>
       </c>
       <c r="V9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>700</v>
       </c>
-      <c r="E10" s="3">
-        <v>800</v>
-      </c>
       <c r="F10" s="3">
+        <v>900</v>
+      </c>
+      <c r="G10" s="3">
         <v>-200</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-200</v>
       </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>400</v>
-      </c>
-      <c r="P10" s="3">
-        <v>200</v>
       </c>
       <c r="Q10" s="3">
         <v>200</v>
       </c>
       <c r="R10" s="3">
+        <v>200</v>
+      </c>
+      <c r="S10" s="3">
         <v>-400</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>100</v>
-      </c>
-      <c r="T10" s="3">
-        <v>200</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
       </c>
       <c r="V10" s="3">
+        <v>200</v>
+      </c>
+      <c r="W10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1104,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1099,10 +1119,10 @@
         <v>100</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
@@ -1114,28 +1134,28 @@
         <v>100</v>
       </c>
       <c r="K14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>2400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
         <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
         <v>100</v>
@@ -1147,10 +1167,13 @@
         <v>100</v>
       </c>
       <c r="V14" s="3">
+        <v>100</v>
+      </c>
+      <c r="W14" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1161,7 +1184,7 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>0</v>
@@ -1173,16 +1196,16 @@
         <v>0</v>
       </c>
       <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>100</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
@@ -1209,10 +1232,13 @@
         <v>100</v>
       </c>
       <c r="V15" s="3">
+        <v>100</v>
+      </c>
+      <c r="W15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="E17" s="3">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="F17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G17" s="3">
         <v>2200</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1800</v>
       </c>
       <c r="H17" s="3">
         <v>1900</v>
       </c>
       <c r="I17" s="3">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="J17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K17" s="3">
         <v>2400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>4300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
-        <v>800</v>
-      </c>
       <c r="F18" s="3">
+        <v>900</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="K18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="N18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O18" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
+        <v>200</v>
+      </c>
+      <c r="S18" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="T18" s="3">
         <v>-400</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>200</v>
-      </c>
-      <c r="R18" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-400</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-300</v>
       </c>
       <c r="U18" s="3">
         <v>-300</v>
       </c>
       <c r="V18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W18" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1413,9 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1442,34 +1476,37 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>600</v>
+      </c>
+      <c r="E21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>900</v>
-      </c>
       <c r="F21" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-600</v>
       </c>
       <c r="L21" s="3">
         <v>-600</v>
@@ -1478,22 +1515,22 @@
         <v>-600</v>
       </c>
       <c r="N21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="O21" s="3">
         <v>-2500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-200</v>
       </c>
       <c r="T21" s="3">
         <v>-200</v>
@@ -1502,10 +1539,13 @@
         <v>-200</v>
       </c>
       <c r="V21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W21" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
-        <v>-500</v>
-      </c>
       <c r="H23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-600</v>
       </c>
       <c r="L23" s="3">
         <v>-600</v>
       </c>
       <c r="M23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N23" s="3">
         <v>-700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2600</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-400</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-300</v>
       </c>
       <c r="U23" s="3">
         <v>-300</v>
       </c>
       <c r="V23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W23" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1736,11 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
-        <v>-500</v>
-      </c>
       <c r="H26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-600</v>
       </c>
       <c r="L26" s="3">
         <v>-600</v>
       </c>
       <c r="M26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N26" s="3">
         <v>-700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2600</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-400</v>
-      </c>
-      <c r="T26" s="3">
-        <v>-300</v>
       </c>
       <c r="U26" s="3">
         <v>-300</v>
       </c>
       <c r="V26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
-        <v>-500</v>
-      </c>
       <c r="H27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-600</v>
       </c>
       <c r="L27" s="3">
         <v>-600</v>
       </c>
       <c r="M27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N27" s="3">
         <v>-700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2600</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-400</v>
-      </c>
-      <c r="T27" s="3">
-        <v>-300</v>
       </c>
       <c r="U27" s="3">
         <v>-300</v>
       </c>
       <c r="V27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2191,11 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
-        <v>-500</v>
-      </c>
       <c r="H33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-600</v>
       </c>
       <c r="L33" s="3">
         <v>-600</v>
       </c>
       <c r="M33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N33" s="3">
         <v>-700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2600</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-400</v>
-      </c>
-      <c r="T33" s="3">
-        <v>-300</v>
       </c>
       <c r="U33" s="3">
         <v>-300</v>
       </c>
       <c r="V33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
-        <v>-500</v>
-      </c>
       <c r="H35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-600</v>
       </c>
       <c r="L35" s="3">
         <v>-600</v>
       </c>
       <c r="M35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N35" s="3">
         <v>-700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2600</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-400</v>
-      </c>
-      <c r="T35" s="3">
-        <v>-300</v>
       </c>
       <c r="U35" s="3">
         <v>-300</v>
       </c>
       <c r="V35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E38" s="2">
         <v>44165</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44074</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43982</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43890</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43799</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43708</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43616</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43524</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43434</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43343</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43251</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43159</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43069</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42978</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42886</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42794</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42704</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42613</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,23 +2573,24 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
-        <v>200</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
@@ -2538,19 +2625,22 @@
         <v>0</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,87 +2701,93 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1000</v>
       </c>
-      <c r="E43" s="3">
-        <v>1300</v>
-      </c>
       <c r="F43" s="3">
-        <v>700</v>
+        <v>1400</v>
       </c>
       <c r="G43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H43" s="3">
+        <v>800</v>
+      </c>
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="I43" s="3">
-        <v>700</v>
-      </c>
       <c r="J43" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="K43" s="3">
         <v>700</v>
       </c>
       <c r="L43" s="3">
+        <v>700</v>
+      </c>
+      <c r="M43" s="3">
         <v>1000</v>
-      </c>
-      <c r="M43" s="3">
-        <v>1300</v>
       </c>
       <c r="N43" s="3">
         <v>1300</v>
       </c>
       <c r="O43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P43" s="3">
         <v>1100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>1000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>1100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3">
-        <v>400</v>
-      </c>
       <c r="F44" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
       </c>
       <c r="H44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>300</v>
@@ -2700,22 +2796,22 @@
         <v>400</v>
       </c>
       <c r="K44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="L44" s="3">
         <v>300</v>
       </c>
       <c r="M44" s="3">
+        <v>300</v>
+      </c>
+      <c r="N44" s="3">
         <v>400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>500</v>
       </c>
       <c r="O44" s="3">
         <v>500</v>
       </c>
       <c r="P44" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Q44" s="3">
         <v>300</v>
@@ -2727,16 +2823,19 @@
         <v>300</v>
       </c>
       <c r="T44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="U44" s="3">
         <v>400</v>
       </c>
       <c r="V44" s="3">
+        <v>400</v>
+      </c>
+      <c r="W44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2747,11 +2846,11 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
@@ -2774,11 +2873,11 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
-      </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
@@ -2792,75 +2891,81 @@
         <v>0</v>
       </c>
       <c r="U45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1700</v>
+        <v>2400</v>
       </c>
       <c r="E46" s="3">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="F46" s="3">
-        <v>1400</v>
+        <v>2100</v>
       </c>
       <c r="G46" s="3">
-        <v>1100</v>
+        <v>1500</v>
       </c>
       <c r="H46" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I46" s="3">
         <v>1300</v>
       </c>
-      <c r="I46" s="3">
-        <v>1100</v>
-      </c>
       <c r="J46" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="K46" s="3">
         <v>1100</v>
       </c>
       <c r="L46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,19 +3026,22 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1100</v>
-      </c>
-      <c r="F48" s="3">
-        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
@@ -2957,34 +3065,37 @@
         <v>700</v>
       </c>
       <c r="N48" s="3">
+        <v>700</v>
+      </c>
+      <c r="O48" s="3">
         <v>800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3600</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>4100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>4300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4400</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3286,11 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>2700</v>
+        <v>3700</v>
       </c>
       <c r="E54" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="F54" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I54" s="3">
         <v>2000</v>
       </c>
-      <c r="G54" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1900</v>
-      </c>
-      <c r="I54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1800</v>
       </c>
       <c r="K54" s="3">
         <v>1800</v>
       </c>
       <c r="L54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M54" s="3">
         <v>2100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5500</v>
-      </c>
-      <c r="T54" s="3">
-        <v>5900</v>
       </c>
       <c r="U54" s="3">
         <v>5900</v>
       </c>
       <c r="V54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="W54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,96 +3533,100 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5600</v>
+        <v>6100</v>
       </c>
       <c r="E57" s="3">
         <v>5900</v>
       </c>
       <c r="F57" s="3">
-        <v>5900</v>
+        <v>6200</v>
       </c>
       <c r="G57" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="I57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J57" s="3">
         <v>5100</v>
       </c>
-      <c r="H57" s="3">
-        <v>5100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>4900</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>5500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>4600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>4500</v>
       </c>
       <c r="M57" s="3">
         <v>4500</v>
       </c>
       <c r="N57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="O57" s="3">
         <v>4300</v>
-      </c>
-      <c r="O57" s="3">
-        <v>4400</v>
       </c>
       <c r="P57" s="3">
         <v>4400</v>
       </c>
       <c r="Q57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="R57" s="3">
         <v>4800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>5100</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>5300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>5200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K58" s="3">
         <v>3600</v>
-      </c>
-      <c r="E58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="F58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="K58" s="3">
-        <v>3500</v>
       </c>
       <c r="L58" s="3">
         <v>3500</v>
@@ -3501,22 +3635,22 @@
         <v>3500</v>
       </c>
       <c r="N58" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="O58" s="3">
         <v>3400</v>
       </c>
       <c r="P58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Q58" s="3">
         <v>4200</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>3400</v>
       </c>
       <c r="R58" s="3">
         <v>3400</v>
       </c>
       <c r="S58" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="T58" s="3">
         <v>3500</v>
@@ -3527,132 +3661,141 @@
       <c r="V58" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>11800</v>
+      </c>
+      <c r="G59" s="3">
+        <v>11800</v>
+      </c>
+      <c r="H59" s="3">
         <v>11400</v>
       </c>
-      <c r="E59" s="3">
-        <v>11300</v>
-      </c>
-      <c r="F59" s="3">
-        <v>11300</v>
-      </c>
-      <c r="G59" s="3">
-        <v>10900</v>
-      </c>
-      <c r="H59" s="3">
-        <v>10600</v>
-      </c>
       <c r="I59" s="3">
-        <v>10400</v>
+        <v>11100</v>
       </c>
       <c r="J59" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K59" s="3">
         <v>10200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>9400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>9000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>8600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>8300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7900</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>6900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>5700</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20600</v>
+        <v>21000</v>
       </c>
       <c r="E60" s="3">
-        <v>20800</v>
+        <v>21600</v>
       </c>
       <c r="F60" s="3">
-        <v>20800</v>
+        <v>21700</v>
       </c>
       <c r="G60" s="3">
-        <v>19600</v>
+        <v>21800</v>
       </c>
       <c r="H60" s="3">
+        <v>20500</v>
+      </c>
+      <c r="I60" s="3">
+        <v>20300</v>
+      </c>
+      <c r="J60" s="3">
+        <v>19800</v>
+      </c>
+      <c r="K60" s="3">
         <v>19400</v>
       </c>
-      <c r="I60" s="3">
-        <v>18900</v>
-      </c>
-      <c r="J60" s="3">
-        <v>19400</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>17500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>17000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>16700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>16000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>15700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>15500</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>15300</v>
       </c>
       <c r="R60" s="3">
         <v>15300</v>
       </c>
       <c r="S60" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="T60" s="3">
         <v>14800</v>
       </c>
       <c r="U60" s="3">
+        <v>14800</v>
+      </c>
+      <c r="V60" s="3">
         <v>14500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3713,25 +3856,28 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>1000</v>
-      </c>
-      <c r="F62" s="3">
-        <v>900</v>
       </c>
       <c r="G62" s="3">
         <v>900</v>
       </c>
       <c r="H62" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I62" s="3">
         <v>800</v>
@@ -3740,43 +3886,46 @@
         <v>800</v>
       </c>
       <c r="K62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="L62" s="3">
         <v>700</v>
       </c>
       <c r="M62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N62" s="3">
         <v>800</v>
       </c>
       <c r="O62" s="3">
+        <v>800</v>
+      </c>
+      <c r="P62" s="3">
         <v>900</v>
-      </c>
-      <c r="P62" s="3">
-        <v>1000</v>
       </c>
       <c r="Q62" s="3">
         <v>1000</v>
       </c>
       <c r="R62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="S62" s="3">
         <v>1100</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1000</v>
       </c>
       <c r="T62" s="3">
         <v>1000</v>
       </c>
       <c r="U62" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="V62" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>22500</v>
+      </c>
+      <c r="F66" s="3">
+        <v>22800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>22700</v>
+      </c>
+      <c r="H66" s="3">
         <v>21500</v>
       </c>
-      <c r="E66" s="3">
-        <v>21800</v>
-      </c>
-      <c r="F66" s="3">
-        <v>21700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>20500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>20100</v>
-      </c>
       <c r="I66" s="3">
-        <v>19700</v>
+        <v>21100</v>
       </c>
       <c r="J66" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K66" s="3">
         <v>20200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>18200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>16800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>16700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>16500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>15700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>15800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>15400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-60800</v>
+        <v>-63000</v>
       </c>
       <c r="E72" s="3">
-        <v>-60700</v>
+        <v>-63600</v>
       </c>
       <c r="F72" s="3">
-        <v>-61500</v>
+        <v>-63400</v>
       </c>
       <c r="G72" s="3">
-        <v>-60600</v>
+        <v>-64300</v>
       </c>
       <c r="H72" s="3">
-        <v>-60100</v>
+        <v>-63400</v>
       </c>
       <c r="I72" s="3">
-        <v>-59700</v>
+        <v>-62800</v>
       </c>
       <c r="J72" s="3">
+        <v>-62400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-60200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-57000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-55700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-55200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-53900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-45300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-45400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-44900</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-45100</v>
       </c>
       <c r="S72" s="3">
         <v>-45100</v>
       </c>
       <c r="T72" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="U72" s="3">
         <v>-44800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-44500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-44100</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-18800</v>
+        <v>-18200</v>
       </c>
       <c r="E76" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-19600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="J76" s="3">
         <v>-18700</v>
       </c>
-      <c r="F76" s="3">
-        <v>-19700</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-18800</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-18300</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-18400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-16400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-15600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-15000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-14200</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-11500</v>
       </c>
       <c r="P76" s="3">
         <v>-11500</v>
       </c>
       <c r="Q76" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="R76" s="3">
         <v>-11100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-11200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-10200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-9800</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-9500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44255</v>
+      </c>
+      <c r="E80" s="2">
         <v>44165</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44074</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43982</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43890</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43799</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43708</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43616</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43524</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43434</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43343</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43251</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43159</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43069</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42978</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42886</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42794</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42704</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42613</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
-        <v>-500</v>
-      </c>
       <c r="H81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-600</v>
       </c>
       <c r="L81" s="3">
         <v>-600</v>
       </c>
       <c r="M81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N81" s="3">
         <v>-700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2600</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-400</v>
-      </c>
-      <c r="T81" s="3">
-        <v>-300</v>
       </c>
       <c r="U81" s="3">
         <v>-300</v>
       </c>
       <c r="V81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="W81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4832,7 +5031,7 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -4844,16 +5043,16 @@
         <v>0</v>
       </c>
       <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>100</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -4880,10 +5079,13 @@
         <v>100</v>
       </c>
       <c r="V83" s="3">
+        <v>100</v>
+      </c>
+      <c r="W83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>700</v>
+      </c>
+      <c r="E89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>100</v>
       </c>
       <c r="J89" s="3">
+        <v>100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>300</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>200</v>
       </c>
-      <c r="U89" s="3">
-        <v>0</v>
-      </c>
       <c r="V89" s="3">
+        <v>0</v>
+      </c>
+      <c r="W89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,8 +5498,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5290,20 +5511,20 @@
         <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
@@ -5317,19 +5538,19 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>200</v>
-      </c>
-      <c r="S91" s="3">
-        <v>-200</v>
       </c>
       <c r="T91" s="3">
         <v>-200</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,22 +5691,25 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>-600</v>
-      </c>
       <c r="F94" s="3">
-        <v>0</v>
+        <v>-700</v>
       </c>
       <c r="G94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H94" s="3">
         <v>-100</v>
@@ -5491,31 +5721,31 @@
         <v>-100</v>
       </c>
       <c r="K94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>300</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-200</v>
       </c>
       <c r="T94" s="3">
         <v>-200</v>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,22 +6041,25 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>8</v>
+      <c r="G100" s="3">
+        <v>0</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>8</v>
@@ -5821,15 +6067,15 @@
       <c r="I100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J100" s="3">
+      <c r="J100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="3">
         <v>200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
@@ -5840,14 +6086,14 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -5855,13 +6101,16 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,22 +6171,25 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="G102" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>
@@ -5982,6 +6234,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
@@ -763,25 +763,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F8" s="3">
         <v>2500</v>
       </c>
-      <c r="F8" s="3">
-        <v>2700</v>
-      </c>
       <c r="G8" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="H8" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I8" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="J8" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="K8" s="3">
         <v>1200</v>
@@ -828,25 +828,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F9" s="3">
         <v>1700</v>
       </c>
-      <c r="F9" s="3">
-        <v>1800</v>
-      </c>
       <c r="G9" s="3">
-        <v>2200</v>
+        <v>2000</v>
       </c>
       <c r="H9" s="3">
         <v>1300</v>
       </c>
       <c r="I9" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="J9" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="K9" s="3">
         <v>1800</v>
@@ -899,7 +899,7 @@
         <v>700</v>
       </c>
       <c r="F10" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G10" s="3">
         <v>-200</v>
@@ -1113,7 +1113,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>100</v>
@@ -1128,7 +1128,7 @@
         <v>100</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
         <v>100</v>
@@ -1265,25 +1265,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E17" s="3">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="F17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H17" s="3">
         <v>1800</v>
       </c>
-      <c r="G17" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1900</v>
       </c>
-      <c r="I17" s="3">
-        <v>2000</v>
-      </c>
       <c r="J17" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="K17" s="3">
         <v>2400</v>
@@ -1330,19 +1330,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E18" s="3">
         <v>-200</v>
       </c>
       <c r="F18" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G18" s="3">
-        <v>-300</v>
+        <v>-200</v>
       </c>
       <c r="H18" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I18" s="3">
         <v>-400</v>
@@ -1491,7 +1491,7 @@
         <v>-100</v>
       </c>
       <c r="F21" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G21" s="3">
         <v>-200</v>
@@ -1615,7 +1615,7 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E23" s="3">
         <v>-100</v>
@@ -1627,7 +1627,7 @@
         <v>-200</v>
       </c>
       <c r="H23" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I23" s="3">
         <v>-400</v>
@@ -1810,7 +1810,7 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E26" s="3">
         <v>-100</v>
@@ -1822,7 +1822,7 @@
         <v>-200</v>
       </c>
       <c r="H26" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I26" s="3">
         <v>-400</v>
@@ -1875,7 +1875,7 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E27" s="3">
         <v>-100</v>
@@ -1887,7 +1887,7 @@
         <v>-200</v>
       </c>
       <c r="H27" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
@@ -2265,7 +2265,7 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E33" s="3">
         <v>-100</v>
@@ -2277,7 +2277,7 @@
         <v>-200</v>
       </c>
       <c r="H33" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
@@ -2395,7 +2395,7 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E35" s="3">
         <v>-100</v>
@@ -2407,7 +2407,7 @@
         <v>-200</v>
       </c>
       <c r="H35" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
@@ -2583,7 +2583,7 @@
         <v>500</v>
       </c>
       <c r="E41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>200</v>
@@ -2710,25 +2710,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E43" s="3">
         <v>1000</v>
       </c>
       <c r="F43" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G43" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H43" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I43" s="3">
         <v>900</v>
       </c>
       <c r="J43" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K43" s="3">
         <v>700</v>
@@ -2775,25 +2775,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G44" s="3">
         <v>300</v>
       </c>
       <c r="H44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="I44" s="3">
         <v>300</v>
       </c>
       <c r="J44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K44" s="3">
         <v>400</v>
@@ -2905,25 +2905,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E46" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F46" s="3">
-        <v>2100</v>
+        <v>1900</v>
       </c>
       <c r="G46" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="I46" s="3">
-        <v>1300</v>
-      </c>
       <c r="J46" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="K46" s="3">
         <v>1100</v>
@@ -3035,13 +3035,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E48" s="3">
         <v>1000</v>
       </c>
       <c r="F48" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
@@ -3050,7 +3050,7 @@
         <v>600</v>
       </c>
       <c r="I48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="J48" s="3">
         <v>700</v>
@@ -3425,25 +3425,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="E54" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="F54" s="3">
-        <v>3200</v>
+        <v>3000</v>
       </c>
       <c r="G54" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H54" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J54" s="3">
         <v>1800</v>
-      </c>
-      <c r="I54" s="3">
-        <v>2000</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1900</v>
       </c>
       <c r="K54" s="3">
         <v>1800</v>
@@ -3540,25 +3540,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6100</v>
+        <v>5800</v>
       </c>
       <c r="E57" s="3">
-        <v>5900</v>
+        <v>5500</v>
       </c>
       <c r="F57" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="G57" s="3">
-        <v>6200</v>
+        <v>5800</v>
       </c>
       <c r="H57" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="I57" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="J57" s="3">
-        <v>5100</v>
+        <v>4800</v>
       </c>
       <c r="K57" s="3">
         <v>5500</v>
@@ -3605,25 +3605,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3700</v>
+        <v>3400</v>
       </c>
       <c r="E58" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="F58" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="G58" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="H58" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="I58" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="J58" s="3">
-        <v>3800</v>
+        <v>3600</v>
       </c>
       <c r="K58" s="3">
         <v>3600</v>
@@ -3670,25 +3670,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E59" s="3">
         <v>11200</v>
       </c>
-      <c r="E59" s="3">
-        <v>11900</v>
-      </c>
       <c r="F59" s="3">
-        <v>11800</v>
+        <v>11100</v>
       </c>
       <c r="G59" s="3">
-        <v>11800</v>
+        <v>11100</v>
       </c>
       <c r="H59" s="3">
-        <v>11400</v>
+        <v>10700</v>
       </c>
       <c r="I59" s="3">
-        <v>11100</v>
+        <v>10400</v>
       </c>
       <c r="J59" s="3">
-        <v>10800</v>
+        <v>10200</v>
       </c>
       <c r="K59" s="3">
         <v>10200</v>
@@ -3735,25 +3735,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21000</v>
+        <v>19700</v>
       </c>
       <c r="E60" s="3">
-        <v>21600</v>
+        <v>20300</v>
       </c>
       <c r="F60" s="3">
-        <v>21700</v>
+        <v>20400</v>
       </c>
       <c r="G60" s="3">
-        <v>21800</v>
+        <v>20500</v>
       </c>
       <c r="H60" s="3">
-        <v>20500</v>
+        <v>19300</v>
       </c>
       <c r="I60" s="3">
-        <v>20300</v>
+        <v>19100</v>
       </c>
       <c r="J60" s="3">
-        <v>19800</v>
+        <v>18600</v>
       </c>
       <c r="K60" s="3">
         <v>19400</v>
@@ -3865,7 +3865,7 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E62" s="3">
         <v>900</v>
@@ -3880,7 +3880,7 @@
         <v>900</v>
       </c>
       <c r="I62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J62" s="3">
         <v>800</v>
@@ -4125,25 +4125,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22000</v>
+        <v>20600</v>
       </c>
       <c r="E66" s="3">
-        <v>22500</v>
+        <v>21200</v>
       </c>
       <c r="F66" s="3">
-        <v>22800</v>
+        <v>21400</v>
       </c>
       <c r="G66" s="3">
-        <v>22700</v>
+        <v>21300</v>
       </c>
       <c r="H66" s="3">
-        <v>21500</v>
+        <v>20200</v>
       </c>
       <c r="I66" s="3">
-        <v>21100</v>
+        <v>19800</v>
       </c>
       <c r="J66" s="3">
-        <v>20600</v>
+        <v>19300</v>
       </c>
       <c r="K66" s="3">
         <v>20200</v>
@@ -4475,25 +4475,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-63000</v>
+        <v>-59200</v>
       </c>
       <c r="E72" s="3">
-        <v>-63600</v>
+        <v>-59800</v>
       </c>
       <c r="F72" s="3">
-        <v>-63400</v>
+        <v>-59600</v>
       </c>
       <c r="G72" s="3">
-        <v>-64300</v>
+        <v>-60500</v>
       </c>
       <c r="H72" s="3">
-        <v>-63400</v>
+        <v>-59600</v>
       </c>
       <c r="I72" s="3">
-        <v>-62800</v>
+        <v>-59100</v>
       </c>
       <c r="J72" s="3">
-        <v>-62400</v>
+        <v>-58700</v>
       </c>
       <c r="K72" s="3">
         <v>-60200</v>
@@ -4735,25 +4735,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-18200</v>
+        <v>-17100</v>
       </c>
       <c r="E76" s="3">
-        <v>-19700</v>
+        <v>-18500</v>
       </c>
       <c r="F76" s="3">
-        <v>-19600</v>
+        <v>-18400</v>
       </c>
       <c r="G76" s="3">
-        <v>-20600</v>
+        <v>-19400</v>
       </c>
       <c r="H76" s="3">
-        <v>-19600</v>
+        <v>-18500</v>
       </c>
       <c r="I76" s="3">
-        <v>-19100</v>
+        <v>-17900</v>
       </c>
       <c r="J76" s="3">
-        <v>-18700</v>
+        <v>-17600</v>
       </c>
       <c r="K76" s="3">
         <v>-18400</v>
@@ -4935,7 +4935,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E81" s="3">
         <v>-100</v>
@@ -4947,7 +4947,7 @@
         <v>-200</v>
       </c>
       <c r="H81" s="3">
-        <v>-600</v>
+        <v>-500</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
@@ -5415,7 +5415,7 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E89" s="3">
         <v>200</v>
@@ -5505,7 +5505,7 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
@@ -5706,7 +5706,7 @@
         <v>-100</v>
       </c>
       <c r="F94" s="3">
-        <v>-700</v>
+        <v>-600</v>
       </c>
       <c r="G94" s="3">
         <v>0</v>
@@ -6186,10 +6186,10 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>RCTFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,321 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F7" s="2">
         <v>44255</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44165</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44074</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43982</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43890</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43799</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43708</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43616</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43524</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43434</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43343</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43251</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43159</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43069</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42978</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42886</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42794</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42704</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42613</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
-        <v>2300</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H8" s="3">
         <v>2500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1700</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1500</v>
       </c>
       <c r="R8" s="3">
         <v>1600</v>
       </c>
       <c r="S8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U8" s="3">
         <v>1100</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1500</v>
       </c>
       <c r="V8" s="3">
         <v>1500</v>
       </c>
       <c r="W8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Y8" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="3">
         <v>2200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="L9" s="3">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="M9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O9" s="3">
         <v>1700</v>
       </c>
-      <c r="G9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="P9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="S9" s="3">
         <v>1300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="K9" s="3">
-        <v>1800</v>
-      </c>
-      <c r="L9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1500</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1400</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1500</v>
       </c>
       <c r="T9" s="3">
         <v>1400</v>
       </c>
       <c r="U9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W9" s="3">
         <v>1300</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1300</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>200</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>600</v>
+      </c>
+      <c r="G10" s="3">
         <v>700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>-200</v>
       </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K10" s="3">
-        <v>-600</v>
       </c>
       <c r="L10" s="3">
         <v>-100</v>
       </c>
       <c r="M10" s="3">
+        <v>-600</v>
+      </c>
+      <c r="N10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O10" s="3">
         <v>-200</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>-400</v>
       </c>
-      <c r="T10" s="3">
-        <v>100</v>
-      </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
+        <v>100</v>
+      </c>
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1003,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1070,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,22 +1141,28 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
@@ -1134,34 +1174,34 @@
         <v>100</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q14" s="3">
         <v>2400</v>
       </c>
-      <c r="P14" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
-      </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
         <v>100</v>
@@ -1170,10 +1210,16 @@
         <v>100</v>
       </c>
       <c r="W14" s="3">
+        <v>100</v>
+      </c>
+      <c r="X14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1187,10 +1233,10 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I15" s="3">
         <v>0</v>
@@ -1199,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P15" s="3">
         <v>100</v>
@@ -1235,10 +1281,16 @@
         <v>100</v>
       </c>
       <c r="W15" s="3">
+        <v>100</v>
+      </c>
+      <c r="X15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1311,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F17" s="3">
         <v>2200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>2500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>2100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>2300</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>4300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2400</v>
-      </c>
-      <c r="T17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="U17" s="3">
-        <v>1800</v>
       </c>
       <c r="V17" s="3">
         <v>1900</v>
       </c>
       <c r="W17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y17" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E18" s="3">
         <v>500</v>
       </c>
-      <c r="E18" s="3">
-        <v>-200</v>
-      </c>
       <c r="F18" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="G18" s="3">
         <v>-200</v>
       </c>
       <c r="H18" s="3">
+        <v>800</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-500</v>
       </c>
       <c r="N18" s="3">
         <v>-600</v>
       </c>
       <c r="O18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-2600</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,8 +1480,10 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1423,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1479,73 +1547,85 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>700</v>
+      </c>
+      <c r="F21" s="3">
         <v>600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>900</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-600</v>
       </c>
       <c r="N21" s="3">
         <v>-600</v>
       </c>
       <c r="O21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="P21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-2500</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-200</v>
       </c>
       <c r="V21" s="3">
         <v>-200</v>
       </c>
       <c r="W21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1609,73 +1689,85 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>700</v>
+      </c>
+      <c r="F23" s="3">
         <v>500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-2600</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
+        <v>100</v>
+      </c>
+      <c r="U23" s="3">
         <v>-1300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1739,8 +1831,14 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1902,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>700</v>
+      </c>
+      <c r="F26" s="3">
         <v>500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-2600</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
+        <v>100</v>
+      </c>
+      <c r="U26" s="3">
         <v>-1300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>700</v>
+      </c>
+      <c r="F27" s="3">
         <v>500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-2600</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
+        <v>100</v>
+      </c>
+      <c r="U27" s="3">
         <v>-1300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2115,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2186,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2257,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,8 +2328,14 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2203,7 +2343,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2259,73 +2399,85 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>700</v>
+      </c>
+      <c r="F33" s="3">
         <v>500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-2600</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
+        <v>100</v>
+      </c>
+      <c r="U33" s="3">
         <v>-1300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2541,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>700</v>
+      </c>
+      <c r="F35" s="3">
         <v>500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-2600</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
+        <v>100</v>
+      </c>
+      <c r="U35" s="3">
         <v>-1300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F38" s="2">
         <v>44255</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44165</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44074</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43982</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43890</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43799</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43708</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43616</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43524</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43434</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43343</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43251</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43159</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43069</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42978</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42886</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42794</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42704</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42613</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2719,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,29 +2746,31 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
         <v>500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>500</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2628,19 +2802,25 @@
         <v>0</v>
       </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
       </c>
       <c r="V41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,8 +2884,14 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2713,81 +2899,87 @@
         <v>1200</v>
       </c>
       <c r="E43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G43" s="3">
         <v>1000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>700</v>
-      </c>
-      <c r="H43" s="3">
-        <v>700</v>
-      </c>
-      <c r="I43" s="3">
-        <v>900</v>
       </c>
       <c r="J43" s="3">
         <v>700</v>
       </c>
       <c r="K43" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="L43" s="3">
         <v>700</v>
       </c>
       <c r="M43" s="3">
+        <v>700</v>
+      </c>
+      <c r="N43" s="3">
+        <v>700</v>
+      </c>
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>1000</v>
       </c>
       <c r="R43" s="3">
         <v>1100</v>
       </c>
       <c r="S43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="T43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U43" s="3">
         <v>900</v>
-      </c>
-      <c r="T43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="U43" s="3">
-        <v>1200</v>
       </c>
       <c r="V43" s="3">
         <v>1000</v>
       </c>
       <c r="W43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="X43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>700</v>
+      </c>
+      <c r="F44" s="3">
         <v>500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
+        <v>500</v>
+      </c>
+      <c r="H44" s="3">
         <v>400</v>
-      </c>
-      <c r="F44" s="3">
-        <v>400</v>
-      </c>
-      <c r="G44" s="3">
-        <v>300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>300</v>
       </c>
       <c r="I44" s="3">
         <v>300</v>
@@ -2796,28 +2988,28 @@
         <v>300</v>
       </c>
       <c r="K44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="L44" s="3">
         <v>300</v>
       </c>
       <c r="M44" s="3">
+        <v>400</v>
+      </c>
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
+        <v>300</v>
+      </c>
+      <c r="P44" s="3">
         <v>400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>500</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>300</v>
-      </c>
-      <c r="R44" s="3">
-        <v>300</v>
       </c>
       <c r="S44" s="3">
         <v>300</v>
@@ -2826,36 +3018,42 @@
         <v>300</v>
       </c>
       <c r="U44" s="3">
+        <v>300</v>
+      </c>
+      <c r="V44" s="3">
+        <v>300</v>
+      </c>
+      <c r="W44" s="3">
         <v>400</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -2876,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -2894,78 +3092,90 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F46" s="3">
         <v>2300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1100</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1200</v>
       </c>
       <c r="J46" s="3">
         <v>1100</v>
       </c>
       <c r="K46" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="L46" s="3">
         <v>1100</v>
       </c>
       <c r="M46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="O46" s="3">
         <v>1400</v>
-      </c>
-      <c r="N46" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1800</v>
       </c>
       <c r="P46" s="3">
         <v>1700</v>
       </c>
       <c r="Q46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1300</v>
-      </c>
-      <c r="T46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="U46" s="3">
-        <v>1700</v>
       </c>
       <c r="V46" s="3">
         <v>1400</v>
       </c>
       <c r="W46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="Y46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3029,34 +3239,40 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="E48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G48" s="3">
         <v>1000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
-      </c>
-      <c r="G48" s="3">
-        <v>600</v>
-      </c>
-      <c r="H48" s="3">
-        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>600</v>
       </c>
       <c r="J48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="K48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
@@ -3068,34 +3284,40 @@
         <v>700</v>
       </c>
       <c r="O48" s="3">
+        <v>700</v>
+      </c>
+      <c r="P48" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q48" s="3">
         <v>800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3600</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3900</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>4100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>4300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>4400</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3159,8 +3381,14 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3452,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,8 +3523,14 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3354,8 +3594,14 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3665,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F54" s="3">
         <v>3500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>2000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1900</v>
-      </c>
-      <c r="J54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="K54" s="3">
-        <v>1800</v>
       </c>
       <c r="L54" s="3">
         <v>1800</v>
       </c>
       <c r="M54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="O54" s="3">
         <v>2100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2600</v>
-      </c>
-      <c r="P54" s="3">
-        <v>5200</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>5000</v>
       </c>
       <c r="R54" s="3">
         <v>5200</v>
       </c>
       <c r="S54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="T54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="U54" s="3">
         <v>5100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>5900</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3767,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,84 +3794,92 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>5800</v>
+        <v>5700</v>
       </c>
       <c r="E57" s="3">
-        <v>5500</v>
+        <v>5700</v>
       </c>
       <c r="F57" s="3">
         <v>5800</v>
       </c>
       <c r="G57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H57" s="3">
         <v>5800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="J57" s="3">
         <v>5000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>5100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>4800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>4600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>4500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>4300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4400</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4400</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4900</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>5100</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>5300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>5200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="E58" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F58" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="G58" s="3">
         <v>3600</v>
@@ -3629,34 +3897,34 @@
         <v>3600</v>
       </c>
       <c r="L58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="M58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="N58" s="3">
         <v>3500</v>
       </c>
       <c r="O58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="P58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Q58" s="3">
         <v>3400</v>
-      </c>
-      <c r="P58" s="3">
-        <v>3400</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>4200</v>
       </c>
       <c r="R58" s="3">
         <v>3400</v>
       </c>
       <c r="S58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="T58" s="3">
         <v>3400</v>
       </c>
-      <c r="T58" s="3">
-        <v>3500</v>
-      </c>
       <c r="U58" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="V58" s="3">
         <v>3500</v>
@@ -3664,146 +3932,164 @@
       <c r="W58" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E59" s="3">
         <v>10500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>11300</v>
+      </c>
+      <c r="H59" s="3">
         <v>11200</v>
       </c>
-      <c r="F59" s="3">
-        <v>11100</v>
-      </c>
-      <c r="G59" s="3">
-        <v>11100</v>
-      </c>
-      <c r="H59" s="3">
-        <v>10700</v>
-      </c>
       <c r="I59" s="3">
+        <v>11200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>10800</v>
+      </c>
+      <c r="K59" s="3">
         <v>10400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>10200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>10200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>9400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>9000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>8600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>8300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>7900</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>6900</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>7100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>7000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>6100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>6000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>5700</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20100</v>
+      </c>
+      <c r="E60" s="3">
         <v>19700</v>
       </c>
-      <c r="E60" s="3">
-        <v>20300</v>
-      </c>
       <c r="F60" s="3">
+        <v>19900</v>
+      </c>
+      <c r="G60" s="3">
         <v>20400</v>
       </c>
-      <c r="G60" s="3">
-        <v>20500</v>
-      </c>
       <c r="H60" s="3">
-        <v>19300</v>
+        <v>20600</v>
       </c>
       <c r="I60" s="3">
+        <v>20600</v>
+      </c>
+      <c r="J60" s="3">
+        <v>19400</v>
+      </c>
+      <c r="K60" s="3">
         <v>19100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>18600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>19400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>17500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>17000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>16700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>16000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>15700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>15500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>15300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>15300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>14800</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>14800</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>14500</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3859,73 +4145,85 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F62" s="3">
         <v>900</v>
-      </c>
-      <c r="E62" s="3">
-        <v>900</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1000</v>
       </c>
       <c r="G62" s="3">
         <v>900</v>
       </c>
       <c r="H62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I62" s="3">
         <v>900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
+        <v>900</v>
+      </c>
+      <c r="K62" s="3">
         <v>700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>1000</v>
-      </c>
-      <c r="R62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1100</v>
       </c>
       <c r="T62" s="3">
         <v>1000</v>
       </c>
       <c r="U62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V62" s="3">
         <v>1000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X62" s="3">
         <v>900</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4287,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4358,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4429,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20600</v>
+        <v>21300</v>
       </c>
       <c r="E66" s="3">
-        <v>21200</v>
+        <v>20900</v>
       </c>
       <c r="F66" s="3">
-        <v>21400</v>
+        <v>20800</v>
       </c>
       <c r="G66" s="3">
         <v>21300</v>
       </c>
       <c r="H66" s="3">
+        <v>21500</v>
+      </c>
+      <c r="I66" s="3">
+        <v>21500</v>
+      </c>
+      <c r="J66" s="3">
+        <v>20300</v>
+      </c>
+      <c r="K66" s="3">
+        <v>19800</v>
+      </c>
+      <c r="L66" s="3">
+        <v>19300</v>
+      </c>
+      <c r="M66" s="3">
         <v>20200</v>
       </c>
-      <c r="I66" s="3">
-        <v>19800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>19300</v>
-      </c>
-      <c r="K66" s="3">
-        <v>20200</v>
-      </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>18200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>17700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>17500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>16800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>16700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>16500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>16300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>16400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>15700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>15800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>15400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4531,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4598,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4669,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4740,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,73 +4811,85 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-59200</v>
+        <v>-59700</v>
       </c>
       <c r="E72" s="3">
-        <v>-59800</v>
+        <v>-59000</v>
       </c>
       <c r="F72" s="3">
-        <v>-59600</v>
+        <v>-59700</v>
       </c>
       <c r="G72" s="3">
-        <v>-60500</v>
+        <v>-60200</v>
       </c>
       <c r="H72" s="3">
-        <v>-59600</v>
+        <v>-60100</v>
       </c>
       <c r="I72" s="3">
+        <v>-60900</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-59100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-58700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-60200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-57000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-55700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-55200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-53900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-45300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-45400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-44900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-45100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-45100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-44800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-44500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-44100</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4953,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5024,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5095,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-17100</v>
+        <v>-17300</v>
       </c>
       <c r="E76" s="3">
-        <v>-18500</v>
+        <v>-16600</v>
       </c>
       <c r="F76" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="M76" s="3">
         <v>-18400</v>
       </c>
-      <c r="G76" s="3">
-        <v>-19400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-18500</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-17600</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-16400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-15600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-15000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-14200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-11500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-11500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-11100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-11200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-10200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-9800</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-9500</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5237,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44439</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44347</v>
+      </c>
+      <c r="F80" s="2">
         <v>44255</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44165</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44074</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43982</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43890</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43799</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43708</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43616</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43524</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43434</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43343</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43251</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43159</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43069</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42978</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42886</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42794</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42704</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42613</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>700</v>
+      </c>
+      <c r="F81" s="3">
         <v>500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-2600</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
+        <v>100</v>
+      </c>
+      <c r="U81" s="3">
         <v>-1300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5415,10 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5034,10 +5432,10 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
         <v>0</v>
@@ -5046,19 +5444,19 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P83" s="3">
         <v>100</v>
@@ -5082,10 +5480,16 @@
         <v>100</v>
       </c>
       <c r="W83" s="3">
+        <v>100</v>
+      </c>
+      <c r="X83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5553,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5624,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5695,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5766,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5837,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>100</v>
+      </c>
+      <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>300</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>200</v>
       </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
-      <c r="W89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,8 +5939,10 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5508,29 +5950,29 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <v>100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
@@ -5541,22 +5983,22 @@
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>200</v>
-      </c>
-      <c r="T91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U91" s="3">
-        <v>-200</v>
       </c>
       <c r="V91" s="3">
         <v>-200</v>
@@ -5564,8 +6006,14 @@
       <c r="W91" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6077,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,28 +6148,34 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
-      </c>
       <c r="I94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
@@ -5724,16 +6184,16 @@
         <v>-100</v>
       </c>
       <c r="L94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
@@ -5742,16 +6202,16 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>300</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-200</v>
       </c>
       <c r="V94" s="3">
         <v>-200</v>
@@ -5759,8 +6219,14 @@
       <c r="W94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6250,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6317,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6388,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6459,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,43 +6530,49 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>8</v>
+      <c r="H100" s="3">
+        <v>100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="K100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M100" s="3">
         <v>200</v>
       </c>
-      <c r="L100" s="3">
-        <v>100</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -6089,28 +6581,34 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,29 +6672,35 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -6237,6 +6741,12 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
   <si>
     <t>RCTFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,167 +665,170 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E7" s="2">
         <v>44439</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44347</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44255</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44165</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44074</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43982</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43890</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43799</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43708</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43616</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43524</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43434</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43343</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43251</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43159</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43069</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42978</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42886</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42794</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42704</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42613</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>2500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1500</v>
-      </c>
-      <c r="M8" s="3">
-        <v>1200</v>
       </c>
       <c r="N8" s="3">
         <v>1200</v>
       </c>
       <c r="O8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P8" s="3">
         <v>1400</v>
-      </c>
-      <c r="P8" s="3">
-        <v>1700</v>
       </c>
       <c r="Q8" s="3">
         <v>1700</v>
       </c>
       <c r="R8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1100</v>
-      </c>
-      <c r="V8" s="3">
-        <v>1500</v>
       </c>
       <c r="W8" s="3">
         <v>1500</v>
@@ -834,81 +837,87 @@
         <v>1500</v>
       </c>
       <c r="Y8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z8" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1700</v>
       </c>
       <c r="H9" s="3">
         <v>1700</v>
       </c>
       <c r="I9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J9" s="3">
         <v>2000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1200</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1800</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1400</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1300</v>
       </c>
       <c r="X9" s="3">
         <v>1300</v>
       </c>
       <c r="Y9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -916,70 +925,73 @@
         <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="F10" s="3">
         <v>600</v>
       </c>
       <c r="G10" s="3">
+        <v>600</v>
+      </c>
+      <c r="H10" s="3">
         <v>700</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-200</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-600</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-200</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>400</v>
-      </c>
-      <c r="S10" s="3">
-        <v>200</v>
       </c>
       <c r="T10" s="3">
         <v>200</v>
       </c>
       <c r="U10" s="3">
+        <v>200</v>
+      </c>
+      <c r="V10" s="3">
         <v>-400</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>100</v>
-      </c>
-      <c r="W10" s="3">
-        <v>200</v>
       </c>
       <c r="X10" s="3">
         <v>200</v>
       </c>
       <c r="Y10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1005,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1076,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,64 +1163,67 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>100</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
         <v>100</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>100</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
       </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>2400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
         <v>100</v>
@@ -1216,10 +1235,13 @@
         <v>100</v>
       </c>
       <c r="Y14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z14" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1239,7 +1261,7 @@
         <v>100</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -1251,16 +1273,16 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
         <v>100</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
       <c r="O15" s="3">
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>100</v>
@@ -1287,10 +1309,13 @@
         <v>100</v>
       </c>
       <c r="Y15" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E17" s="3">
         <v>3300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2300</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2400</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1900</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>0</v>
+      </c>
+      <c r="E18" s="3">
         <v>-700</v>
-      </c>
-      <c r="E18" s="3">
-        <v>500</v>
       </c>
       <c r="F18" s="3">
         <v>500</v>
       </c>
       <c r="G18" s="3">
+        <v>500</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-1200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-2600</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-1300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
-      </c>
-      <c r="W18" s="3">
-        <v>-300</v>
       </c>
       <c r="X18" s="3">
         <v>-300</v>
       </c>
       <c r="Y18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,8 +1514,9 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1491,11 +1524,11 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1553,43 +1586,46 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>0</v>
+      </c>
+      <c r="E21" s="3">
         <v>-600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>900</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-600</v>
       </c>
       <c r="O21" s="3">
         <v>-600</v>
@@ -1598,22 +1634,22 @@
         <v>-600</v>
       </c>
       <c r="Q21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R21" s="3">
         <v>-2500</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="V21" s="3">
-        <v>-200</v>
       </c>
       <c r="W21" s="3">
         <v>-200</v>
@@ -1622,10 +1658,13 @@
         <v>-200</v>
       </c>
       <c r="Y21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Z21" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1695,79 +1734,85 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>900</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-600</v>
       </c>
       <c r="O23" s="3">
         <v>-600</v>
       </c>
       <c r="P23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2600</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-400</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-400</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-300</v>
       </c>
       <c r="X23" s="3">
         <v>-300</v>
       </c>
       <c r="Y23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1837,8 +1882,11 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-600</v>
       </c>
       <c r="O26" s="3">
         <v>-600</v>
       </c>
       <c r="P26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2600</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-400</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-400</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-300</v>
       </c>
       <c r="X26" s="3">
         <v>-300</v>
       </c>
       <c r="Y26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-600</v>
       </c>
       <c r="O27" s="3">
         <v>-600</v>
       </c>
       <c r="P27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2600</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-400</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-400</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-300</v>
       </c>
       <c r="X27" s="3">
         <v>-300</v>
       </c>
       <c r="Y27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,8 +2400,11 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2343,11 +2412,11 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2405,79 +2474,85 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-600</v>
       </c>
       <c r="O33" s="3">
         <v>-600</v>
       </c>
       <c r="P33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2600</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-400</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-400</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-300</v>
       </c>
       <c r="X33" s="3">
         <v>-300</v>
       </c>
       <c r="Y33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-600</v>
       </c>
       <c r="O35" s="3">
         <v>-600</v>
       </c>
       <c r="P35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2600</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-400</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-400</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-300</v>
       </c>
       <c r="X35" s="3">
         <v>-300</v>
       </c>
       <c r="Y35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E38" s="2">
         <v>44439</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44347</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44255</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44165</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44074</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43982</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43890</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43799</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43708</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43616</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43524</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43434</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43343</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43251</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43159</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43069</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42978</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42886</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42794</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42704</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42613</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,32 +2833,33 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3">
         <v>400</v>
-      </c>
-      <c r="E41" s="3">
-        <v>500</v>
       </c>
       <c r="F41" s="3">
         <v>500</v>
       </c>
       <c r="G41" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -2808,19 +2894,22 @@
         <v>0</v>
       </c>
       <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
         <v>0</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,37 +2979,40 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>1200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>700</v>
       </c>
       <c r="J43" s="3">
         <v>700</v>
       </c>
       <c r="K43" s="3">
+        <v>700</v>
+      </c>
+      <c r="L43" s="3">
         <v>900</v>
-      </c>
-      <c r="L43" s="3">
-        <v>700</v>
       </c>
       <c r="M43" s="3">
         <v>700</v>
@@ -2929,40 +3021,43 @@
         <v>700</v>
       </c>
       <c r="O43" s="3">
+        <v>700</v>
+      </c>
+      <c r="P43" s="3">
         <v>1000</v>
-      </c>
-      <c r="P43" s="3">
-        <v>1300</v>
       </c>
       <c r="Q43" s="3">
         <v>1300</v>
       </c>
       <c r="R43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S43" s="3">
         <v>1100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>1000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>900</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>1000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2970,19 +3065,19 @@
         <v>800</v>
       </c>
       <c r="E44" s="3">
+        <v>800</v>
+      </c>
+      <c r="F44" s="3">
         <v>700</v>
-      </c>
-      <c r="F44" s="3">
-        <v>500</v>
       </c>
       <c r="G44" s="3">
         <v>500</v>
       </c>
       <c r="H44" s="3">
+        <v>500</v>
+      </c>
+      <c r="I44" s="3">
         <v>400</v>
-      </c>
-      <c r="I44" s="3">
-        <v>300</v>
       </c>
       <c r="J44" s="3">
         <v>300</v>
@@ -2994,25 +3089,25 @@
         <v>300</v>
       </c>
       <c r="M44" s="3">
+        <v>300</v>
+      </c>
+      <c r="N44" s="3">
         <v>400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>300</v>
       </c>
       <c r="O44" s="3">
         <v>300</v>
       </c>
       <c r="P44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q44" s="3">
         <v>400</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>500</v>
       </c>
       <c r="R44" s="3">
         <v>500</v>
       </c>
       <c r="S44" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="T44" s="3">
         <v>300</v>
@@ -3024,27 +3119,30 @@
         <v>300</v>
       </c>
       <c r="W44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X44" s="3">
         <v>400</v>
       </c>
       <c r="Y44" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3053,11 +3151,11 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
@@ -3080,11 +3178,11 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
         <v>100</v>
       </c>
-      <c r="S45" s="3">
-        <v>0</v>
-      </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
@@ -3098,13 +3196,16 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3112,28 +3213,28 @@
         <v>2500</v>
       </c>
       <c r="E46" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F46" s="3">
         <v>2800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1200</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1100</v>
       </c>
       <c r="M46" s="3">
         <v>1100</v>
@@ -3142,40 +3243,43 @@
         <v>1100</v>
       </c>
       <c r="O46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="P46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1800</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3245,8 +3349,11 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3257,16 +3364,16 @@
         <v>1500</v>
       </c>
       <c r="F48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G48" s="3">
         <v>1300</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1000</v>
       </c>
       <c r="H48" s="3">
         <v>1000</v>
       </c>
       <c r="I48" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
@@ -3275,7 +3382,7 @@
         <v>600</v>
       </c>
       <c r="L48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>700</v>
@@ -3290,34 +3397,37 @@
         <v>700</v>
       </c>
       <c r="Q48" s="3">
+        <v>700</v>
+      </c>
+      <c r="R48" s="3">
         <v>800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3600</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3900</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4300</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4400</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3387,8 +3497,11 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,31 +3645,34 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -3600,8 +3719,11 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,37 +3793,40 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E54" s="3">
         <v>4000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>4300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1900</v>
-      </c>
-      <c r="L54" s="3">
-        <v>1800</v>
       </c>
       <c r="M54" s="3">
         <v>1800</v>
@@ -3710,40 +3835,43 @@
         <v>1800</v>
       </c>
       <c r="O54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P54" s="3">
         <v>2100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5200</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5500</v>
-      </c>
-      <c r="W54" s="3">
-        <v>5900</v>
       </c>
       <c r="X54" s="3">
         <v>5900</v>
       </c>
       <c r="Y54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="Z54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,8 +3925,9 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3808,67 +3938,70 @@
         <v>5700</v>
       </c>
       <c r="F57" s="3">
+        <v>5700</v>
+      </c>
+      <c r="G57" s="3">
         <v>5800</v>
       </c>
-      <c r="G57" s="3">
-        <v>5600</v>
-      </c>
       <c r="H57" s="3">
-        <v>5800</v>
+        <v>5500</v>
       </c>
       <c r="I57" s="3">
         <v>5800</v>
       </c>
       <c r="J57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K57" s="3">
         <v>5000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>5100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>4800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>5500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>4600</v>
-      </c>
-      <c r="O57" s="3">
-        <v>4500</v>
       </c>
       <c r="P57" s="3">
         <v>4500</v>
       </c>
       <c r="Q57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="R57" s="3">
         <v>4300</v>
-      </c>
-      <c r="R57" s="3">
-        <v>4400</v>
       </c>
       <c r="S57" s="3">
         <v>4400</v>
       </c>
       <c r="T57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="U57" s="3">
         <v>4800</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>5100</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3882,7 +4015,7 @@
         <v>3500</v>
       </c>
       <c r="G58" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="H58" s="3">
         <v>3600</v>
@@ -3903,7 +4036,7 @@
         <v>3600</v>
       </c>
       <c r="N58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="O58" s="3">
         <v>3500</v>
@@ -3912,22 +4045,22 @@
         <v>3500</v>
       </c>
       <c r="Q58" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="R58" s="3">
         <v>3400</v>
       </c>
       <c r="S58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="T58" s="3">
         <v>4200</v>
-      </c>
-      <c r="T58" s="3">
-        <v>3400</v>
       </c>
       <c r="U58" s="3">
         <v>3400</v>
       </c>
       <c r="V58" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="W58" s="3">
         <v>3500</v>
@@ -3938,162 +4071,171 @@
       <c r="Y58" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E59" s="3">
         <v>10900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>10500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>10600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>11300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J59" s="3">
         <v>11200</v>
       </c>
-      <c r="I59" s="3">
-        <v>11200</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>10800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10400</v>
-      </c>
-      <c r="L59" s="3">
-        <v>10200</v>
       </c>
       <c r="M59" s="3">
         <v>10200</v>
       </c>
       <c r="N59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="O59" s="3">
         <v>9400</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>9000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>8600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7900</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>6900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7100</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>6100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>5700</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E60" s="3">
         <v>20100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>19700</v>
       </c>
-      <c r="F60" s="3">
-        <v>19900</v>
-      </c>
       <c r="G60" s="3">
+        <v>19800</v>
+      </c>
+      <c r="H60" s="3">
         <v>20400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>20600</v>
       </c>
       <c r="I60" s="3">
         <v>20600</v>
       </c>
       <c r="J60" s="3">
+        <v>20600</v>
+      </c>
+      <c r="K60" s="3">
         <v>19400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>18600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>19400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>17500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>16700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>15700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15500</v>
-      </c>
-      <c r="T60" s="3">
-        <v>15300</v>
       </c>
       <c r="U60" s="3">
         <v>15300</v>
       </c>
       <c r="V60" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="W60" s="3">
         <v>14800</v>
       </c>
       <c r="X60" s="3">
+        <v>14800</v>
+      </c>
+      <c r="Y60" s="3">
         <v>14500</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -4151,79 +4293,85 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="E62" s="3">
         <v>1000</v>
       </c>
       <c r="F62" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G62" s="3">
         <v>900</v>
       </c>
       <c r="H62" s="3">
+        <v>900</v>
+      </c>
+      <c r="I62" s="3">
         <v>1000</v>
-      </c>
-      <c r="I62" s="3">
-        <v>900</v>
       </c>
       <c r="J62" s="3">
         <v>900</v>
       </c>
       <c r="K62" s="3">
+        <v>900</v>
+      </c>
+      <c r="L62" s="3">
         <v>700</v>
-      </c>
-      <c r="L62" s="3">
-        <v>800</v>
       </c>
       <c r="M62" s="3">
         <v>800</v>
       </c>
       <c r="N62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="O62" s="3">
         <v>700</v>
       </c>
       <c r="P62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q62" s="3">
         <v>800</v>
       </c>
       <c r="R62" s="3">
+        <v>800</v>
+      </c>
+      <c r="S62" s="3">
         <v>900</v>
-      </c>
-      <c r="S62" s="3">
-        <v>1000</v>
       </c>
       <c r="T62" s="3">
         <v>1000</v>
       </c>
       <c r="U62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="V62" s="3">
         <v>1100</v>
-      </c>
-      <c r="V62" s="3">
-        <v>1000</v>
       </c>
       <c r="W62" s="3">
         <v>1000</v>
       </c>
       <c r="X62" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Y62" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21600</v>
+      </c>
+      <c r="E66" s="3">
         <v>21300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>21300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>21500</v>
       </c>
       <c r="I66" s="3">
         <v>21500</v>
       </c>
       <c r="J66" s="3">
+        <v>21500</v>
+      </c>
+      <c r="K66" s="3">
         <v>20300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>20200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>18200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>17700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>16800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16300</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>15700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,8 +4987,11 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4826,70 +4999,73 @@
         <v>-59700</v>
       </c>
       <c r="E72" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="F72" s="3">
         <v>-59000</v>
       </c>
-      <c r="F72" s="3">
-        <v>-59700</v>
-      </c>
       <c r="G72" s="3">
+        <v>-59600</v>
+      </c>
+      <c r="H72" s="3">
         <v>-60200</v>
       </c>
-      <c r="H72" s="3">
-        <v>-60100</v>
-      </c>
       <c r="I72" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="J72" s="3">
         <v>-60900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-60000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-59100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-58700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-60200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-57000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-55700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-55200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-53900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-45300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-45400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-44900</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-45100</v>
       </c>
       <c r="V72" s="3">
         <v>-45100</v>
       </c>
       <c r="W72" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="X72" s="3">
         <v>-44800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-44500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-44100</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,8 +5283,11 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -5110,70 +5295,73 @@
         <v>-17300</v>
       </c>
       <c r="E76" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="F76" s="3">
         <v>-16600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-17300</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-18600</v>
       </c>
       <c r="H76" s="3">
         <v>-18600</v>
       </c>
       <c r="I76" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="J76" s="3">
         <v>-19500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-18600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-17900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-17600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-18400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-16400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-15600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-15000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-14200</v>
-      </c>
-      <c r="R76" s="3">
-        <v>-11500</v>
       </c>
       <c r="S76" s="3">
         <v>-11500</v>
       </c>
       <c r="T76" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="U76" s="3">
         <v>-11100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-11200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-10200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-9800</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-9500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44530</v>
+      </c>
+      <c r="E80" s="2">
         <v>44439</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44347</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44255</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44165</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44074</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43982</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43890</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43799</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43708</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43616</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43524</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43434</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43343</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43251</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43159</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43069</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42978</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42886</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42794</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42704</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42613</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-600</v>
       </c>
       <c r="O81" s="3">
         <v>-600</v>
       </c>
       <c r="P81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2600</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-400</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-400</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-300</v>
       </c>
       <c r="X81" s="3">
         <v>-300</v>
       </c>
       <c r="Y81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,8 +5614,9 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5438,7 +5636,7 @@
         <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -5450,16 +5648,16 @@
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
       <c r="P83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q83" s="3">
         <v>100</v>
@@ -5486,10 +5684,13 @@
         <v>100</v>
       </c>
       <c r="Y83" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>200</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
       <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>300</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>200</v>
       </c>
-      <c r="X89" s="3">
-        <v>0</v>
-      </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,41 +6160,42 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-600</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>-100</v>
       </c>
       <c r="I91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
       <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
         <v>100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
@@ -5989,19 +6209,19 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>200</v>
-      </c>
-      <c r="V91" s="3">
-        <v>-200</v>
       </c>
       <c r="W91" s="3">
         <v>-200</v>
@@ -6012,8 +6232,11 @@
       <c r="Y91" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,31 +6380,34 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-600</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K94" s="3">
         <v>-100</v>
@@ -6190,31 +6419,31 @@
         <v>-100</v>
       </c>
       <c r="N94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>300</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-200</v>
       </c>
       <c r="W94" s="3">
         <v>-200</v>
@@ -6225,8 +6454,11 @@
       <c r="Y94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,8 +6778,11 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6545,22 +6790,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>8</v>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -6568,15 +6813,15 @@
       <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="M100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N100" s="3">
         <v>200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
@@ -6587,14 +6832,14 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
         <v>0</v>
       </c>
@@ -6602,13 +6847,16 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6678,32 +6926,35 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
@@ -6747,6 +6998,9 @@
         <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>RCTFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,173 +665,177 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E7" s="2">
         <v>44530</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44439</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44347</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44255</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44165</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44074</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43982</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43890</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43799</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43708</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43616</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43524</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43434</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43343</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43251</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43159</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43069</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42978</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42886</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42794</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42704</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42613</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2700</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2600</v>
       </c>
       <c r="F8" s="3">
         <v>2500</v>
       </c>
       <c r="G8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
-        <v>2400</v>
-      </c>
       <c r="I8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J8" s="3">
         <v>2500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1500</v>
-      </c>
-      <c r="N8" s="3">
-        <v>1200</v>
       </c>
       <c r="O8" s="3">
         <v>1200</v>
       </c>
       <c r="P8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Q8" s="3">
         <v>1400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1700</v>
       </c>
       <c r="R8" s="3">
         <v>1700</v>
       </c>
       <c r="S8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="T8" s="3">
         <v>1600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1100</v>
-      </c>
-      <c r="W8" s="3">
-        <v>1500</v>
       </c>
       <c r="X8" s="3">
         <v>1500</v>
@@ -840,158 +844,167 @@
         <v>1500</v>
       </c>
       <c r="Z8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AA8" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2600</v>
+        <v>3200</v>
       </c>
       <c r="E9" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="F9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K9" s="3">
         <v>2000</v>
       </c>
-      <c r="G9" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="L9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q9" s="3">
         <v>1700</v>
       </c>
-      <c r="I9" s="3">
-        <v>1700</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="R9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U9" s="3">
         <v>1300</v>
       </c>
-      <c r="L9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P9" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="R9" s="3">
+      <c r="V9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="W9" s="3">
         <v>1500</v>
       </c>
-      <c r="S9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="U9" s="3">
+      <c r="X9" s="3">
         <v>1400</v>
-      </c>
-      <c r="V9" s="3">
-        <v>1500</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1400</v>
-      </c>
-      <c r="X9" s="3">
-        <v>1300</v>
       </c>
       <c r="Y9" s="3">
         <v>1300</v>
       </c>
       <c r="Z9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AA9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>200</v>
+        <v>-800</v>
       </c>
       <c r="E10" s="3">
         <v>200</v>
       </c>
       <c r="F10" s="3">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="G10" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H10" s="3">
+        <v>500</v>
+      </c>
+      <c r="I10" s="3">
         <v>700</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-200</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-600</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-200</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
       <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>400</v>
-      </c>
-      <c r="T10" s="3">
-        <v>200</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
       </c>
       <c r="V10" s="3">
+        <v>200</v>
+      </c>
+      <c r="W10" s="3">
         <v>-400</v>
       </c>
-      <c r="W10" s="3">
-        <v>100</v>
-      </c>
       <c r="X10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y10" s="3">
         <v>200</v>
       </c>
       <c r="Z10" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,67 +1183,70 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>100</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>100</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
+        <v>100</v>
+      </c>
+      <c r="S14" s="3">
         <v>2400</v>
       </c>
-      <c r="S14" s="3">
-        <v>100</v>
-      </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U14" s="3">
         <v>0</v>
       </c>
       <c r="V14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3">
         <v>100</v>
@@ -1238,10 +1258,13 @@
         <v>100</v>
       </c>
       <c r="Z14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA14" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1264,7 +1287,7 @@
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -1276,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="N15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
         <v>100</v>
@@ -1312,10 +1335,13 @@
         <v>100</v>
       </c>
       <c r="Z15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2800</v>
+        <v>3200</v>
       </c>
       <c r="E17" s="3">
-        <v>3300</v>
+        <v>2700</v>
       </c>
       <c r="F17" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K17" s="3">
         <v>2100</v>
       </c>
-      <c r="G17" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="J17" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="Q17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U17" s="3">
         <v>1900</v>
       </c>
-      <c r="M17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="V17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="W17" s="3">
         <v>2400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="X17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2300</v>
-      </c>
-      <c r="R17" s="3">
-        <v>4300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="T17" s="3">
+      <c r="Z17" s="3">
         <v>1900</v>
       </c>
-      <c r="U17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="V17" s="3">
-        <v>2400</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
+        <v>400</v>
+      </c>
+      <c r="H18" s="3">
         <v>500</v>
       </c>
-      <c r="G18" s="3">
-        <v>500</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-2600</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-1300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-400</v>
-      </c>
-      <c r="X18" s="3">
-        <v>-300</v>
       </c>
       <c r="Y18" s="3">
         <v>-300</v>
       </c>
       <c r="Z18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,8 +1548,9 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1527,11 +1561,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1589,46 +1623,49 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>-600</v>
       </c>
       <c r="P21" s="3">
         <v>-600</v>
@@ -1637,22 +1674,22 @@
         <v>-600</v>
       </c>
       <c r="R21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S21" s="3">
         <v>-2500</v>
       </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
       <c r="T21" s="3">
+        <v>100</v>
+      </c>
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="W21" s="3">
-        <v>-200</v>
       </c>
       <c r="X21" s="3">
         <v>-200</v>
@@ -1661,10 +1698,13 @@
         <v>-200</v>
       </c>
       <c r="Z21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1737,82 +1777,88 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
-        <v>700</v>
-      </c>
       <c r="G23" s="3">
+        <v>600</v>
+      </c>
+      <c r="H23" s="3">
         <v>500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>900</v>
-      </c>
       <c r="J23" s="3">
+        <v>800</v>
+      </c>
+      <c r="K23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-600</v>
       </c>
       <c r="P23" s="3">
         <v>-600</v>
       </c>
       <c r="Q23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R23" s="3">
         <v>-700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2600</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
         <v>-400</v>
       </c>
-      <c r="U23" s="3">
-        <v>100</v>
-      </c>
       <c r="V23" s="3">
+        <v>100</v>
+      </c>
+      <c r="W23" s="3">
         <v>-1300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-400</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-300</v>
       </c>
       <c r="Y23" s="3">
         <v>-300</v>
       </c>
       <c r="Z23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1885,8 +1931,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
-        <v>700</v>
-      </c>
       <c r="G26" s="3">
+        <v>600</v>
+      </c>
+      <c r="H26" s="3">
         <v>500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>900</v>
-      </c>
       <c r="J26" s="3">
+        <v>800</v>
+      </c>
+      <c r="K26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-600</v>
       </c>
       <c r="P26" s="3">
         <v>-600</v>
       </c>
       <c r="Q26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R26" s="3">
         <v>-700</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2600</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
         <v>-400</v>
       </c>
-      <c r="U26" s="3">
-        <v>100</v>
-      </c>
       <c r="V26" s="3">
+        <v>100</v>
+      </c>
+      <c r="W26" s="3">
         <v>-1300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-400</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-300</v>
       </c>
       <c r="Y26" s="3">
         <v>-300</v>
       </c>
       <c r="Z26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
-        <v>700</v>
-      </c>
       <c r="G27" s="3">
+        <v>600</v>
+      </c>
+      <c r="H27" s="3">
         <v>500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>900</v>
-      </c>
       <c r="J27" s="3">
+        <v>800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-600</v>
       </c>
       <c r="P27" s="3">
         <v>-600</v>
       </c>
       <c r="Q27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R27" s="3">
         <v>-700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2600</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
         <v>-400</v>
       </c>
-      <c r="U27" s="3">
-        <v>100</v>
-      </c>
       <c r="V27" s="3">
+        <v>100</v>
+      </c>
+      <c r="W27" s="3">
         <v>-1300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-400</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-300</v>
       </c>
       <c r="Y27" s="3">
         <v>-300</v>
       </c>
       <c r="Z27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,8 +2470,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2415,11 +2485,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2477,82 +2547,88 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
-        <v>700</v>
-      </c>
       <c r="G33" s="3">
+        <v>600</v>
+      </c>
+      <c r="H33" s="3">
         <v>500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>900</v>
-      </c>
       <c r="J33" s="3">
+        <v>800</v>
+      </c>
+      <c r="K33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-600</v>
       </c>
       <c r="P33" s="3">
         <v>-600</v>
       </c>
       <c r="Q33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R33" s="3">
         <v>-700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2600</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
         <v>-400</v>
       </c>
-      <c r="U33" s="3">
-        <v>100</v>
-      </c>
       <c r="V33" s="3">
+        <v>100</v>
+      </c>
+      <c r="W33" s="3">
         <v>-1300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-400</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-300</v>
       </c>
       <c r="Y33" s="3">
         <v>-300</v>
       </c>
       <c r="Z33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
-        <v>700</v>
-      </c>
       <c r="G35" s="3">
+        <v>600</v>
+      </c>
+      <c r="H35" s="3">
         <v>500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>900</v>
-      </c>
       <c r="J35" s="3">
+        <v>800</v>
+      </c>
+      <c r="K35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-600</v>
       </c>
       <c r="P35" s="3">
         <v>-600</v>
       </c>
       <c r="Q35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R35" s="3">
         <v>-700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2600</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
         <v>-400</v>
       </c>
-      <c r="U35" s="3">
-        <v>100</v>
-      </c>
       <c r="V35" s="3">
+        <v>100</v>
+      </c>
+      <c r="W35" s="3">
         <v>-1300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-400</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-300</v>
       </c>
       <c r="Y35" s="3">
         <v>-300</v>
       </c>
       <c r="Z35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E38" s="2">
         <v>44530</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44439</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44347</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44255</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44165</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44074</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43982</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43890</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43799</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43708</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43616</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43524</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43434</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43343</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43251</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43159</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43069</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42978</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42886</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42794</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42704</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42613</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,35 +2920,36 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>300</v>
+      </c>
+      <c r="E41" s="3">
         <v>200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>400</v>
-      </c>
-      <c r="F41" s="3">
-        <v>500</v>
       </c>
       <c r="G41" s="3">
         <v>500</v>
       </c>
       <c r="H41" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I41" s="3">
         <v>200</v>
       </c>
       <c r="J41" s="3">
+        <v>200</v>
+      </c>
+      <c r="K41" s="3">
         <v>300</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
@@ -2897,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
         <v>0</v>
@@ -2908,8 +2995,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,40 +3072,43 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E43" s="3">
         <v>1400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>1200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>1000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>700</v>
       </c>
       <c r="K43" s="3">
         <v>700</v>
       </c>
       <c r="L43" s="3">
+        <v>700</v>
+      </c>
+      <c r="M43" s="3">
         <v>900</v>
-      </c>
-      <c r="M43" s="3">
-        <v>700</v>
       </c>
       <c r="N43" s="3">
         <v>700</v>
@@ -3024,40 +3117,43 @@
         <v>700</v>
       </c>
       <c r="P43" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q43" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>1300</v>
       </c>
       <c r="R43" s="3">
         <v>1300</v>
       </c>
       <c r="S43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T43" s="3">
         <v>1100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>1000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>1100</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>900</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1200</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3068,10 +3164,10 @@
         <v>800</v>
       </c>
       <c r="F44" s="3">
+        <v>800</v>
+      </c>
+      <c r="G44" s="3">
         <v>700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>500</v>
       </c>
       <c r="H44" s="3">
         <v>500</v>
@@ -3080,7 +3176,7 @@
         <v>400</v>
       </c>
       <c r="J44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="K44" s="3">
         <v>300</v>
@@ -3092,25 +3188,25 @@
         <v>300</v>
       </c>
       <c r="N44" s="3">
+        <v>300</v>
+      </c>
+      <c r="O44" s="3">
         <v>400</v>
-      </c>
-      <c r="O44" s="3">
-        <v>300</v>
       </c>
       <c r="P44" s="3">
         <v>300</v>
       </c>
       <c r="Q44" s="3">
+        <v>300</v>
+      </c>
+      <c r="R44" s="3">
         <v>400</v>
-      </c>
-      <c r="R44" s="3">
-        <v>500</v>
       </c>
       <c r="S44" s="3">
         <v>500</v>
       </c>
       <c r="T44" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="U44" s="3">
         <v>300</v>
@@ -3122,16 +3218,19 @@
         <v>300</v>
       </c>
       <c r="X44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y44" s="3">
         <v>400</v>
       </c>
       <c r="Z44" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3139,13 +3238,13 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -3154,10 +3253,10 @@
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3181,10 +3280,10 @@
         <v>0</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3199,13 +3298,16 @@
         <v>0</v>
       </c>
       <c r="Y45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3213,31 +3315,31 @@
         <v>2500</v>
       </c>
       <c r="E46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F46" s="3">
         <v>2500</v>
       </c>
-      <c r="F46" s="3">
-        <v>2800</v>
-      </c>
       <c r="G46" s="3">
-        <v>2300</v>
+        <v>2700</v>
       </c>
       <c r="H46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I46" s="3">
         <v>1700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1100</v>
       </c>
       <c r="N46" s="3">
         <v>1100</v>
@@ -3246,40 +3348,43 @@
         <v>1100</v>
       </c>
       <c r="P46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1700</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1500</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1300</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1700</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3352,13 +3457,16 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="E48" s="3">
         <v>1500</v>
@@ -3367,16 +3475,16 @@
         <v>1500</v>
       </c>
       <c r="G48" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="H48" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="I48" s="3">
         <v>1000</v>
       </c>
       <c r="J48" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="K48" s="3">
         <v>600</v>
@@ -3385,7 +3493,7 @@
         <v>600</v>
       </c>
       <c r="M48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="N48" s="3">
         <v>700</v>
@@ -3400,34 +3508,37 @@
         <v>700</v>
       </c>
       <c r="R48" s="3">
+        <v>700</v>
+      </c>
+      <c r="S48" s="3">
         <v>800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3600</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>4100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>4300</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>4400</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3500,8 +3611,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,16 +3765,19 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
@@ -3674,8 +3794,8 @@
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3722,8 +3842,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,8 +3919,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -3805,31 +3931,31 @@
         <v>4300</v>
       </c>
       <c r="E54" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="F54" s="3">
-        <v>4300</v>
+        <v>3900</v>
       </c>
       <c r="G54" s="3">
-        <v>3500</v>
+        <v>4200</v>
       </c>
       <c r="H54" s="3">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="I54" s="3">
-        <v>3000</v>
+        <v>2600</v>
       </c>
       <c r="J54" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K54" s="3">
         <v>2000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1900</v>
-      </c>
-      <c r="M54" s="3">
-        <v>1800</v>
       </c>
       <c r="N54" s="3">
         <v>1800</v>
@@ -3838,40 +3964,43 @@
         <v>1800</v>
       </c>
       <c r="P54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Q54" s="3">
         <v>2100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5500</v>
-      </c>
-      <c r="X54" s="3">
-        <v>5900</v>
       </c>
       <c r="Y54" s="3">
         <v>5900</v>
       </c>
       <c r="Z54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="AA54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,105 +4056,109 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="H57" s="3">
         <v>5700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="I57" s="3">
+        <v>5400</v>
+      </c>
+      <c r="J57" s="3">
         <v>5700</v>
       </c>
-      <c r="F57" s="3">
-        <v>5700</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="K57" s="3">
         <v>5800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="L57" s="3">
+        <v>5000</v>
+      </c>
+      <c r="M57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="N57" s="3">
+        <v>4800</v>
+      </c>
+      <c r="O57" s="3">
         <v>5500</v>
       </c>
-      <c r="I57" s="3">
-        <v>5800</v>
-      </c>
-      <c r="J57" s="3">
-        <v>5800</v>
-      </c>
-      <c r="K57" s="3">
-        <v>5000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>5100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>4800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>5500</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>4600</v>
-      </c>
-      <c r="P57" s="3">
-        <v>4500</v>
       </c>
       <c r="Q57" s="3">
         <v>4500</v>
       </c>
       <c r="R57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="S57" s="3">
         <v>4300</v>
-      </c>
-      <c r="S57" s="3">
-        <v>4400</v>
       </c>
       <c r="T57" s="3">
         <v>4400</v>
       </c>
       <c r="U57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="V57" s="3">
         <v>4800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>4900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>5100</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>5300</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>5200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I58" s="3">
         <v>3500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="J58" s="3">
         <v>3500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G58" s="3">
-        <v>3500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3600</v>
       </c>
       <c r="K58" s="3">
         <v>3600</v>
@@ -4039,7 +4173,7 @@
         <v>3600</v>
       </c>
       <c r="O58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="P58" s="3">
         <v>3500</v>
@@ -4048,22 +4182,22 @@
         <v>3500</v>
       </c>
       <c r="R58" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="S58" s="3">
         <v>3400</v>
       </c>
       <c r="T58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="U58" s="3">
         <v>4200</v>
-      </c>
-      <c r="U58" s="3">
-        <v>3400</v>
       </c>
       <c r="V58" s="3">
         <v>3400</v>
       </c>
       <c r="W58" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="X58" s="3">
         <v>3500</v>
@@ -4074,171 +4208,180 @@
       <c r="Z58" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11100</v>
+        <v>10800</v>
       </c>
       <c r="E59" s="3">
         <v>10900</v>
       </c>
       <c r="F59" s="3">
-        <v>10500</v>
+        <v>10600</v>
       </c>
       <c r="G59" s="3">
-        <v>10600</v>
+        <v>10300</v>
       </c>
       <c r="H59" s="3">
-        <v>11300</v>
+        <v>10300</v>
       </c>
       <c r="I59" s="3">
-        <v>11100</v>
+        <v>11000</v>
       </c>
       <c r="J59" s="3">
+        <v>10900</v>
+      </c>
+      <c r="K59" s="3">
         <v>11200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>10400</v>
-      </c>
-      <c r="M59" s="3">
-        <v>10200</v>
       </c>
       <c r="N59" s="3">
         <v>10200</v>
       </c>
       <c r="O59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="P59" s="3">
         <v>9400</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>9000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>8600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>8300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7900</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>6900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7100</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6100</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>5700</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20300</v>
+        <v>20200</v>
       </c>
       <c r="E60" s="3">
+        <v>19800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>19600</v>
+      </c>
+      <c r="G60" s="3">
+        <v>19200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>19400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J60" s="3">
         <v>20100</v>
       </c>
-      <c r="F60" s="3">
-        <v>19700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>19800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>20400</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>20600</v>
       </c>
-      <c r="J60" s="3">
-        <v>20600</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>19100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>18600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>19400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>17500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>17000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>16700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>16000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>15700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>15500</v>
-      </c>
-      <c r="U60" s="3">
-        <v>15300</v>
       </c>
       <c r="V60" s="3">
         <v>15300</v>
       </c>
       <c r="W60" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="X60" s="3">
         <v>14800</v>
       </c>
       <c r="Y60" s="3">
+        <v>14800</v>
+      </c>
+      <c r="Z60" s="3">
         <v>14500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>300</v>
+      </c>
+      <c r="E61" s="3">
         <v>200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -4296,28 +4439,31 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E62" s="3">
         <v>1100</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1000</v>
       </c>
       <c r="F62" s="3">
         <v>1000</v>
       </c>
       <c r="G62" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H62" s="3">
         <v>900</v>
       </c>
       <c r="I62" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="J62" s="3">
         <v>900</v>
@@ -4326,52 +4472,55 @@
         <v>900</v>
       </c>
       <c r="L62" s="3">
+        <v>900</v>
+      </c>
+      <c r="M62" s="3">
         <v>700</v>
-      </c>
-      <c r="M62" s="3">
-        <v>800</v>
       </c>
       <c r="N62" s="3">
         <v>800</v>
       </c>
       <c r="O62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="P62" s="3">
         <v>700</v>
       </c>
       <c r="Q62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="R62" s="3">
         <v>800</v>
       </c>
       <c r="S62" s="3">
+        <v>800</v>
+      </c>
+      <c r="T62" s="3">
         <v>900</v>
-      </c>
-      <c r="T62" s="3">
-        <v>1000</v>
       </c>
       <c r="U62" s="3">
         <v>1000</v>
       </c>
       <c r="V62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="W62" s="3">
         <v>1100</v>
-      </c>
-      <c r="W62" s="3">
-        <v>1000</v>
       </c>
       <c r="X62" s="3">
         <v>1000</v>
       </c>
       <c r="Y62" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="Z62" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21600</v>
+        <v>21500</v>
       </c>
       <c r="E66" s="3">
-        <v>21300</v>
+        <v>21100</v>
       </c>
       <c r="F66" s="3">
-        <v>20900</v>
+        <v>20800</v>
       </c>
       <c r="G66" s="3">
+        <v>20400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>20300</v>
+      </c>
+      <c r="I66" s="3">
         <v>20800</v>
       </c>
-      <c r="H66" s="3">
-        <v>21300</v>
-      </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
+        <v>21000</v>
+      </c>
+      <c r="K66" s="3">
         <v>21500</v>
       </c>
-      <c r="J66" s="3">
-        <v>21500</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>20300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>19300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>18200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>17700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>17500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>16800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>16700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16300</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16400</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>15700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>15800</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>15400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,82 +5161,88 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-59700</v>
+        <v>-59100</v>
       </c>
       <c r="E72" s="3">
-        <v>-59600</v>
+        <v>-58300</v>
       </c>
       <c r="F72" s="3">
-        <v>-59000</v>
+        <v>-58300</v>
       </c>
       <c r="G72" s="3">
-        <v>-59600</v>
+        <v>-57600</v>
       </c>
       <c r="H72" s="3">
+        <v>-58300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-58800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-58600</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-60900</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-59100</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="O72" s="3">
         <v>-60200</v>
       </c>
-      <c r="I72" s="3">
-        <v>-60000</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-60900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-60000</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-59100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-58700</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-60200</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-57000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-55700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-55200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-53900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-45300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-45400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-44900</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-45100</v>
       </c>
       <c r="W72" s="3">
         <v>-45100</v>
       </c>
       <c r="X72" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-44800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-44500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-44100</v>
       </c>
     </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-17300</v>
+        <v>-17200</v>
       </c>
       <c r="E76" s="3">
-        <v>-17300</v>
+        <v>-16900</v>
       </c>
       <c r="F76" s="3">
-        <v>-16600</v>
+        <v>-16900</v>
       </c>
       <c r="G76" s="3">
-        <v>-17300</v>
+        <v>-16200</v>
       </c>
       <c r="H76" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="L76" s="3">
         <v>-18600</v>
       </c>
-      <c r="I76" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-19500</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-17900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-17600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-18400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-16400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-15600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-15000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-14200</v>
-      </c>
-      <c r="S76" s="3">
-        <v>-11500</v>
       </c>
       <c r="T76" s="3">
         <v>-11500</v>
       </c>
       <c r="U76" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="V76" s="3">
         <v>-11100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-11200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>-10200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>-9800</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-9500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44620</v>
+      </c>
+      <c r="E80" s="2">
         <v>44530</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44439</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44347</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44255</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44165</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44074</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43982</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43890</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43799</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43708</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43616</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43524</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43434</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43343</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43251</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43159</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43069</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42978</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42886</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42794</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42704</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42613</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
-        <v>700</v>
-      </c>
       <c r="G81" s="3">
+        <v>600</v>
+      </c>
+      <c r="H81" s="3">
         <v>500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>900</v>
-      </c>
       <c r="J81" s="3">
+        <v>800</v>
+      </c>
+      <c r="K81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-600</v>
       </c>
       <c r="P81" s="3">
         <v>-600</v>
       </c>
       <c r="Q81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R81" s="3">
         <v>-700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2600</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
         <v>-400</v>
       </c>
-      <c r="U81" s="3">
-        <v>100</v>
-      </c>
       <c r="V81" s="3">
+        <v>100</v>
+      </c>
+      <c r="W81" s="3">
         <v>-1300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-400</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-300</v>
       </c>
       <c r="Y81" s="3">
         <v>-300</v>
       </c>
       <c r="Z81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,8 +5813,9 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5639,7 +5838,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -5651,16 +5850,16 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
         <v>100</v>
@@ -5687,10 +5886,13 @@
         <v>100</v>
       </c>
       <c r="Z83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,8 +6273,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6068,73 +6285,76 @@
         <v>300</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>100</v>
       </c>
       <c r="N89" s="3">
+        <v>100</v>
+      </c>
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>300</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>200</v>
       </c>
-      <c r="Y89" s="3">
-        <v>0</v>
-      </c>
       <c r="Z89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,8 +6381,9 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6170,35 +6391,35 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-600</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
       <c r="L91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>100</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
@@ -6212,19 +6433,19 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
         <v>200</v>
-      </c>
-      <c r="W91" s="3">
-        <v>-200</v>
       </c>
       <c r="X91" s="3">
         <v>-200</v>
@@ -6235,8 +6456,11 @@
       <c r="Z91" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA91" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,34 +6610,37 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L94" s="3">
         <v>-100</v>
@@ -6422,31 +6652,31 @@
         <v>-100</v>
       </c>
       <c r="O94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>300</v>
-      </c>
-      <c r="W94" s="3">
-        <v>-200</v>
       </c>
       <c r="X94" s="3">
         <v>-200</v>
@@ -6457,8 +6687,11 @@
       <c r="Z94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,34 +7024,37 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>8</v>
@@ -6816,14 +7062,14 @@
       <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
+      <c r="N100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>100</v>
-      </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -6835,13 +7081,13 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>100</v>
-      </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -6850,13 +7096,16 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6929,35 +7178,38 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
-        <v>100</v>
-      </c>
       <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -7001,6 +7253,9 @@
         <v>0</v>
       </c>
       <c r="Z102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
@@ -784,7 +784,7 @@
         <v>2700</v>
       </c>
       <c r="F8" s="3">
-        <v>2500</v>
+        <v>2600</v>
       </c>
       <c r="G8" s="3">
         <v>2500</v>
@@ -861,13 +861,13 @@
         <v>2500</v>
       </c>
       <c r="F9" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G9" s="3">
         <v>1900</v>
       </c>
       <c r="H9" s="3">
-        <v>2100</v>
+        <v>2200</v>
       </c>
       <c r="I9" s="3">
         <v>1600</v>
@@ -1372,7 +1372,7 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E17" s="3">
         <v>2700</v>
@@ -1390,7 +1390,7 @@
         <v>2500</v>
       </c>
       <c r="J17" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="K17" s="3">
         <v>2100</v>
@@ -1804,7 +1804,7 @@
         <v>-100</v>
       </c>
       <c r="J23" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K23" s="3">
         <v>-200</v>
@@ -2035,7 +2035,7 @@
         <v>-100</v>
       </c>
       <c r="J26" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K26" s="3">
         <v>-200</v>
@@ -2112,7 +2112,7 @@
         <v>-100</v>
       </c>
       <c r="J27" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K27" s="3">
         <v>-200</v>
@@ -2574,7 +2574,7 @@
         <v>-100</v>
       </c>
       <c r="J33" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K33" s="3">
         <v>-200</v>
@@ -2728,7 +2728,7 @@
         <v>-100</v>
       </c>
       <c r="J35" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K35" s="3">
         <v>-200</v>
@@ -3321,7 +3321,7 @@
         <v>2500</v>
       </c>
       <c r="G46" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="H46" s="3">
         <v>2200</v>
@@ -3928,19 +3928,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="E54" s="3">
         <v>4200</v>
       </c>
       <c r="F54" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="G54" s="3">
         <v>4200</v>
       </c>
       <c r="H54" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="I54" s="3">
         <v>2600</v>
@@ -4066,10 +4066,10 @@
         <v>6400</v>
       </c>
       <c r="E57" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="F57" s="3">
-        <v>5500</v>
+        <v>5600</v>
       </c>
       <c r="G57" s="3">
         <v>5600</v>
@@ -4078,10 +4078,10 @@
         <v>5700</v>
       </c>
       <c r="I57" s="3">
-        <v>5400</v>
+        <v>5500</v>
       </c>
       <c r="J57" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="K57" s="3">
         <v>5800</v>
@@ -4140,16 +4140,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="E58" s="3">
         <v>3400</v>
       </c>
       <c r="F58" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="G58" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="H58" s="3">
         <v>3400</v>
@@ -4217,25 +4217,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10800</v>
+        <v>10900</v>
       </c>
       <c r="E59" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="F59" s="3">
-        <v>10600</v>
+        <v>10700</v>
       </c>
       <c r="G59" s="3">
         <v>10300</v>
       </c>
       <c r="H59" s="3">
-        <v>10300</v>
+        <v>10400</v>
       </c>
       <c r="I59" s="3">
+        <v>11100</v>
+      </c>
+      <c r="J59" s="3">
         <v>11000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>10900</v>
       </c>
       <c r="K59" s="3">
         <v>11200</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20200</v>
+        <v>20400</v>
       </c>
       <c r="E60" s="3">
+        <v>20000</v>
+      </c>
+      <c r="F60" s="3">
         <v>19800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
+        <v>19400</v>
+      </c>
+      <c r="H60" s="3">
         <v>19600</v>
       </c>
-      <c r="G60" s="3">
-        <v>19200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>19400</v>
-      </c>
       <c r="I60" s="3">
-        <v>20000</v>
+        <v>20100</v>
       </c>
       <c r="J60" s="3">
-        <v>20100</v>
+        <v>20300</v>
       </c>
       <c r="K60" s="3">
         <v>20600</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21500</v>
+        <v>21700</v>
       </c>
       <c r="E66" s="3">
-        <v>21100</v>
+        <v>21300</v>
       </c>
       <c r="F66" s="3">
-        <v>20800</v>
+        <v>21000</v>
       </c>
       <c r="G66" s="3">
-        <v>20400</v>
+        <v>20600</v>
       </c>
       <c r="H66" s="3">
-        <v>20300</v>
+        <v>20500</v>
       </c>
       <c r="I66" s="3">
-        <v>20800</v>
+        <v>21000</v>
       </c>
       <c r="J66" s="3">
-        <v>21000</v>
+        <v>21200</v>
       </c>
       <c r="K66" s="3">
         <v>21500</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-59100</v>
+        <v>-59700</v>
       </c>
       <c r="E72" s="3">
-        <v>-58300</v>
+        <v>-58800</v>
       </c>
       <c r="F72" s="3">
-        <v>-58300</v>
+        <v>-58800</v>
       </c>
       <c r="G72" s="3">
-        <v>-57600</v>
+        <v>-58100</v>
       </c>
       <c r="H72" s="3">
-        <v>-58300</v>
+        <v>-58800</v>
       </c>
       <c r="I72" s="3">
-        <v>-58800</v>
+        <v>-59300</v>
       </c>
       <c r="J72" s="3">
-        <v>-58600</v>
+        <v>-59200</v>
       </c>
       <c r="K72" s="3">
         <v>-60900</v>
@@ -5478,25 +5478,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-17200</v>
+        <v>-17300</v>
       </c>
       <c r="E76" s="3">
-        <v>-16900</v>
+        <v>-17100</v>
       </c>
       <c r="F76" s="3">
-        <v>-16900</v>
+        <v>-17000</v>
       </c>
       <c r="G76" s="3">
-        <v>-16200</v>
+        <v>-16400</v>
       </c>
       <c r="H76" s="3">
-        <v>-16900</v>
+        <v>-17000</v>
       </c>
       <c r="I76" s="3">
-        <v>-18200</v>
+        <v>-18400</v>
       </c>
       <c r="J76" s="3">
-        <v>-18100</v>
+        <v>-18300</v>
       </c>
       <c r="K76" s="3">
         <v>-19500</v>
@@ -5732,7 +5732,7 @@
         <v>-100</v>
       </c>
       <c r="J81" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="K81" s="3">
         <v>-200</v>
@@ -6619,7 +6619,7 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="E94" s="3">
         <v>-400</v>

--- a/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>RCTFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,372 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F7" s="2">
         <v>44620</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44530</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44439</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44347</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44255</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44165</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44074</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43982</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43890</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43799</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43708</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43616</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43524</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43434</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43343</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43251</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43159</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43069</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42978</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42886</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42794</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42704</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42613</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
-        <v>2700</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="J8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="K8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L8" s="3">
         <v>2500</v>
       </c>
-      <c r="H8" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1700</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1500</v>
       </c>
       <c r="V8" s="3">
         <v>1600</v>
       </c>
       <c r="W8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Y8" s="3">
         <v>1100</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>1500</v>
       </c>
       <c r="Z8" s="3">
         <v>1500</v>
       </c>
       <c r="AA8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AC8" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>3200</v>
+        <v>2700</v>
       </c>
       <c r="E9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="G9" s="3">
         <v>2500</v>
       </c>
-      <c r="F9" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I9" s="3">
         <v>1900</v>
       </c>
-      <c r="H9" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K9" s="3">
         <v>1600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>2000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1800</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1500</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1200</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1300</v>
-      </c>
-      <c r="V9" s="3">
-        <v>1400</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1500</v>
       </c>
       <c r="X9" s="3">
         <v>1400</v>
       </c>
       <c r="Y9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA9" s="3">
         <v>1300</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1300</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>800</v>
+      </c>
+      <c r="F10" s="3">
         <v>-800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>200</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>200</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>-200</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
-      </c>
-      <c r="N10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O10" s="3">
-        <v>-600</v>
       </c>
       <c r="P10" s="3">
         <v>-100</v>
       </c>
       <c r="Q10" s="3">
+        <v>-600</v>
+      </c>
+      <c r="R10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S10" s="3">
         <v>-200</v>
       </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>300</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>200</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>200</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>-400</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>100</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1058,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1137,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,13 +1220,19 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
@@ -1204,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>100</v>
-      </c>
-      <c r="J14" s="3">
-        <v>100</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>100</v>
@@ -1225,34 +1265,34 @@
         <v>100</v>
       </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>100</v>
       </c>
       <c r="U14" s="3">
-        <v>0</v>
+        <v>2400</v>
       </c>
       <c r="V14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="3">
         <v>100</v>
@@ -1261,10 +1301,16 @@
         <v>100</v>
       </c>
       <c r="AA14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC14" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1272,7 +1318,7 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F15" s="3">
         <v>100</v>
@@ -1290,10 +1336,10 @@
         <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1302,19 +1348,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T15" s="3">
         <v>100</v>
@@ -1338,10 +1384,16 @@
         <v>100</v>
       </c>
       <c r="AA15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,85 +1418,93 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="E17" s="3">
-        <v>2700</v>
+        <v>3400</v>
       </c>
       <c r="F17" s="3">
         <v>3200</v>
       </c>
       <c r="G17" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
-        <v>2200</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K17" s="3">
         <v>2500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>2000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>2300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>4300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1500</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>2400</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1800</v>
       </c>
       <c r="Z17" s="3">
         <v>1900</v>
       </c>
       <c r="AA17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AC17" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,76 +1512,82 @@
         <v>-900</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="F18" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="G18" s="3">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I18" s="3">
         <v>400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="J18" s="3">
-        <v>800</v>
       </c>
       <c r="K18" s="3">
         <v>-200</v>
       </c>
       <c r="L18" s="3">
+        <v>800</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="P18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>-500</v>
       </c>
       <c r="R18" s="3">
         <v>-600</v>
       </c>
       <c r="S18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U18" s="3">
         <v>-2600</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>200</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-1300</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1615,10 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1564,14 +1632,14 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
@@ -1626,8 +1694,14 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,76 +1709,82 @@
         <v>-800</v>
       </c>
       <c r="E21" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-600</v>
       </c>
       <c r="R21" s="3">
         <v>-600</v>
       </c>
       <c r="S21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U21" s="3">
         <v>-2500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-200</v>
       </c>
       <c r="Z21" s="3">
         <v>-200</v>
       </c>
       <c r="AA21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,85 +1860,97 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I23" s="3">
+        <v>600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>500</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L23" s="3">
+        <v>900</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
-        <v>600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>500</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J23" s="3">
-        <v>900</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="U23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-400</v>
       </c>
-      <c r="N23" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="P23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-600</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-400</v>
       </c>
-      <c r="V23" s="3">
-        <v>100</v>
-      </c>
-      <c r="W23" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +2026,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>600</v>
+      </c>
+      <c r="J26" s="3">
+        <v>500</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L26" s="3">
+        <v>900</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
-        <v>600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>500</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J26" s="3">
-        <v>900</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="U26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-400</v>
       </c>
-      <c r="N26" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="P26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-600</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-400</v>
       </c>
-      <c r="V26" s="3">
-        <v>100</v>
-      </c>
-      <c r="W26" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I27" s="3">
+        <v>600</v>
+      </c>
+      <c r="J27" s="3">
+        <v>500</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>900</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
-        <v>600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>500</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J27" s="3">
-        <v>900</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="U27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-400</v>
       </c>
-      <c r="N27" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-600</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-400</v>
       </c>
-      <c r="V27" s="3">
-        <v>100</v>
-      </c>
-      <c r="W27" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2607,14 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2488,14 +2628,14 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
@@ -2550,85 +2690,97 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I33" s="3">
+        <v>600</v>
+      </c>
+      <c r="J33" s="3">
+        <v>500</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>900</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
-        <v>600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>500</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J33" s="3">
-        <v>900</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="U33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-400</v>
       </c>
-      <c r="N33" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-600</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-400</v>
       </c>
-      <c r="V33" s="3">
-        <v>100</v>
-      </c>
-      <c r="W33" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I35" s="3">
+        <v>600</v>
+      </c>
+      <c r="J35" s="3">
+        <v>500</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>900</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
-        <v>600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>500</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>900</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="U35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-400</v>
       </c>
-      <c r="N35" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-600</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-400</v>
       </c>
-      <c r="V35" s="3">
-        <v>100</v>
-      </c>
-      <c r="W35" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F38" s="2">
         <v>44620</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44530</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44439</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44347</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44255</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44165</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44074</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43982</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43890</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43799</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43708</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43616</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43524</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43434</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43343</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43251</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43159</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43069</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42978</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42886</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42794</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42704</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42613</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,41 +3093,43 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
+        <v>300</v>
+      </c>
+      <c r="G41" s="3">
         <v>200</v>
-      </c>
-      <c r="F41" s="3">
-        <v>400</v>
-      </c>
-      <c r="G41" s="3">
-        <v>500</v>
       </c>
       <c r="H41" s="3">
         <v>400</v>
       </c>
       <c r="I41" s="3">
+        <v>500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>400</v>
+      </c>
+      <c r="K41" s="3">
         <v>200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>300</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
@@ -2987,19 +3161,25 @@
         <v>0</v>
       </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
       <c r="AA41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,114 +3255,126 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F43" s="3">
         <v>1300</v>
       </c>
-      <c r="E43" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F43" s="3">
-        <v>1200</v>
-      </c>
       <c r="G43" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H43" s="3">
         <v>1200</v>
       </c>
       <c r="I43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K43" s="3">
         <v>1000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>700</v>
-      </c>
-      <c r="L43" s="3">
-        <v>700</v>
-      </c>
-      <c r="M43" s="3">
-        <v>900</v>
       </c>
       <c r="N43" s="3">
         <v>700</v>
       </c>
       <c r="O43" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="P43" s="3">
         <v>700</v>
       </c>
       <c r="Q43" s="3">
+        <v>700</v>
+      </c>
+      <c r="R43" s="3">
+        <v>700</v>
+      </c>
+      <c r="S43" s="3">
         <v>1000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>1300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>1300</v>
-      </c>
-      <c r="T43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="U43" s="3">
-        <v>1000</v>
       </c>
       <c r="V43" s="3">
         <v>1100</v>
       </c>
       <c r="W43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="X43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Y43" s="3">
         <v>900</v>
-      </c>
-      <c r="X43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>1200</v>
       </c>
       <c r="Z43" s="3">
         <v>1000</v>
       </c>
       <c r="AA43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AC43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>800</v>
+        <v>1100</v>
       </c>
       <c r="E44" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F44" s="3">
         <v>800</v>
       </c>
       <c r="G44" s="3">
+        <v>800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>800</v>
+      </c>
+      <c r="I44" s="3">
         <v>700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>400</v>
-      </c>
-      <c r="K44" s="3">
-        <v>300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>300</v>
       </c>
       <c r="M44" s="3">
         <v>300</v>
@@ -3191,28 +3383,28 @@
         <v>300</v>
       </c>
       <c r="O44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P44" s="3">
         <v>300</v>
       </c>
       <c r="Q44" s="3">
+        <v>400</v>
+      </c>
+      <c r="R44" s="3">
         <v>300</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
+        <v>300</v>
+      </c>
+      <c r="T44" s="3">
         <v>400</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>500</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>500</v>
-      </c>
-      <c r="U44" s="3">
-        <v>300</v>
-      </c>
-      <c r="V44" s="3">
-        <v>300</v>
       </c>
       <c r="W44" s="3">
         <v>300</v>
@@ -3221,49 +3413,55 @@
         <v>300</v>
       </c>
       <c r="Y44" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA44" s="3">
         <v>400</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>400</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
@@ -3283,14 +3481,14 @@
         <v>0</v>
       </c>
       <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
         <v>100</v>
       </c>
-      <c r="U45" s="3">
-        <v>0</v>
-      </c>
-      <c r="V45" s="3">
-        <v>0</v>
-      </c>
       <c r="W45" s="3">
         <v>0</v>
       </c>
@@ -3301,90 +3499,102 @@
         <v>0</v>
       </c>
       <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
         <v>100</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2500</v>
+        <v>2900</v>
       </c>
       <c r="E46" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F46" s="3">
         <v>2400</v>
       </c>
-      <c r="F46" s="3">
-        <v>2500</v>
-      </c>
       <c r="G46" s="3">
-        <v>2800</v>
+        <v>2400</v>
       </c>
       <c r="H46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M46" s="3">
-        <v>1200</v>
       </c>
       <c r="N46" s="3">
         <v>1100</v>
       </c>
       <c r="O46" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="P46" s="3">
         <v>1100</v>
       </c>
       <c r="Q46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="S46" s="3">
         <v>1400</v>
-      </c>
-      <c r="R46" s="3">
-        <v>1700</v>
-      </c>
-      <c r="S46" s="3">
-        <v>1800</v>
       </c>
       <c r="T46" s="3">
         <v>1700</v>
       </c>
       <c r="U46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W46" s="3">
         <v>1400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1300</v>
-      </c>
-      <c r="X46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>1700</v>
       </c>
       <c r="Z46" s="3">
         <v>1400</v>
       </c>
       <c r="AA46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AC46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,46 +3670,52 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="E48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F48" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H48" s="3">
         <v>1500</v>
       </c>
-      <c r="F48" s="3">
-        <v>1500</v>
-      </c>
-      <c r="G48" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J48" s="3">
         <v>1200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
-      </c>
-      <c r="K48" s="3">
-        <v>600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
       </c>
       <c r="N48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P48" s="3">
         <v>700</v>
@@ -3511,34 +3727,40 @@
         <v>700</v>
       </c>
       <c r="S48" s="3">
+        <v>700</v>
+      </c>
+      <c r="T48" s="3">
+        <v>700</v>
+      </c>
+      <c r="U48" s="3">
         <v>800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3500</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>3600</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>3700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>3900</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>4100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>4300</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>4400</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3614,8 +3836,14 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,22 +4002,28 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="3">
-        <v>300</v>
+      <c r="E52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>8</v>
+      <c r="G52" s="3">
+        <v>300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>8</v>
@@ -3797,11 +4037,11 @@
       <c r="K52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -3845,8 +4085,14 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4400</v>
+        <v>4500</v>
       </c>
       <c r="E54" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F54" s="3">
         <v>4200</v>
       </c>
-      <c r="F54" s="3">
-        <v>4000</v>
-      </c>
       <c r="G54" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="H54" s="3">
-        <v>3500</v>
+        <v>3900</v>
       </c>
       <c r="I54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="K54" s="3">
         <v>2600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>2900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1900</v>
-      </c>
-      <c r="N54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="O54" s="3">
-        <v>1800</v>
       </c>
       <c r="P54" s="3">
         <v>1800</v>
       </c>
       <c r="Q54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="R54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="S54" s="3">
         <v>2100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>2500</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>2600</v>
-      </c>
-      <c r="T54" s="3">
-        <v>5200</v>
-      </c>
-      <c r="U54" s="3">
-        <v>5000</v>
       </c>
       <c r="V54" s="3">
         <v>5200</v>
       </c>
       <c r="W54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="X54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="Y54" s="3">
         <v>5100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>5500</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>5900</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>5900</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,114 +4317,122 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6400</v>
+        <v>7200</v>
       </c>
       <c r="E57" s="3">
-        <v>5600</v>
+        <v>6800</v>
       </c>
       <c r="F57" s="3">
-        <v>5600</v>
+        <v>6200</v>
       </c>
       <c r="G57" s="3">
-        <v>5600</v>
+        <v>5400</v>
       </c>
       <c r="H57" s="3">
-        <v>5700</v>
+        <v>5400</v>
       </c>
       <c r="I57" s="3">
         <v>5500</v>
       </c>
       <c r="J57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="K57" s="3">
+        <v>5500</v>
+      </c>
+      <c r="L57" s="3">
         <v>5800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>5800</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>5000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5100</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>4800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>4500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>4300</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>4400</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>4800</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>4900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>5100</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>5300</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>5200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E58" s="3">
-        <v>3400</v>
+        <v>3000</v>
       </c>
       <c r="F58" s="3">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="G58" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="H58" s="3">
         <v>3400</v>
       </c>
       <c r="I58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K58" s="3">
         <v>3500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>3500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>3600</v>
       </c>
       <c r="M58" s="3">
         <v>3600</v>
@@ -4176,34 +4444,34 @@
         <v>3600</v>
       </c>
       <c r="P58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="Q58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="R58" s="3">
         <v>3500</v>
       </c>
       <c r="S58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="T58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="U58" s="3">
         <v>3400</v>
-      </c>
-      <c r="T58" s="3">
-        <v>3400</v>
-      </c>
-      <c r="U58" s="3">
-        <v>4200</v>
       </c>
       <c r="V58" s="3">
         <v>3400</v>
       </c>
       <c r="W58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="X58" s="3">
         <v>3400</v>
       </c>
-      <c r="X58" s="3">
-        <v>3500</v>
-      </c>
       <c r="Y58" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="Z58" s="3">
         <v>3500</v>
@@ -4211,93 +4479,105 @@
       <c r="AA58" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>10900</v>
+        <v>11000</v>
       </c>
       <c r="E59" s="3">
-        <v>11000</v>
+        <v>10700</v>
       </c>
       <c r="F59" s="3">
+        <v>10600</v>
+      </c>
+      <c r="G59" s="3">
         <v>10700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>10300</v>
       </c>
       <c r="H59" s="3">
         <v>10400</v>
       </c>
       <c r="I59" s="3">
+        <v>10000</v>
+      </c>
+      <c r="J59" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K59" s="3">
         <v>11100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>11000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>11200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>10800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>10400</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>10200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>10200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>9400</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>9000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>8600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>8300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>7900</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>6900</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>7100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>7000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>6100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>6000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>5700</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>20400</v>
+        <v>21300</v>
       </c>
       <c r="E60" s="3">
-        <v>20000</v>
+        <v>20500</v>
       </c>
       <c r="F60" s="3">
         <v>19800</v>
@@ -4306,75 +4586,81 @@
         <v>19400</v>
       </c>
       <c r="H60" s="3">
-        <v>19600</v>
+        <v>19200</v>
       </c>
       <c r="I60" s="3">
+        <v>18800</v>
+      </c>
+      <c r="J60" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K60" s="3">
         <v>20100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>20300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>20600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>19400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>19100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>18600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>19400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>17500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>17000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>16700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>16000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>15700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>15500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>15300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>15300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>14800</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>14800</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>14500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>300</v>
-      </c>
-      <c r="E61" s="3">
-        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>300</v>
@@ -4383,10 +4669,10 @@
         <v>200</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -4442,13 +4728,19 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="E62" s="3">
         <v>1100</v>
@@ -4475,52 +4767,58 @@
         <v>900</v>
       </c>
       <c r="M62" s="3">
+        <v>900</v>
+      </c>
+      <c r="N62" s="3">
+        <v>900</v>
+      </c>
+      <c r="O62" s="3">
         <v>700</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>700</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>900</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1000</v>
-      </c>
-      <c r="V62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="W62" s="3">
-        <v>1100</v>
       </c>
       <c r="X62" s="3">
         <v>1000</v>
       </c>
       <c r="Y62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Z62" s="3">
         <v>1000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB62" s="3">
         <v>900</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21700</v>
+        <v>22700</v>
       </c>
       <c r="E66" s="3">
-        <v>21300</v>
+        <v>21900</v>
       </c>
       <c r="F66" s="3">
+        <v>21100</v>
+      </c>
+      <c r="G66" s="3">
+        <v>20700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>20400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>20000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K66" s="3">
         <v>21000</v>
       </c>
-      <c r="G66" s="3">
-        <v>20600</v>
-      </c>
-      <c r="H66" s="3">
-        <v>20500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>21000</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>21200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>21500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>20300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>19800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>19300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>20200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>18200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>17700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>17500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>16800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>16700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>16500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>16300</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>16400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>15700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>15800</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>15400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-59700</v>
+        <v>-59300</v>
       </c>
       <c r="E72" s="3">
-        <v>-58800</v>
+        <v>-58400</v>
       </c>
       <c r="F72" s="3">
-        <v>-58800</v>
+        <v>-57900</v>
       </c>
       <c r="G72" s="3">
-        <v>-58100</v>
+        <v>-57100</v>
       </c>
       <c r="H72" s="3">
-        <v>-58800</v>
+        <v>-57100</v>
       </c>
       <c r="I72" s="3">
+        <v>-56400</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-59300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-59200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-60900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-60000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-59100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-58700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-60200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-57000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-55700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-55200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-53900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-45300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-45400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-44900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-45100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-45100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-44800</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-44500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-44100</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-17300</v>
       </c>
-      <c r="E76" s="3">
-        <v>-17100</v>
-      </c>
       <c r="F76" s="3">
-        <v>-17000</v>
+        <v>-16800</v>
       </c>
       <c r="G76" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="O76" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="P76" s="3">
+        <v>-17600</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>-18400</v>
+      </c>
+      <c r="R76" s="3">
         <v>-16400</v>
       </c>
-      <c r="H76" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-18300</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-19500</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-17900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-17600</v>
-      </c>
-      <c r="O76" s="3">
-        <v>-18400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>-16400</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-15600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-15000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-14200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-11500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-11500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-11100</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-11200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-10200</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-9800</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-9500</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44804</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44712</v>
+      </c>
+      <c r="F80" s="2">
         <v>44620</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44530</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44439</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44347</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44255</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44165</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44074</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43982</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43890</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43799</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43708</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43616</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43524</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43434</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43343</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43251</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43159</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43069</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42978</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42886</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42794</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42704</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42613</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I81" s="3">
+        <v>600</v>
+      </c>
+      <c r="J81" s="3">
+        <v>500</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>900</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="T81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
-        <v>600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>500</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="J81" s="3">
-        <v>900</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="U81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-400</v>
       </c>
-      <c r="N81" s="3">
-        <v>-200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-600</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-400</v>
       </c>
-      <c r="V81" s="3">
-        <v>100</v>
-      </c>
-      <c r="W81" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-400</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6210,10 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5823,7 +6221,7 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F83" s="3">
         <v>100</v>
@@ -5841,10 +6239,10 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -5853,19 +6251,19 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>100</v>
@@ -5889,10 +6287,16 @@
         <v>100</v>
       </c>
       <c r="AA83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>300</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
-      </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+      <c r="V89" s="3">
         <v>100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>300</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>200</v>
       </c>
-      <c r="Z89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,50 +6822,52 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-600</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
@@ -6436,22 +6878,22 @@
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>100</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>200</v>
-      </c>
-      <c r="X91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>-200</v>
       </c>
       <c r="Z91" s="3">
         <v>-200</v>
@@ -6459,8 +6901,14 @@
       <c r="AA91" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC91" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,40 +7067,46 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-400</v>
+        <v>200</v>
       </c>
       <c r="F94" s="3">
         <v>-100</v>
       </c>
       <c r="G94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
         <v>300</v>
       </c>
-      <c r="H94" s="3">
-        <v>-400</v>
-      </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-100</v>
-      </c>
       <c r="M94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N94" s="3">
         <v>-100</v>
@@ -6655,16 +7115,16 @@
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
         <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
@@ -6673,16 +7133,16 @@
         <v>0</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>300</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>-200</v>
       </c>
       <c r="Z94" s="3">
         <v>-200</v>
@@ -6690,8 +7150,14 @@
       <c r="AA94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AC94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,56 +7513,62 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>8</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O100" s="3">
+      <c r="O100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q100" s="3">
         <v>200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
@@ -7084,28 +7576,34 @@
         <v>0</v>
       </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
         <v>0</v>
       </c>
       <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,41 +7679,47 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
         <v>0</v>
       </c>
@@ -7256,6 +7760,12 @@
         <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>RCTFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,140 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E7" s="2">
         <v>44804</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44712</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44620</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44530</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44439</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44347</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44255</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44165</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44074</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43982</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43890</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43799</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43708</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43616</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43524</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43434</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43343</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43251</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43159</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43069</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42978</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42886</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42794</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42704</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42613</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="E8" s="3">
-        <v>2900</v>
+        <v>2500</v>
       </c>
       <c r="F8" s="3">
-        <v>2300</v>
+        <v>2800</v>
       </c>
       <c r="G8" s="3">
-        <v>2600</v>
+        <v>2200</v>
       </c>
       <c r="H8" s="3">
         <v>2500</v>
@@ -804,55 +807,55 @@
         <v>2400</v>
       </c>
       <c r="J8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>1200</v>
       </c>
       <c r="R8" s="3">
         <v>1200</v>
       </c>
       <c r="S8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T8" s="3">
         <v>1400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>1700</v>
       </c>
       <c r="U8" s="3">
         <v>1700</v>
       </c>
       <c r="V8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="W8" s="3">
         <v>1600</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>1500</v>
       </c>
       <c r="AA8" s="3">
         <v>1500</v>
@@ -861,176 +864,185 @@
         <v>1500</v>
       </c>
       <c r="AC8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD8" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K9" s="3">
         <v>2100</v>
       </c>
-      <c r="F9" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1900</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>2000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1200</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1600</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1800</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1300</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1600</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1500</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1200</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1300</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1400</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1500</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1400</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>1300</v>
       </c>
       <c r="AB9" s="3">
         <v>1300</v>
       </c>
       <c r="AC9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AD9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-800</v>
-      </c>
-      <c r="G10" s="3">
-        <v>200</v>
       </c>
       <c r="H10" s="3">
         <v>200</v>
       </c>
       <c r="I10" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="J10" s="3">
         <v>500</v>
       </c>
       <c r="K10" s="3">
+        <v>500</v>
+      </c>
+      <c r="L10" s="3">
         <v>700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>800</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-200</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>-100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-600</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-100</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-200</v>
       </c>
-      <c r="T10" s="3">
-        <v>0</v>
-      </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>400</v>
-      </c>
-      <c r="W10" s="3">
-        <v>200</v>
       </c>
       <c r="X10" s="3">
         <v>200</v>
       </c>
       <c r="Y10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z10" s="3">
         <v>-400</v>
       </c>
-      <c r="Z10" s="3">
-        <v>100</v>
-      </c>
       <c r="AA10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB10" s="3">
         <v>200</v>
       </c>
       <c r="AC10" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1060,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1143,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,76 +1242,79 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L14" s="3">
         <v>100</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
         <v>100</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
       </c>
       <c r="T14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U14" s="3">
+        <v>100</v>
+      </c>
+      <c r="V14" s="3">
         <v>2400</v>
       </c>
-      <c r="V14" s="3">
-        <v>100</v>
-      </c>
       <c r="W14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X14" s="3">
         <v>0</v>
       </c>
       <c r="Y14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="3">
         <v>100</v>
@@ -1307,10 +1326,13 @@
         <v>100</v>
       </c>
       <c r="AC14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD14" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1318,11 +1340,11 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
+        <v>100</v>
+      </c>
+      <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3">
-        <v>100</v>
-      </c>
       <c r="G15" s="3">
         <v>100</v>
       </c>
@@ -1342,7 +1364,7 @@
         <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1354,16 +1376,16 @@
         <v>0</v>
       </c>
       <c r="Q15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
       <c r="T15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U15" s="3">
         <v>100</v>
@@ -1390,10 +1412,13 @@
         <v>100</v>
       </c>
       <c r="AC15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E17" s="3">
         <v>3400</v>
       </c>
       <c r="F17" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="G17" s="3">
-        <v>2700</v>
+        <v>3100</v>
       </c>
       <c r="H17" s="3">
-        <v>3100</v>
+        <v>2600</v>
       </c>
       <c r="I17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="L17" s="3">
+        <v>2500</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="N17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1700</v>
+      </c>
+      <c r="R17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
-        <v>2100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>2500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="M17" s="3">
-        <v>2100</v>
-      </c>
-      <c r="N17" s="3">
+      <c r="U17" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V17" s="3">
+        <v>4300</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>2400</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AB17" s="3">
         <v>1800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="AC17" s="3">
         <v>1900</v>
       </c>
-      <c r="P17" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>2400</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="S17" s="3">
-        <v>2000</v>
-      </c>
-      <c r="T17" s="3">
-        <v>2300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>4300</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1500</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>2400</v>
-      </c>
-      <c r="Z17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>1800</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-500</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-2600</v>
       </c>
-      <c r="V18" s="3">
-        <v>0</v>
-      </c>
       <c r="W18" s="3">
+        <v>0</v>
+      </c>
+      <c r="X18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>200</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>-300</v>
       </c>
       <c r="AB18" s="3">
         <v>-300</v>
       </c>
       <c r="AC18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD18" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,8 +1649,9 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1638,11 +1671,11 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1700,55 +1733,58 @@
       <c r="AC20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
-        <v>0</v>
-      </c>
       <c r="H21" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="I21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-600</v>
       </c>
       <c r="S21" s="3">
         <v>-600</v>
@@ -1757,22 +1793,22 @@
         <v>-600</v>
       </c>
       <c r="U21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V21" s="3">
         <v>-2500</v>
       </c>
-      <c r="V21" s="3">
-        <v>100</v>
-      </c>
       <c r="W21" s="3">
+        <v>100</v>
+      </c>
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Z21" s="3">
-        <v>-200</v>
       </c>
       <c r="AA21" s="3">
         <v>-200</v>
@@ -1781,10 +1817,13 @@
         <v>-200</v>
       </c>
       <c r="AC21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AD21" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1866,91 +1905,97 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-800</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-600</v>
       </c>
       <c r="S23" s="3">
         <v>-600</v>
       </c>
       <c r="T23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U23" s="3">
         <v>-700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-2600</v>
       </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
       <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
         <v>-400</v>
       </c>
-      <c r="X23" s="3">
-        <v>100</v>
-      </c>
       <c r="Y23" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>-300</v>
       </c>
       <c r="AB23" s="3">
         <v>-300</v>
       </c>
       <c r="AC23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD23" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2077,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-800</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-600</v>
       </c>
       <c r="S26" s="3">
         <v>-600</v>
       </c>
       <c r="T26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U26" s="3">
         <v>-700</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-2600</v>
       </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
       <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
         <v>-400</v>
       </c>
-      <c r="X26" s="3">
-        <v>100</v>
-      </c>
       <c r="Y26" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>-300</v>
       </c>
       <c r="AB26" s="3">
         <v>-300</v>
       </c>
       <c r="AC26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-800</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-600</v>
       </c>
       <c r="S27" s="3">
         <v>-600</v>
       </c>
       <c r="T27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U27" s="3">
         <v>-700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-2600</v>
       </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
       <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
         <v>-400</v>
       </c>
-      <c r="X27" s="3">
-        <v>100</v>
-      </c>
       <c r="Y27" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>-300</v>
       </c>
       <c r="AB27" s="3">
         <v>-300</v>
       </c>
       <c r="AC27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,8 +2679,11 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2634,11 +2703,11 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2696,91 +2765,97 @@
       <c r="AC32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-800</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-600</v>
       </c>
       <c r="S33" s="3">
         <v>-600</v>
       </c>
       <c r="T33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U33" s="3">
         <v>-700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-2600</v>
       </c>
-      <c r="V33" s="3">
-        <v>0</v>
-      </c>
       <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
         <v>-400</v>
       </c>
-      <c r="X33" s="3">
-        <v>100</v>
-      </c>
       <c r="Y33" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>-300</v>
       </c>
       <c r="AB33" s="3">
         <v>-300</v>
       </c>
       <c r="AC33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-800</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-600</v>
       </c>
       <c r="S35" s="3">
         <v>-600</v>
       </c>
       <c r="T35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U35" s="3">
         <v>-700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-2600</v>
       </c>
-      <c r="V35" s="3">
-        <v>0</v>
-      </c>
       <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
         <v>-400</v>
       </c>
-      <c r="X35" s="3">
-        <v>100</v>
-      </c>
       <c r="Y35" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>-300</v>
       </c>
       <c r="AB35" s="3">
         <v>-300</v>
       </c>
       <c r="AC35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E38" s="2">
         <v>44804</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44712</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44620</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44530</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44439</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44347</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44255</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44165</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44074</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43982</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43890</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43799</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43708</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43616</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43524</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43434</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43343</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43251</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43159</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43069</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42978</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42886</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42794</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42704</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42613</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,8 +3180,9 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3104,7 +3190,7 @@
         <v>100</v>
       </c>
       <c r="E41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
         <v>300</v>
@@ -3113,26 +3199,26 @@
         <v>200</v>
       </c>
       <c r="H41" s="3">
+        <v>200</v>
+      </c>
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>200</v>
       </c>
       <c r="M41" s="3">
+        <v>200</v>
+      </c>
+      <c r="N41" s="3">
         <v>300</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
         <v>0</v>
       </c>
@@ -3167,10 +3253,10 @@
         <v>0</v>
       </c>
       <c r="Z41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB41" s="3">
         <v>0</v>
@@ -3178,8 +3264,11 @@
       <c r="AC41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,49 +3350,52 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
-        <v>1600</v>
-      </c>
       <c r="F43" s="3">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G43" s="3">
         <v>1300</v>
       </c>
       <c r="H43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K43" s="3">
         <v>1200</v>
       </c>
-      <c r="I43" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>700</v>
       </c>
       <c r="N43" s="3">
         <v>700</v>
       </c>
       <c r="O43" s="3">
+        <v>700</v>
+      </c>
+      <c r="P43" s="3">
         <v>900</v>
-      </c>
-      <c r="P43" s="3">
-        <v>700</v>
       </c>
       <c r="Q43" s="3">
         <v>700</v>
@@ -3312,72 +3404,75 @@
         <v>700</v>
       </c>
       <c r="S43" s="3">
+        <v>700</v>
+      </c>
+      <c r="T43" s="3">
         <v>1000</v>
-      </c>
-      <c r="T43" s="3">
-        <v>1300</v>
       </c>
       <c r="U43" s="3">
         <v>1300</v>
       </c>
       <c r="V43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W43" s="3">
         <v>1100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>1000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>900</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>1000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="E44" s="3">
         <v>1000</v>
       </c>
       <c r="F44" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="G44" s="3">
         <v>800</v>
       </c>
       <c r="H44" s="3">
+        <v>700</v>
+      </c>
+      <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>400</v>
       </c>
       <c r="L44" s="3">
         <v>400</v>
       </c>
       <c r="M44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="N44" s="3">
         <v>300</v>
@@ -3389,25 +3484,25 @@
         <v>300</v>
       </c>
       <c r="Q44" s="3">
+        <v>300</v>
+      </c>
+      <c r="R44" s="3">
         <v>400</v>
-      </c>
-      <c r="R44" s="3">
-        <v>300</v>
       </c>
       <c r="S44" s="3">
         <v>300</v>
       </c>
       <c r="T44" s="3">
+        <v>300</v>
+      </c>
+      <c r="U44" s="3">
         <v>400</v>
-      </c>
-      <c r="U44" s="3">
-        <v>500</v>
       </c>
       <c r="V44" s="3">
         <v>500</v>
       </c>
       <c r="W44" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="X44" s="3">
         <v>300</v>
@@ -3419,24 +3514,27 @@
         <v>300</v>
       </c>
       <c r="AA44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AB44" s="3">
         <v>400</v>
       </c>
       <c r="AC44" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
         <v>0</v>
@@ -3445,13 +3543,13 @@
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3460,10 +3558,10 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3487,10 +3585,10 @@
         <v>0</v>
       </c>
       <c r="V45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3505,54 +3603,57 @@
         <v>0</v>
       </c>
       <c r="AB45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2900</v>
+        <v>2700</v>
       </c>
       <c r="E46" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="F46" s="3">
-        <v>2400</v>
+        <v>2800</v>
       </c>
       <c r="G46" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="H46" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="I46" s="3">
-        <v>2700</v>
+        <v>2300</v>
       </c>
       <c r="J46" s="3">
+        <v>2600</v>
+      </c>
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1100</v>
       </c>
       <c r="Q46" s="3">
         <v>1100</v>
@@ -3561,40 +3662,43 @@
         <v>1100</v>
       </c>
       <c r="S46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1700</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1700</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1700</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1400</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3676,40 +3780,43 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1600</v>
       </c>
-      <c r="E48" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1500</v>
       </c>
       <c r="I48" s="3">
         <v>1400</v>
       </c>
       <c r="J48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1200</v>
-      </c>
-      <c r="K48" s="3">
-        <v>1000</v>
       </c>
       <c r="L48" s="3">
         <v>1000</v>
       </c>
       <c r="M48" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="N48" s="3">
         <v>600</v>
@@ -3718,7 +3825,7 @@
         <v>600</v>
       </c>
       <c r="P48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q48" s="3">
         <v>700</v>
@@ -3733,34 +3840,37 @@
         <v>700</v>
       </c>
       <c r="U48" s="3">
+        <v>700</v>
+      </c>
+      <c r="V48" s="3">
         <v>800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3500</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3600</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3700</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>4100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4300</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4400</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3842,8 +3952,11 @@
       <c r="AC49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,8 +4124,11 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4022,11 +4141,11 @@
       <c r="F52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G52" s="3">
+      <c r="G52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H52" s="3">
         <v>300</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>8</v>
@@ -4043,8 +4162,8 @@
       <c r="M52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -4091,8 +4210,11 @@
       <c r="AC52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,49 +4296,52 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4500</v>
+        <v>4100</v>
       </c>
       <c r="E54" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="F54" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="G54" s="3">
         <v>4100</v>
       </c>
       <c r="H54" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="I54" s="3">
-        <v>4100</v>
+        <v>3700</v>
       </c>
       <c r="J54" s="3">
+        <v>4000</v>
+      </c>
+      <c r="K54" s="3">
         <v>3400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1900</v>
-      </c>
-      <c r="P54" s="3">
-        <v>1800</v>
       </c>
       <c r="Q54" s="3">
         <v>1800</v>
@@ -4225,40 +4350,43 @@
         <v>1800</v>
       </c>
       <c r="S54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="T54" s="3">
         <v>2100</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5200</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5100</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5500</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>5900</v>
       </c>
       <c r="AB54" s="3">
         <v>5900</v>
       </c>
       <c r="AC54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="AD54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,123 +4448,127 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7200</v>
+        <v>7700</v>
       </c>
       <c r="E57" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="F57" s="3">
-        <v>6200</v>
+        <v>6600</v>
       </c>
       <c r="G57" s="3">
-        <v>5400</v>
+        <v>6000</v>
       </c>
       <c r="H57" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="I57" s="3">
+        <v>5200</v>
+      </c>
+      <c r="J57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="K57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="L57" s="3">
         <v>5500</v>
-      </c>
-      <c r="J57" s="3">
-        <v>5600</v>
-      </c>
-      <c r="K57" s="3">
-        <v>5500</v>
-      </c>
-      <c r="L57" s="3">
-        <v>5800</v>
       </c>
       <c r="M57" s="3">
         <v>5800</v>
       </c>
       <c r="N57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="O57" s="3">
         <v>5000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>5100</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>4800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>5500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>4600</v>
-      </c>
-      <c r="S57" s="3">
-        <v>4500</v>
       </c>
       <c r="T57" s="3">
         <v>4500</v>
       </c>
       <c r="U57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="V57" s="3">
         <v>4300</v>
-      </c>
-      <c r="V57" s="3">
-        <v>4400</v>
       </c>
       <c r="W57" s="3">
         <v>4400</v>
       </c>
       <c r="X57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Y57" s="3">
         <v>4800</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>4900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>5100</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>5300</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>5200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E58" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="F58" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K58" s="3">
         <v>3300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I58" s="3">
-        <v>3400</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>3500</v>
       </c>
       <c r="L58" s="3">
         <v>3500</v>
       </c>
       <c r="M58" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="N58" s="3">
         <v>3600</v>
@@ -4450,7 +4583,7 @@
         <v>3600</v>
       </c>
       <c r="R58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="S58" s="3">
         <v>3500</v>
@@ -4459,22 +4592,22 @@
         <v>3500</v>
       </c>
       <c r="U58" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="V58" s="3">
         <v>3400</v>
       </c>
       <c r="W58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="X58" s="3">
         <v>4200</v>
-      </c>
-      <c r="X58" s="3">
-        <v>3400</v>
       </c>
       <c r="Y58" s="3">
         <v>3400</v>
       </c>
       <c r="Z58" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="AA58" s="3">
         <v>3500</v>
@@ -4485,96 +4618,102 @@
       <c r="AC58" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD58" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11000</v>
+        <v>10900</v>
       </c>
       <c r="E59" s="3">
-        <v>10700</v>
+        <v>10600</v>
       </c>
       <c r="F59" s="3">
-        <v>10600</v>
+        <v>10300</v>
       </c>
       <c r="G59" s="3">
-        <v>10700</v>
+        <v>10200</v>
       </c>
       <c r="H59" s="3">
-        <v>10400</v>
+        <v>10300</v>
       </c>
       <c r="I59" s="3">
         <v>10000</v>
       </c>
       <c r="J59" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K59" s="3">
         <v>10100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>11100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>10800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>10200</v>
       </c>
       <c r="Q59" s="3">
         <v>10200</v>
       </c>
       <c r="R59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="S59" s="3">
         <v>9400</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>9000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>8600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8300</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7900</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>6900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>7100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>6100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>6000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>5700</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21300</v>
+        <v>21500</v>
       </c>
       <c r="E60" s="3">
         <v>20500</v>
@@ -4583,76 +4722,79 @@
         <v>19800</v>
       </c>
       <c r="G60" s="3">
+        <v>19100</v>
+      </c>
+      <c r="H60" s="3">
+        <v>18700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>18500</v>
+      </c>
+      <c r="J60" s="3">
+        <v>18200</v>
+      </c>
+      <c r="K60" s="3">
+        <v>19000</v>
+      </c>
+      <c r="L60" s="3">
+        <v>20100</v>
+      </c>
+      <c r="M60" s="3">
+        <v>20300</v>
+      </c>
+      <c r="N60" s="3">
+        <v>20600</v>
+      </c>
+      <c r="O60" s="3">
         <v>19400</v>
       </c>
-      <c r="H60" s="3">
-        <v>19200</v>
-      </c>
-      <c r="I60" s="3">
-        <v>18800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>19000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>20100</v>
-      </c>
-      <c r="L60" s="3">
-        <v>20300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>20600</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
+        <v>19100</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>18600</v>
+      </c>
+      <c r="R60" s="3">
         <v>19400</v>
       </c>
-      <c r="O60" s="3">
-        <v>19100</v>
-      </c>
-      <c r="P60" s="3">
-        <v>18600</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>19400</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>17500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>16700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>15700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15500</v>
-      </c>
-      <c r="X60" s="3">
-        <v>15300</v>
       </c>
       <c r="Y60" s="3">
         <v>15300</v>
       </c>
       <c r="Z60" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="AA60" s="3">
         <v>14800</v>
       </c>
       <c r="AB60" s="3">
+        <v>14800</v>
+      </c>
+      <c r="AC60" s="3">
         <v>14500</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4660,13 +4802,13 @@
         <v>200</v>
       </c>
       <c r="E61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F61" s="3">
         <v>300</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="H61" s="3">
         <v>200</v>
@@ -4675,7 +4817,7 @@
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -4734,8 +4876,11 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4743,16 +4888,16 @@
         <v>1200</v>
       </c>
       <c r="E62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F62" s="3">
         <v>1100</v>
-      </c>
-      <c r="F62" s="3">
-        <v>1000</v>
       </c>
       <c r="G62" s="3">
         <v>1000</v>
       </c>
       <c r="H62" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I62" s="3">
         <v>900</v>
@@ -4773,52 +4918,55 @@
         <v>900</v>
       </c>
       <c r="O62" s="3">
+        <v>900</v>
+      </c>
+      <c r="P62" s="3">
         <v>700</v>
-      </c>
-      <c r="P62" s="3">
-        <v>800</v>
       </c>
       <c r="Q62" s="3">
         <v>800</v>
       </c>
       <c r="R62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="S62" s="3">
         <v>700</v>
       </c>
       <c r="T62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="U62" s="3">
         <v>800</v>
       </c>
       <c r="V62" s="3">
+        <v>800</v>
+      </c>
+      <c r="W62" s="3">
         <v>900</v>
-      </c>
-      <c r="W62" s="3">
-        <v>1000</v>
       </c>
       <c r="X62" s="3">
         <v>1000</v>
       </c>
       <c r="Y62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Z62" s="3">
         <v>1100</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>1000</v>
       </c>
       <c r="AA62" s="3">
         <v>1000</v>
       </c>
       <c r="AB62" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AC62" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,13 +5220,16 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22700</v>
+        <v>22800</v>
       </c>
       <c r="E66" s="3">
         <v>21900</v>
@@ -5081,76 +5238,79 @@
         <v>21100</v>
       </c>
       <c r="G66" s="3">
-        <v>20700</v>
+        <v>20300</v>
       </c>
       <c r="H66" s="3">
-        <v>20400</v>
+        <v>19900</v>
       </c>
       <c r="I66" s="3">
-        <v>20000</v>
+        <v>19600</v>
       </c>
       <c r="J66" s="3">
+        <v>19300</v>
+      </c>
+      <c r="K66" s="3">
         <v>19900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>21000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>21200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>21500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>20300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>19800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>19300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>20200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>18200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>17700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16500</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>16300</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>16400</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>15700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>15800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>15400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5682,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-58300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-55800</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-57100</v>
+      </c>
+      <c r="L72" s="3">
         <v>-59300</v>
       </c>
-      <c r="E72" s="3">
-        <v>-58400</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-57900</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-57100</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-57100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-56400</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-57100</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-59300</v>
-      </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-59200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-60900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-60000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-59100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-58700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-60200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-57000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-55700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-55200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-53900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-45300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-45400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-44900</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-45100</v>
       </c>
       <c r="Z72" s="3">
         <v>-45100</v>
       </c>
       <c r="AA72" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-44800</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-44500</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-44100</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-18200</v>
+        <v>-18700</v>
       </c>
       <c r="E76" s="3">
-        <v>-17300</v>
+        <v>-17500</v>
       </c>
       <c r="F76" s="3">
-        <v>-16800</v>
+        <v>-16700</v>
       </c>
       <c r="G76" s="3">
-        <v>-16600</v>
+        <v>-16200</v>
       </c>
       <c r="H76" s="3">
-        <v>-16500</v>
+        <v>-16000</v>
       </c>
       <c r="I76" s="3">
         <v>-15900</v>
       </c>
       <c r="J76" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-16500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-18400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-18300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-19500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-18600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-17900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-17600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-18400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-16400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-15600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-15000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-14200</v>
-      </c>
-      <c r="V76" s="3">
-        <v>-11500</v>
       </c>
       <c r="W76" s="3">
         <v>-11500</v>
       </c>
       <c r="X76" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="Y76" s="3">
         <v>-11100</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>-11200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-10200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-9800</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-9500</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44895</v>
+      </c>
+      <c r="E80" s="2">
         <v>44804</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44712</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44620</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44530</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44439</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44347</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44255</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44165</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44074</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43982</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43890</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43799</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43708</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43616</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43524</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43434</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43343</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43251</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43159</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43069</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42978</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42886</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42794</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42704</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42613</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-800</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-600</v>
       </c>
       <c r="S81" s="3">
         <v>-600</v>
       </c>
       <c r="T81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="U81" s="3">
         <v>-700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-2600</v>
       </c>
-      <c r="V81" s="3">
-        <v>0</v>
-      </c>
       <c r="W81" s="3">
+        <v>0</v>
+      </c>
+      <c r="X81" s="3">
         <v>-400</v>
       </c>
-      <c r="X81" s="3">
-        <v>100</v>
-      </c>
       <c r="Y81" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-400</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>-300</v>
       </c>
       <c r="AB81" s="3">
         <v>-300</v>
       </c>
       <c r="AC81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AD81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,8 +6409,9 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6221,11 +6419,11 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
+        <v>100</v>
+      </c>
+      <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3">
-        <v>100</v>
-      </c>
       <c r="G83" s="3">
         <v>100</v>
       </c>
@@ -6245,7 +6443,7 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -6257,16 +6455,16 @@
         <v>0</v>
       </c>
       <c r="Q83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
       <c r="T83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
@@ -6293,10 +6491,13 @@
         <v>100</v>
       </c>
       <c r="AC83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>300</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>300</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>100</v>
       </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
         <v>0</v>
       </c>
       <c r="V89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
+        <v>100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-400</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>300</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>200</v>
       </c>
-      <c r="AB89" s="3">
-        <v>0</v>
-      </c>
       <c r="AC89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,8 +7043,9 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6833,44 +7053,44 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-100</v>
       </c>
       <c r="G91" s="3">
         <v>-100</v>
       </c>
       <c r="H91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L91" s="3">
         <v>-100</v>
       </c>
       <c r="M91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
       <c r="O91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P91" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
@@ -6884,19 +7104,19 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X91" s="3">
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>200</v>
-      </c>
-      <c r="Z91" s="3">
-        <v>-200</v>
       </c>
       <c r="AA91" s="3">
         <v>-200</v>
@@ -6907,8 +7127,11 @@
       <c r="AC91" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,43 +7299,46 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>300</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
@@ -7121,31 +7350,31 @@
         <v>-100</v>
       </c>
       <c r="R94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>-100</v>
       </c>
       <c r="U94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
         <v>0</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>300</v>
-      </c>
-      <c r="Z94" s="3">
-        <v>-200</v>
       </c>
       <c r="AA94" s="3">
         <v>-200</v>
@@ -7156,8 +7385,11 @@
       <c r="AC94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7761,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7531,31 +7776,31 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>-100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>8</v>
@@ -7563,14 +7808,14 @@
       <c r="P100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="Q100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="R100" s="3">
-        <v>100</v>
-      </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -7582,13 +7827,13 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
-        <v>100</v>
-      </c>
       <c r="Y100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z100" s="3">
         <v>0</v>
@@ -7597,13 +7842,16 @@
         <v>0</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
-      <c r="AC100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7685,44 +7933,47 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
-        <v>100</v>
-      </c>
       <c r="J102" s="3">
+        <v>100</v>
+      </c>
+      <c r="K102" s="3">
         <v>200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
@@ -7766,6 +8017,9 @@
         <v>0</v>
       </c>
       <c r="AC102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>RCTFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,200 +665,204 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E7" s="2">
         <v>44895</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44804</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44712</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44620</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44530</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44439</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44347</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44255</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44165</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44074</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43982</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43890</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43799</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43708</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43616</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43524</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43434</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43343</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43251</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43159</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43069</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42978</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42886</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42794</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42704</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42613</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="M8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N8" s="3">
         <v>2500</v>
       </c>
-      <c r="F8" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2200</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J8" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2600</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2300</v>
-      </c>
-      <c r="M8" s="3">
-        <v>2500</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1500</v>
-      </c>
-      <c r="R8" s="3">
-        <v>1200</v>
       </c>
       <c r="S8" s="3">
         <v>1200</v>
       </c>
       <c r="T8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="U8" s="3">
         <v>1400</v>
-      </c>
-      <c r="U8" s="3">
-        <v>1700</v>
       </c>
       <c r="V8" s="3">
         <v>1700</v>
       </c>
       <c r="W8" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X8" s="3">
         <v>1600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1500</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1600</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>1500</v>
       </c>
       <c r="AB8" s="3">
         <v>1500</v>
@@ -867,182 +871,191 @@
         <v>1500</v>
       </c>
       <c r="AD8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AE8" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="E9" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F9" s="3">
+        <v>2700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="O9" s="3">
         <v>2000</v>
       </c>
-      <c r="G9" s="3">
-        <v>3000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2200</v>
-      </c>
-      <c r="J9" s="3">
+      <c r="P9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="S9" s="3">
         <v>1800</v>
       </c>
-      <c r="K9" s="3">
-        <v>2100</v>
-      </c>
-      <c r="L9" s="3">
+      <c r="T9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="V9" s="3">
         <v>1600</v>
       </c>
-      <c r="M9" s="3">
-        <v>1700</v>
-      </c>
-      <c r="N9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="O9" s="3">
+      <c r="W9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y9" s="3">
         <v>1300</v>
       </c>
-      <c r="P9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1800</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1700</v>
-      </c>
-      <c r="U9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="V9" s="3">
+      <c r="Z9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AA9" s="3">
         <v>1500</v>
       </c>
-      <c r="W9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="X9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Y9" s="3">
+      <c r="AB9" s="3">
         <v>1400</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>1500</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>1400</v>
-      </c>
-      <c r="AB9" s="3">
-        <v>1300</v>
       </c>
       <c r="AC9" s="3">
         <v>1300</v>
       </c>
       <c r="AD9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="AE9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E10" s="3">
         <v>-200</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-800</v>
-      </c>
-      <c r="H10" s="3">
-        <v>200</v>
       </c>
       <c r="I10" s="3">
         <v>200</v>
       </c>
       <c r="J10" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="K10" s="3">
         <v>500</v>
       </c>
       <c r="L10" s="3">
+        <v>500</v>
+      </c>
+      <c r="M10" s="3">
         <v>700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>800</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-200</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>-100</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>-600</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>-100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>-200</v>
       </c>
-      <c r="U10" s="3">
-        <v>0</v>
-      </c>
       <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>300</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>400</v>
-      </c>
-      <c r="X10" s="3">
-        <v>200</v>
       </c>
       <c r="Y10" s="3">
         <v>200</v>
       </c>
       <c r="Z10" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA10" s="3">
         <v>-400</v>
       </c>
-      <c r="AA10" s="3">
-        <v>100</v>
-      </c>
       <c r="AB10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC10" s="3">
         <v>200</v>
       </c>
       <c r="AD10" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1254,70 +1274,70 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F14" s="3">
         <v>0</v>
       </c>
       <c r="G14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>100</v>
       </c>
       <c r="N14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
         <v>100</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V14" s="3">
+        <v>100</v>
+      </c>
+      <c r="W14" s="3">
         <v>2400</v>
       </c>
-      <c r="W14" s="3">
-        <v>100</v>
-      </c>
       <c r="X14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y14" s="3">
         <v>0</v>
       </c>
       <c r="Z14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA14" s="3">
         <v>100</v>
@@ -1329,10 +1349,13 @@
         <v>100</v>
       </c>
       <c r="AD14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE14" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1343,11 +1366,11 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
+        <v>100</v>
+      </c>
+      <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3">
-        <v>100</v>
-      </c>
       <c r="H15" s="3">
         <v>100</v>
       </c>
@@ -1367,7 +1390,7 @@
         <v>100</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1379,16 +1402,16 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V15" s="3">
         <v>100</v>
@@ -1415,10 +1438,13 @@
         <v>100</v>
       </c>
       <c r="AD15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E17" s="3">
         <v>3600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
+        <v>3500</v>
+      </c>
+      <c r="G17" s="3">
         <v>3400</v>
       </c>
-      <c r="F17" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2600</v>
       </c>
-      <c r="I17" s="3">
-        <v>3000</v>
-      </c>
       <c r="J17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>2400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>2000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>2300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>4300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1900</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1500</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>2400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1900</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1800</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1900</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-1200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-500</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2600</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>200</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>-300</v>
       </c>
       <c r="AC18" s="3">
         <v>-300</v>
       </c>
       <c r="AD18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE18" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,8 +1683,9 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1674,11 +1708,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1736,58 +1770,61 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
-        <v>0</v>
-      </c>
       <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K21" s="3">
+        <v>700</v>
+      </c>
+      <c r="L21" s="3">
+        <v>600</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N21" s="3">
+        <v>900</v>
+      </c>
+      <c r="O21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P21" s="3">
         <v>-500</v>
       </c>
-      <c r="J21" s="3">
-        <v>700</v>
-      </c>
-      <c r="K21" s="3">
-        <v>600</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>900</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
-      <c r="O21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="S21" s="3">
-        <v>-600</v>
       </c>
       <c r="T21" s="3">
         <v>-600</v>
@@ -1796,22 +1833,22 @@
         <v>-600</v>
       </c>
       <c r="V21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="W21" s="3">
         <v>-2500</v>
       </c>
-      <c r="W21" s="3">
-        <v>100</v>
-      </c>
       <c r="X21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>-200</v>
       </c>
       <c r="AB21" s="3">
         <v>-200</v>
@@ -1820,10 +1857,13 @@
         <v>-200</v>
       </c>
       <c r="AD21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE21" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-600</v>
       </c>
       <c r="T23" s="3">
         <v>-600</v>
       </c>
       <c r="U23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V23" s="3">
         <v>-700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2600</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
         <v>-400</v>
       </c>
-      <c r="Y23" s="3">
-        <v>100</v>
-      </c>
       <c r="Z23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>-300</v>
       </c>
       <c r="AC23" s="3">
         <v>-300</v>
       </c>
       <c r="AD23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE23" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2080,8 +2126,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-600</v>
       </c>
       <c r="T26" s="3">
         <v>-600</v>
       </c>
       <c r="U26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V26" s="3">
         <v>-700</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2600</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
         <v>-400</v>
       </c>
-      <c r="Y26" s="3">
-        <v>100</v>
-      </c>
       <c r="Z26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>-300</v>
       </c>
       <c r="AC26" s="3">
         <v>-300</v>
       </c>
       <c r="AD26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-600</v>
       </c>
       <c r="T27" s="3">
         <v>-600</v>
       </c>
       <c r="U27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V27" s="3">
         <v>-700</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2600</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
         <v>-400</v>
       </c>
-      <c r="Y27" s="3">
-        <v>100</v>
-      </c>
       <c r="Z27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>-300</v>
       </c>
       <c r="AC27" s="3">
         <v>-300</v>
       </c>
       <c r="AD27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,8 +2749,11 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2706,11 +2776,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-600</v>
       </c>
       <c r="T33" s="3">
         <v>-600</v>
       </c>
       <c r="U33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V33" s="3">
         <v>-700</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2600</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
         <v>-400</v>
       </c>
-      <c r="Y33" s="3">
-        <v>100</v>
-      </c>
       <c r="Z33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB33" s="3">
-        <v>-300</v>
       </c>
       <c r="AC33" s="3">
         <v>-300</v>
       </c>
       <c r="AD33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-600</v>
       </c>
       <c r="T35" s="3">
         <v>-600</v>
       </c>
       <c r="U35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V35" s="3">
         <v>-700</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2600</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
         <v>-400</v>
       </c>
-      <c r="Y35" s="3">
-        <v>100</v>
-      </c>
       <c r="Z35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB35" s="3">
-        <v>-300</v>
       </c>
       <c r="AC35" s="3">
         <v>-300</v>
       </c>
       <c r="AD35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E38" s="2">
         <v>44895</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44804</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44712</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44620</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44530</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44439</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44347</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44255</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44165</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44074</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43982</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43890</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43799</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43708</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43616</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43524</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43434</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43343</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43251</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43159</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43069</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42978</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42886</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42794</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42704</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42613</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,8 +3267,9 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3193,35 +3280,35 @@
         <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>100</v>
+      </c>
+      <c r="G41" s="3">
         <v>300</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>200</v>
       </c>
       <c r="I41" s="3">
+        <v>200</v>
+      </c>
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>400</v>
-      </c>
-      <c r="L41" s="3">
-        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>200</v>
       </c>
       <c r="N41" s="3">
+        <v>200</v>
+      </c>
+      <c r="O41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
       <c r="P41" s="3">
         <v>0</v>
       </c>
@@ -3256,10 +3343,10 @@
         <v>0</v>
       </c>
       <c r="AA41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC41" s="3">
         <v>0</v>
@@ -3267,8 +3354,11 @@
       <c r="AD41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,8 +3443,11 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3362,43 +3455,43 @@
         <v>1600</v>
       </c>
       <c r="E43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1500</v>
-      </c>
-      <c r="G43" s="3">
-        <v>1300</v>
       </c>
       <c r="H43" s="3">
         <v>1300</v>
       </c>
       <c r="I43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J43" s="3">
         <v>1100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>700</v>
       </c>
       <c r="O43" s="3">
         <v>700</v>
       </c>
       <c r="P43" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q43" s="3">
         <v>900</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>700</v>
       </c>
       <c r="R43" s="3">
         <v>700</v>
@@ -3407,40 +3500,43 @@
         <v>700</v>
       </c>
       <c r="T43" s="3">
+        <v>700</v>
+      </c>
+      <c r="U43" s="3">
         <v>1000</v>
-      </c>
-      <c r="U43" s="3">
-        <v>1300</v>
       </c>
       <c r="V43" s="3">
         <v>1300</v>
       </c>
       <c r="W43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X43" s="3">
         <v>1100</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>1000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>1100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>900</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>1000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>1200</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>1000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3448,34 +3544,34 @@
         <v>900</v>
       </c>
       <c r="E44" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F44" s="3">
         <v>1000</v>
       </c>
       <c r="G44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H44" s="3">
         <v>800</v>
-      </c>
-      <c r="H44" s="3">
-        <v>700</v>
       </c>
       <c r="I44" s="3">
         <v>800</v>
       </c>
       <c r="J44" s="3">
+        <v>800</v>
+      </c>
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>500</v>
-      </c>
-      <c r="L44" s="3">
-        <v>400</v>
       </c>
       <c r="M44" s="3">
         <v>400</v>
       </c>
       <c r="N44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="O44" s="3">
         <v>300</v>
@@ -3487,25 +3583,25 @@
         <v>300</v>
       </c>
       <c r="R44" s="3">
+        <v>300</v>
+      </c>
+      <c r="S44" s="3">
         <v>400</v>
-      </c>
-      <c r="S44" s="3">
-        <v>300</v>
       </c>
       <c r="T44" s="3">
         <v>300</v>
       </c>
       <c r="U44" s="3">
+        <v>300</v>
+      </c>
+      <c r="V44" s="3">
         <v>400</v>
-      </c>
-      <c r="V44" s="3">
-        <v>500</v>
       </c>
       <c r="W44" s="3">
         <v>500</v>
       </c>
       <c r="X44" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="Y44" s="3">
         <v>300</v>
@@ -3517,16 +3613,19 @@
         <v>300</v>
       </c>
       <c r="AB44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AC44" s="3">
         <v>400</v>
       </c>
       <c r="AD44" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3534,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -3546,13 +3645,13 @@
         <v>0</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3561,10 +3660,10 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -3588,10 +3687,10 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3606,57 +3705,60 @@
         <v>0</v>
       </c>
       <c r="AC45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD45" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E46" s="3">
         <v>2800</v>
       </c>
       <c r="F46" s="3">
+        <v>2900</v>
+      </c>
+      <c r="G46" s="3">
         <v>2800</v>
       </c>
-      <c r="G46" s="3">
-        <v>2300</v>
-      </c>
       <c r="H46" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="I46" s="3">
         <v>2300</v>
       </c>
       <c r="J46" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K46" s="3">
         <v>2600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1700</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1100</v>
       </c>
       <c r="R46" s="3">
         <v>1100</v>
@@ -3665,40 +3767,43 @@
         <v>1100</v>
       </c>
       <c r="T46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1700</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1700</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1400</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1700</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1400</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3783,25 +3888,28 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1500</v>
       </c>
       <c r="F48" s="3">
         <v>1600</v>
       </c>
       <c r="G48" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H48" s="3">
         <v>1800</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1400</v>
       </c>
       <c r="I48" s="3">
         <v>1400</v>
@@ -3810,16 +3918,16 @@
         <v>1400</v>
       </c>
       <c r="K48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L48" s="3">
         <v>1200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>1000</v>
       </c>
       <c r="M48" s="3">
         <v>1000</v>
       </c>
       <c r="N48" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="O48" s="3">
         <v>600</v>
@@ -3828,7 +3936,7 @@
         <v>600</v>
       </c>
       <c r="Q48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="R48" s="3">
         <v>700</v>
@@ -3843,34 +3951,37 @@
         <v>700</v>
       </c>
       <c r="V48" s="3">
+        <v>700</v>
+      </c>
+      <c r="W48" s="3">
         <v>800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3600</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3700</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3900</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>4100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>4300</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>4400</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,8 +4244,11 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4144,11 +4264,11 @@
       <c r="G52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H52" s="3">
+      <c r="H52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I52" s="3">
         <v>300</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
@@ -4165,8 +4285,8 @@
       <c r="N52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,52 +4422,55 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="G54" s="3">
+        <v>4500</v>
+      </c>
+      <c r="H54" s="3">
+        <v>4200</v>
+      </c>
+      <c r="I54" s="3">
         <v>4100</v>
       </c>
-      <c r="E54" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F54" s="3">
-        <v>4400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>4100</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K54" s="3">
         <v>4000</v>
       </c>
-      <c r="I54" s="3">
-        <v>3700</v>
-      </c>
-      <c r="J54" s="3">
-        <v>4000</v>
-      </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1900</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>1800</v>
       </c>
       <c r="R54" s="3">
         <v>1800</v>
@@ -4353,40 +4479,43 @@
         <v>1800</v>
       </c>
       <c r="T54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="U54" s="3">
         <v>2100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5200</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5100</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5500</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>5900</v>
       </c>
       <c r="AC54" s="3">
         <v>5900</v>
       </c>
       <c r="AD54" s="3">
+        <v>5900</v>
+      </c>
+      <c r="AE54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,129 +4579,133 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>7700</v>
+        <v>8400</v>
       </c>
       <c r="E57" s="3">
-        <v>7000</v>
+        <v>7800</v>
       </c>
       <c r="F57" s="3">
-        <v>6600</v>
+        <v>7100</v>
       </c>
       <c r="G57" s="3">
-        <v>6000</v>
+        <v>6700</v>
       </c>
       <c r="H57" s="3">
-        <v>5200</v>
+        <v>6100</v>
       </c>
       <c r="I57" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="J57" s="3">
         <v>5300</v>
       </c>
       <c r="K57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="L57" s="3">
         <v>5600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>5500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>5800</v>
       </c>
       <c r="N57" s="3">
         <v>5800</v>
       </c>
       <c r="O57" s="3">
+        <v>5800</v>
+      </c>
+      <c r="P57" s="3">
         <v>5000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>5100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>4800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>5500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>4600</v>
-      </c>
-      <c r="T57" s="3">
-        <v>4500</v>
       </c>
       <c r="U57" s="3">
         <v>4500</v>
       </c>
       <c r="V57" s="3">
+        <v>4500</v>
+      </c>
+      <c r="W57" s="3">
         <v>4300</v>
-      </c>
-      <c r="W57" s="3">
-        <v>4400</v>
       </c>
       <c r="X57" s="3">
         <v>4400</v>
       </c>
       <c r="Y57" s="3">
+        <v>4400</v>
+      </c>
+      <c r="Z57" s="3">
         <v>4800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>4900</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>5100</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>5300</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AD57" s="3">
         <v>5200</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AE57" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="E58" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F58" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G58" s="3">
         <v>2900</v>
       </c>
       <c r="H58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K58" s="3">
         <v>3200</v>
       </c>
-      <c r="I58" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3200</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>3300</v>
-      </c>
-      <c r="L58" s="3">
-        <v>3500</v>
       </c>
       <c r="M58" s="3">
         <v>3500</v>
       </c>
       <c r="N58" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="O58" s="3">
         <v>3600</v>
@@ -4586,7 +4720,7 @@
         <v>3600</v>
       </c>
       <c r="S58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="T58" s="3">
         <v>3500</v>
@@ -4595,22 +4729,22 @@
         <v>3500</v>
       </c>
       <c r="V58" s="3">
-        <v>3400</v>
+        <v>3500</v>
       </c>
       <c r="W58" s="3">
         <v>3400</v>
       </c>
       <c r="X58" s="3">
+        <v>3400</v>
+      </c>
+      <c r="Y58" s="3">
         <v>4200</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>3400</v>
       </c>
       <c r="Z58" s="3">
         <v>3400</v>
       </c>
       <c r="AA58" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="AB58" s="3">
         <v>3500</v>
@@ -4621,197 +4755,206 @@
       <c r="AD58" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>11200</v>
+      </c>
+      <c r="F59" s="3">
         <v>10900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>10600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I59" s="3">
+        <v>10500</v>
+      </c>
+      <c r="J59" s="3">
         <v>10300</v>
       </c>
-      <c r="G59" s="3">
-        <v>10200</v>
-      </c>
-      <c r="H59" s="3">
-        <v>10300</v>
-      </c>
-      <c r="I59" s="3">
-        <v>10000</v>
-      </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>9700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>10100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>11100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>11000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>11200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>10800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>10400</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>10200</v>
       </c>
       <c r="R59" s="3">
         <v>10200</v>
       </c>
       <c r="S59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="T59" s="3">
         <v>9400</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>9000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>8600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>8300</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7900</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>6900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>7100</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>7000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>6100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>6000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>5700</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>21500</v>
+        <v>22800</v>
       </c>
       <c r="E60" s="3">
-        <v>20500</v>
+        <v>22000</v>
       </c>
       <c r="F60" s="3">
-        <v>19800</v>
+        <v>21000</v>
       </c>
       <c r="G60" s="3">
+        <v>20200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>19500</v>
+      </c>
+      <c r="I60" s="3">
         <v>19100</v>
       </c>
-      <c r="H60" s="3">
-        <v>18700</v>
-      </c>
-      <c r="I60" s="3">
-        <v>18500</v>
-      </c>
       <c r="J60" s="3">
+        <v>19000</v>
+      </c>
+      <c r="K60" s="3">
         <v>18200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>19000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>20100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>20300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>20600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>19400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>19100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>18600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>19400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>17500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>17000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>16700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>16000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>15700</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>15500</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>15300</v>
       </c>
       <c r="Z60" s="3">
         <v>15300</v>
       </c>
       <c r="AA60" s="3">
-        <v>14800</v>
+        <v>15300</v>
       </c>
       <c r="AB60" s="3">
         <v>14800</v>
       </c>
       <c r="AC60" s="3">
+        <v>14800</v>
+      </c>
+      <c r="AD60" s="3">
         <v>14500</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>200</v>
       </c>
       <c r="F61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G61" s="3">
         <v>300</v>
       </c>
       <c r="H61" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I61" s="3">
         <v>200</v>
@@ -4820,7 +4963,7 @@
         <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -4879,8 +5022,11 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4891,16 +5037,16 @@
         <v>1200</v>
       </c>
       <c r="F62" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G62" s="3">
         <v>1100</v>
-      </c>
-      <c r="G62" s="3">
-        <v>1000</v>
       </c>
       <c r="H62" s="3">
         <v>1000</v>
       </c>
       <c r="I62" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J62" s="3">
         <v>900</v>
@@ -4921,52 +5067,55 @@
         <v>900</v>
       </c>
       <c r="P62" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q62" s="3">
         <v>700</v>
-      </c>
-      <c r="Q62" s="3">
-        <v>800</v>
       </c>
       <c r="R62" s="3">
         <v>800</v>
       </c>
       <c r="S62" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="T62" s="3">
         <v>700</v>
       </c>
       <c r="U62" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="V62" s="3">
         <v>800</v>
       </c>
       <c r="W62" s="3">
+        <v>800</v>
+      </c>
+      <c r="X62" s="3">
         <v>900</v>
-      </c>
-      <c r="X62" s="3">
-        <v>1000</v>
       </c>
       <c r="Y62" s="3">
         <v>1000</v>
       </c>
       <c r="Z62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AA62" s="3">
         <v>1100</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>1000</v>
       </c>
       <c r="AB62" s="3">
         <v>1000</v>
       </c>
       <c r="AC62" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AD62" s="3">
         <v>900</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22800</v>
+        <v>24300</v>
       </c>
       <c r="E66" s="3">
-        <v>21900</v>
+        <v>23400</v>
       </c>
       <c r="F66" s="3">
-        <v>21100</v>
+        <v>22400</v>
       </c>
       <c r="G66" s="3">
+        <v>21600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>20800</v>
+      </c>
+      <c r="I66" s="3">
+        <v>20400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>20100</v>
+      </c>
+      <c r="K66" s="3">
+        <v>19300</v>
+      </c>
+      <c r="L66" s="3">
+        <v>19900</v>
+      </c>
+      <c r="M66" s="3">
+        <v>21000</v>
+      </c>
+      <c r="N66" s="3">
+        <v>21200</v>
+      </c>
+      <c r="O66" s="3">
+        <v>21500</v>
+      </c>
+      <c r="P66" s="3">
         <v>20300</v>
       </c>
-      <c r="H66" s="3">
-        <v>19900</v>
-      </c>
-      <c r="I66" s="3">
-        <v>19600</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="Q66" s="3">
+        <v>19800</v>
+      </c>
+      <c r="R66" s="3">
         <v>19300</v>
       </c>
-      <c r="K66" s="3">
-        <v>19900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>21000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>21200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>21500</v>
-      </c>
-      <c r="O66" s="3">
-        <v>20300</v>
-      </c>
-      <c r="P66" s="3">
-        <v>19800</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>19300</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>20200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>18200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>17700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>17500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>16800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>16700</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>16500</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>16300</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>16400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>15700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>15800</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>15400</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,94 +5856,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-58300</v>
+        <v>-60500</v>
       </c>
       <c r="E72" s="3">
+        <v>-59700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-58500</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-57600</v>
+      </c>
+      <c r="H72" s="3">
         <v>-57100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-56300</v>
       </c>
-      <c r="G72" s="3">
-        <v>-55800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-55000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-55000</v>
-      </c>
       <c r="J72" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-54300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-57100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-59300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-59200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-60900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-60000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-59100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-58700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-60200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-57000</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-55700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-55200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-53900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-45300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-45400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-44900</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-45100</v>
       </c>
       <c r="AA72" s="3">
         <v>-45100</v>
       </c>
       <c r="AB72" s="3">
+        <v>-45100</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-44800</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-44500</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-44100</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-18700</v>
+        <v>-20000</v>
       </c>
       <c r="E76" s="3">
-        <v>-17500</v>
+        <v>-19200</v>
       </c>
       <c r="F76" s="3">
-        <v>-16700</v>
+        <v>-18000</v>
       </c>
       <c r="G76" s="3">
-        <v>-16200</v>
+        <v>-17100</v>
       </c>
       <c r="H76" s="3">
-        <v>-16000</v>
+        <v>-16600</v>
       </c>
       <c r="I76" s="3">
-        <v>-15900</v>
+        <v>-16300</v>
       </c>
       <c r="J76" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="K76" s="3">
         <v>-15300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-16500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-18400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-18300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-19500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-18600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>-17600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>-18400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>-16400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>-15600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>-15000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>-14200</v>
-      </c>
-      <c r="W76" s="3">
-        <v>-11500</v>
       </c>
       <c r="X76" s="3">
         <v>-11500</v>
       </c>
       <c r="Y76" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="Z76" s="3">
         <v>-11100</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>-11200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>-10200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>-9800</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>-9500</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E80" s="2">
         <v>44895</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44804</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44712</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44620</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44530</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44439</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44347</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44255</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44165</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44074</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43982</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43890</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43799</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43708</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43616</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43524</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43434</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43343</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43251</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43159</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43069</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42978</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42886</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42794</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42704</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42613</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-600</v>
       </c>
       <c r="T81" s="3">
         <v>-600</v>
       </c>
       <c r="U81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V81" s="3">
         <v>-700</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2600</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
         <v>-400</v>
       </c>
-      <c r="Y81" s="3">
-        <v>100</v>
-      </c>
       <c r="Z81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-400</v>
-      </c>
-      <c r="AB81" s="3">
-        <v>-300</v>
       </c>
       <c r="AC81" s="3">
         <v>-300</v>
       </c>
       <c r="AD81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AE81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6422,11 +6621,11 @@
         <v>100</v>
       </c>
       <c r="F83" s="3">
+        <v>100</v>
+      </c>
+      <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3">
-        <v>100</v>
-      </c>
       <c r="H83" s="3">
         <v>100</v>
       </c>
@@ -6446,7 +6645,7 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -6458,16 +6657,16 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
@@ -6494,10 +6693,13 @@
         <v>100</v>
       </c>
       <c r="AD83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,8 +7140,11 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6935,85 +7152,88 @@
         <v>200</v>
       </c>
       <c r="E89" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
       </c>
       <c r="G89" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>300</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>300</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V89" s="3">
         <v>0</v>
       </c>
       <c r="W89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>300</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>200</v>
       </c>
-      <c r="AC89" s="3">
-        <v>0</v>
-      </c>
       <c r="AD89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,56 +7264,57 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="G91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>-100</v>
       </c>
       <c r="N91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>100</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
@@ -7107,19 +7328,19 @@
         <v>0</v>
       </c>
       <c r="W91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>200</v>
-      </c>
-      <c r="AA91" s="3">
-        <v>-200</v>
       </c>
       <c r="AB91" s="3">
         <v>-200</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,46 +7529,49 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
@@ -7353,31 +7583,31 @@
         <v>-100</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
       <c r="Y94" s="3">
         <v>0</v>
       </c>
       <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>300</v>
-      </c>
-      <c r="AA94" s="3">
-        <v>-200</v>
       </c>
       <c r="AB94" s="3">
         <v>-200</v>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,8 +8007,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7779,31 +8025,31 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
         <v>-100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>8</v>
@@ -7811,14 +8057,14 @@
       <c r="Q100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R100" s="3">
+      <c r="R100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>100</v>
-      </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -7830,13 +8076,13 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="Y100" s="3">
-        <v>100</v>
-      </c>
       <c r="Z100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA100" s="3">
         <v>0</v>
@@ -7845,13 +8091,16 @@
         <v>0</v>
       </c>
       <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>200</v>
       </c>
-      <c r="AD100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,47 +8185,50 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
-        <v>100</v>
-      </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
         <v>200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
       <c r="M102" s="3">
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
@@ -8020,6 +8272,9 @@
         <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
@@ -4871,7 +4871,7 @@
         <v>19100</v>
       </c>
       <c r="J60" s="3">
-        <v>19000</v>
+        <v>18900</v>
       </c>
       <c r="K60" s="3">
         <v>18200</v>

--- a/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/RCTFF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="92">
   <si>
     <t>RCTFF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AG102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,397 +665,423 @@
     <col min="1" max="1" width="8.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45077</v>
+      </c>
+      <c r="F7" s="2">
         <v>44985</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44895</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44804</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44712</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44620</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44530</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44439</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44347</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44255</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44165</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44074</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43982</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43890</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43799</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43708</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43616</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43524</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43434</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43343</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43251</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43159</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43069</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42978</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42886</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42794</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42704</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AF7" s="2">
         <v>42613</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AG7" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F8" s="3">
         <v>2300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2800</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>2400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>2300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>2600</v>
       </c>
       <c r="M8" s="3">
         <v>2300</v>
       </c>
       <c r="N8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="O8" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P8" s="3">
         <v>2500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1900</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1700</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1700</v>
-      </c>
-      <c r="X8" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>1500</v>
       </c>
       <c r="Z8" s="3">
         <v>1600</v>
       </c>
       <c r="AA8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AC8" s="3">
         <v>1100</v>
-      </c>
-      <c r="AB8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>1500</v>
       </c>
       <c r="AD8" s="3">
         <v>1500</v>
       </c>
       <c r="AE8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AG8" s="3">
         <v>1200</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H9" s="3">
         <v>2700</v>
       </c>
-      <c r="F9" s="3">
-        <v>2700</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L9" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N9" s="3">
         <v>2100</v>
       </c>
-      <c r="H9" s="3">
-        <v>3100</v>
-      </c>
-      <c r="I9" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>2300</v>
-      </c>
-      <c r="K9" s="3">
+      <c r="O9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1600</v>
+      </c>
+      <c r="U9" s="3">
         <v>1800</v>
       </c>
-      <c r="L9" s="3">
-        <v>2100</v>
-      </c>
-      <c r="M9" s="3">
+      <c r="V9" s="3">
+        <v>1300</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1700</v>
+      </c>
+      <c r="X9" s="3">
         <v>1600</v>
       </c>
-      <c r="N9" s="3">
-        <v>1700</v>
-      </c>
-      <c r="O9" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P9" s="3">
+      <c r="Y9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AA9" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="R9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="S9" s="3">
-        <v>1800</v>
-      </c>
-      <c r="T9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="U9" s="3">
-        <v>1700</v>
-      </c>
-      <c r="V9" s="3">
-        <v>1600</v>
-      </c>
-      <c r="W9" s="3">
-        <v>1500</v>
-      </c>
-      <c r="X9" s="3">
-        <v>1200</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>1300</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>1400</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>1500</v>
       </c>
       <c r="AB9" s="3">
         <v>1400</v>
       </c>
       <c r="AC9" s="3">
+        <v>1500</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AE9" s="3">
         <v>1300</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AF9" s="3">
         <v>1300</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AG9" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="E10" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="F10" s="3">
         <v>-100</v>
       </c>
       <c r="G10" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I10" s="3">
         <v>800</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>700</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>800</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>-200</v>
       </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S10" s="3">
-        <v>-600</v>
       </c>
       <c r="T10" s="3">
         <v>-100</v>
       </c>
       <c r="U10" s="3">
+        <v>-600</v>
+      </c>
+      <c r="V10" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W10" s="3">
         <v>-200</v>
       </c>
-      <c r="V10" s="3">
-        <v>0</v>
-      </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>200</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>200</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>-400</v>
       </c>
-      <c r="AB10" s="3">
-        <v>100</v>
-      </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE10" s="3">
         <v>200</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AF10" s="3">
         <v>200</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AG10" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,8 +1113,10 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+      <c r="AG11" s="3"/>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1176,8 +1204,14 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1299,14 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1274,16 +1314,16 @@
         <v>100</v>
       </c>
       <c r="E14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -1295,16 +1335,16 @@
         <v>0</v>
       </c>
       <c r="L14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P14" s="3">
         <v>100</v>
@@ -1316,34 +1356,34 @@
         <v>100</v>
       </c>
       <c r="S14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y14" s="3">
         <v>2400</v>
       </c>
-      <c r="X14" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>0</v>
-      </c>
       <c r="Z14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB14" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC14" s="3">
         <v>100</v>
@@ -1352,10 +1392,16 @@
         <v>100</v>
       </c>
       <c r="AE14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>100</v>
+      </c>
+      <c r="AG14" s="3">
         <v>6400</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1369,14 +1415,14 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
+        <v>100</v>
+      </c>
+      <c r="H15" s="3">
+        <v>100</v>
+      </c>
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
-        <v>100</v>
-      </c>
-      <c r="I15" s="3">
-        <v>100</v>
-      </c>
       <c r="J15" s="3">
         <v>100</v>
       </c>
@@ -1393,10 +1439,10 @@
         <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1405,19 +1451,19 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W15" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X15" s="3">
         <v>100</v>
@@ -1441,10 +1487,16 @@
         <v>100</v>
       </c>
       <c r="AE15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AG15" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,186 +1525,200 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+      <c r="AG16" s="3"/>
+    </row>
+    <row r="17" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G17" s="3">
         <v>3600</v>
       </c>
-      <c r="F17" s="3">
-        <v>3500</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>3400</v>
       </c>
-      <c r="H17" s="3">
-        <v>3100</v>
-      </c>
       <c r="I17" s="3">
-        <v>2600</v>
+        <v>3300</v>
       </c>
       <c r="J17" s="3">
         <v>3100</v>
       </c>
       <c r="K17" s="3">
+        <v>2600</v>
+      </c>
+      <c r="L17" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M17" s="3">
         <v>1900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>2100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>2500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>2100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>2400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>2000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>4300</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1900</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1500</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>2400</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>1900</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>1800</v>
       </c>
       <c r="AD17" s="3">
         <v>1900</v>
       </c>
       <c r="AE17" s="3">
+        <v>1800</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>1900</v>
+      </c>
+      <c r="AG17" s="3">
         <v>8100</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>0</v>
+      </c>
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N18" s="3">
-        <v>800</v>
       </c>
       <c r="O18" s="3">
         <v>-200</v>
       </c>
       <c r="P18" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-1200</v>
-      </c>
-      <c r="T18" s="3">
-        <v>-600</v>
-      </c>
-      <c r="U18" s="3">
-        <v>-500</v>
       </c>
       <c r="V18" s="3">
         <v>-600</v>
       </c>
       <c r="W18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-2600</v>
       </c>
-      <c r="X18" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>200</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-400</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-300</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AF18" s="3">
         <v>-300</v>
       </c>
-      <c r="AE18" s="3">
+      <c r="AG18" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,8 +1750,10 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+    </row>
+    <row r="20" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1711,14 +1779,14 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1773,97 +1841,109 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-1100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-600</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-600</v>
       </c>
       <c r="V21" s="3">
         <v>-600</v>
       </c>
       <c r="W21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="X21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-2500</v>
       </c>
-      <c r="X21" s="3">
-        <v>100</v>
-      </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-1200</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>-200</v>
       </c>
       <c r="AD21" s="3">
         <v>-200</v>
       </c>
       <c r="AE21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AF21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AG21" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1951,97 +2031,109 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-1200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-700</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-2600</v>
       </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-400</v>
       </c>
-      <c r="Z23" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC23" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-400</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-300</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AF23" s="3">
         <v>-300</v>
       </c>
-      <c r="AE23" s="3">
+      <c r="AG23" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2129,8 +2221,14 @@
       <c r="AE24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2316,204 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F26" s="3">
         <v>-800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-1200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-700</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-2600</v>
       </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-400</v>
       </c>
-      <c r="Z26" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC26" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-400</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-300</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AF26" s="3">
         <v>-300</v>
       </c>
-      <c r="AE26" s="3">
+      <c r="AG26" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F27" s="3">
         <v>-800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-1200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-700</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-2600</v>
       </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-400</v>
       </c>
-      <c r="Z27" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC27" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-400</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-300</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AF27" s="3">
         <v>-300</v>
       </c>
-      <c r="AE27" s="3">
+      <c r="AG27" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2601,14 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2696,14 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2791,14 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,8 +2886,14 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2779,14 +2919,14 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2841,97 +2981,109 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F33" s="3">
         <v>-800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-1200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-700</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-2600</v>
       </c>
-      <c r="X33" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-400</v>
       </c>
-      <c r="Z33" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC33" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-400</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-300</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AF33" s="3">
         <v>-300</v>
       </c>
-      <c r="AE33" s="3">
+      <c r="AG33" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3171,209 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F35" s="3">
         <v>-800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-1200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-700</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-2600</v>
       </c>
-      <c r="X35" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-400</v>
       </c>
-      <c r="Z35" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC35" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-400</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-300</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AF35" s="3">
         <v>-300</v>
       </c>
-      <c r="AE35" s="3">
+      <c r="AG35" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45077</v>
+      </c>
+      <c r="F38" s="2">
         <v>44985</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44895</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44804</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44712</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44620</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44530</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44439</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44347</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44255</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44165</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44074</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43982</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43890</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43799</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43708</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43616</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43524</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43434</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43343</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43251</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43159</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43069</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42978</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42886</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42794</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42704</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AF38" s="2">
         <v>42613</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AG38" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3405,10 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,8 +3440,10 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -3283,38 +3457,38 @@
         <v>100</v>
       </c>
       <c r="G41" s="3">
+        <v>100</v>
+      </c>
+      <c r="H41" s="3">
+        <v>100</v>
+      </c>
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>200</v>
-      </c>
-      <c r="J41" s="3">
-        <v>400</v>
-      </c>
-      <c r="K41" s="3">
-        <v>500</v>
       </c>
       <c r="L41" s="3">
         <v>400</v>
       </c>
       <c r="M41" s="3">
+        <v>500</v>
+      </c>
+      <c r="N41" s="3">
+        <v>400</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>300</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
@@ -3346,19 +3520,25 @@
         <v>0</v>
       </c>
       <c r="AB41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC41" s="3">
         <v>0</v>
       </c>
       <c r="AD41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3446,138 +3626,150 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G43" s="3">
         <v>1600</v>
       </c>
-      <c r="E43" s="3">
-        <v>1600</v>
-      </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>1300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J43" s="3">
-        <v>1100</v>
       </c>
       <c r="K43" s="3">
         <v>1300</v>
       </c>
       <c r="L43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N43" s="3">
         <v>1200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>1000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>1300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>700</v>
-      </c>
-      <c r="P43" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>900</v>
       </c>
       <c r="R43" s="3">
         <v>700</v>
       </c>
       <c r="S43" s="3">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="T43" s="3">
         <v>700</v>
       </c>
       <c r="U43" s="3">
+        <v>700</v>
+      </c>
+      <c r="V43" s="3">
+        <v>700</v>
+      </c>
+      <c r="W43" s="3">
         <v>1000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>1300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>1300</v>
-      </c>
-      <c r="X43" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>1000</v>
       </c>
       <c r="Z43" s="3">
         <v>1100</v>
       </c>
       <c r="AA43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AC43" s="3">
         <v>900</v>
-      </c>
-      <c r="AB43" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AC43" s="3">
-        <v>1200</v>
       </c>
       <c r="AD43" s="3">
         <v>1000</v>
       </c>
       <c r="AE43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AG43" s="3">
         <v>1100</v>
       </c>
     </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>800</v>
+      </c>
+      <c r="F44" s="3">
         <v>900</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>1000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>1000</v>
-      </c>
-      <c r="H44" s="3">
-        <v>800</v>
-      </c>
-      <c r="I44" s="3">
-        <v>800</v>
       </c>
       <c r="J44" s="3">
         <v>800</v>
       </c>
       <c r="K44" s="3">
+        <v>800</v>
+      </c>
+      <c r="L44" s="3">
+        <v>800</v>
+      </c>
+      <c r="M44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>400</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>400</v>
-      </c>
-      <c r="O44" s="3">
-        <v>300</v>
-      </c>
-      <c r="P44" s="3">
-        <v>300</v>
       </c>
       <c r="Q44" s="3">
         <v>300</v>
@@ -3586,28 +3778,28 @@
         <v>300</v>
       </c>
       <c r="S44" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="T44" s="3">
         <v>300</v>
       </c>
       <c r="U44" s="3">
+        <v>400</v>
+      </c>
+      <c r="V44" s="3">
         <v>300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
+        <v>300</v>
+      </c>
+      <c r="X44" s="3">
         <v>400</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>500</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>300</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>300</v>
       </c>
       <c r="AA44" s="3">
         <v>300</v>
@@ -3616,60 +3808,66 @@
         <v>300</v>
       </c>
       <c r="AC44" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE44" s="3">
         <v>400</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AF44" s="3">
         <v>400</v>
       </c>
-      <c r="AE44" s="3">
+      <c r="AG44" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -3690,13 +3888,13 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
       </c>
       <c r="Z45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA45" s="3">
         <v>0</v>
@@ -3708,102 +3906,114 @@
         <v>0</v>
       </c>
       <c r="AD45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>100</v>
+      </c>
+      <c r="AG45" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F46" s="3">
         <v>2600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
+        <v>2700</v>
+      </c>
+      <c r="H46" s="3">
         <v>2800</v>
       </c>
-      <c r="F46" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>2800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K46" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L46" s="3">
         <v>2400</v>
       </c>
-      <c r="I46" s="3">
-        <v>2300</v>
-      </c>
-      <c r="J46" s="3">
-        <v>2400</v>
-      </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1700</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1100</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>1200</v>
       </c>
       <c r="R46" s="3">
         <v>1100</v>
       </c>
       <c r="S46" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="T46" s="3">
         <v>1100</v>
       </c>
       <c r="U46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="V46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="W46" s="3">
         <v>1400</v>
-      </c>
-      <c r="V46" s="3">
-        <v>1700</v>
-      </c>
-      <c r="W46" s="3">
-        <v>1800</v>
       </c>
       <c r="X46" s="3">
         <v>1700</v>
       </c>
       <c r="Y46" s="3">
+        <v>1800</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AA46" s="3">
         <v>1400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1500</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>1300</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>1400</v>
-      </c>
-      <c r="AC46" s="3">
-        <v>1700</v>
       </c>
       <c r="AD46" s="3">
         <v>1400</v>
       </c>
       <c r="AE46" s="3">
+        <v>1700</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="AG46" s="3">
         <v>1500</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3891,13 +4101,19 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1600</v>
+        <v>1300</v>
       </c>
       <c r="E48" s="3">
         <v>1400</v>
@@ -3906,43 +4122,43 @@
         <v>1600</v>
       </c>
       <c r="G48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I48" s="3">
         <v>1700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1800</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J48" s="3">
-        <v>1400</v>
       </c>
       <c r="K48" s="3">
         <v>1400</v>
       </c>
       <c r="L48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="N48" s="3">
         <v>1200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>600</v>
-      </c>
-      <c r="P48" s="3">
-        <v>600</v>
       </c>
       <c r="Q48" s="3">
         <v>600</v>
       </c>
       <c r="R48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="S48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T48" s="3">
         <v>700</v>
@@ -3954,34 +4170,40 @@
         <v>700</v>
       </c>
       <c r="W48" s="3">
+        <v>700</v>
+      </c>
+      <c r="X48" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y48" s="3">
         <v>800</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>3500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>3600</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>3700</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>3900</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>4100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>4300</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AF48" s="3">
         <v>4400</v>
       </c>
-      <c r="AE48" s="3">
+      <c r="AG48" s="3">
         <v>4600</v>
       </c>
     </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -4069,8 +4291,14 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4386,14 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4481,14 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4267,14 +4507,14 @@
       <c r="H52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I52" s="3">
-        <v>300</v>
+      <c r="I52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>8</v>
+      <c r="K52" s="3">
+        <v>300</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>8</v>
@@ -4288,11 +4528,11 @@
       <c r="O52" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -4336,8 +4576,14 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,97 +4671,109 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>4300</v>
+        <v>4800</v>
       </c>
       <c r="E54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F54" s="3">
         <v>4200</v>
       </c>
-      <c r="F54" s="3">
-        <v>4500</v>
-      </c>
       <c r="G54" s="3">
-        <v>4500</v>
+        <v>4100</v>
       </c>
       <c r="H54" s="3">
-        <v>4200</v>
+        <v>4400</v>
       </c>
       <c r="I54" s="3">
+        <v>4400</v>
+      </c>
+      <c r="J54" s="3">
         <v>4100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
+        <v>4100</v>
+      </c>
+      <c r="L54" s="3">
         <v>3800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>4000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1900</v>
-      </c>
-      <c r="R54" s="3">
-        <v>1800</v>
-      </c>
-      <c r="S54" s="3">
-        <v>1800</v>
       </c>
       <c r="T54" s="3">
         <v>1800</v>
       </c>
       <c r="U54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="V54" s="3">
+        <v>1800</v>
+      </c>
+      <c r="W54" s="3">
         <v>2100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>2500</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>2600</v>
-      </c>
-      <c r="X54" s="3">
-        <v>5200</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>5000</v>
       </c>
       <c r="Z54" s="3">
         <v>5200</v>
       </c>
       <c r="AA54" s="3">
+        <v>5000</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>5200</v>
+      </c>
+      <c r="AC54" s="3">
         <v>5100</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>5500</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>5900</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AF54" s="3">
         <v>5900</v>
       </c>
-      <c r="AE54" s="3">
+      <c r="AG54" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4805,10 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+      <c r="AG55" s="3"/>
+    </row>
+    <row r="56" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,108 +4840,116 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+      <c r="AG56" s="3"/>
+    </row>
+    <row r="57" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>8400</v>
+        <v>10400</v>
       </c>
       <c r="E57" s="3">
-        <v>7800</v>
+        <v>9800</v>
       </c>
       <c r="F57" s="3">
-        <v>7100</v>
+        <v>8300</v>
       </c>
       <c r="G57" s="3">
-        <v>6700</v>
+        <v>7700</v>
       </c>
       <c r="H57" s="3">
-        <v>6100</v>
+        <v>7000</v>
       </c>
       <c r="I57" s="3">
-        <v>5300</v>
+        <v>6600</v>
       </c>
       <c r="J57" s="3">
-        <v>5300</v>
+        <v>6000</v>
       </c>
       <c r="K57" s="3">
         <v>5300</v>
       </c>
       <c r="L57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="M57" s="3">
+        <v>5300</v>
+      </c>
+      <c r="N57" s="3">
         <v>5600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>5800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5800</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>5000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>5100</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>5500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>4600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>4500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>4500</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>4300</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>4400</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>4400</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>4800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>4900</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>5100</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>5300</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AF57" s="3">
         <v>5200</v>
       </c>
-      <c r="AE57" s="3">
+      <c r="AG57" s="3">
         <v>5500</v>
       </c>
     </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3000</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
-        <v>3000</v>
+        <v>300</v>
       </c>
       <c r="F58" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G58" s="3">
         <v>2900</v>
@@ -4690,28 +4958,28 @@
         <v>2900</v>
       </c>
       <c r="I58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="J58" s="3">
+        <v>2900</v>
+      </c>
+      <c r="K58" s="3">
         <v>3300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>3300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>3200</v>
       </c>
       <c r="L58" s="3">
         <v>3300</v>
       </c>
       <c r="M58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N58" s="3">
+        <v>3300</v>
+      </c>
+      <c r="O58" s="3">
         <v>3500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>3500</v>
-      </c>
-      <c r="O58" s="3">
-        <v>3600</v>
-      </c>
-      <c r="P58" s="3">
-        <v>3600</v>
       </c>
       <c r="Q58" s="3">
         <v>3600</v>
@@ -4723,34 +4991,34 @@
         <v>3600</v>
       </c>
       <c r="T58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="U58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="V58" s="3">
         <v>3500</v>
       </c>
       <c r="W58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="X58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="Y58" s="3">
         <v>3400</v>
-      </c>
-      <c r="X58" s="3">
-        <v>3400</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>4200</v>
       </c>
       <c r="Z58" s="3">
         <v>3400</v>
       </c>
       <c r="AA58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="AB58" s="3">
         <v>3400</v>
       </c>
-      <c r="AB58" s="3">
-        <v>3500</v>
-      </c>
       <c r="AC58" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="AD58" s="3">
         <v>3500</v>
@@ -4758,218 +5026,236 @@
       <c r="AE58" s="3">
         <v>3500</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>3500</v>
+      </c>
+      <c r="AG58" s="3">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="59" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>11400</v>
+        <v>200</v>
       </c>
       <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>11200</v>
       </c>
-      <c r="F59" s="3">
-        <v>10900</v>
-      </c>
       <c r="G59" s="3">
-        <v>10600</v>
+        <v>11000</v>
       </c>
       <c r="H59" s="3">
+        <v>10700</v>
+      </c>
+      <c r="I59" s="3">
         <v>10400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
+        <v>10200</v>
+      </c>
+      <c r="K59" s="3">
         <v>10500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>10300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>9700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>10100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>11100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>11000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>11200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>10800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>10400</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>10200</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>10200</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>9400</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>9000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>8600</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>8300</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>7900</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>6900</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>7100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>7000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AD59" s="3">
         <v>6100</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AE59" s="3">
         <v>6000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AF59" s="3">
         <v>5700</v>
       </c>
-      <c r="AE59" s="3">
+      <c r="AG59" s="3">
         <v>5400</v>
       </c>
     </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>22800</v>
+        <v>11100</v>
       </c>
       <c r="E60" s="3">
-        <v>22000</v>
+        <v>10400</v>
       </c>
       <c r="F60" s="3">
-        <v>21000</v>
+        <v>22400</v>
       </c>
       <c r="G60" s="3">
-        <v>20200</v>
+        <v>21600</v>
       </c>
       <c r="H60" s="3">
-        <v>19500</v>
+        <v>20600</v>
       </c>
       <c r="I60" s="3">
+        <v>19900</v>
+      </c>
+      <c r="J60" s="3">
+        <v>19200</v>
+      </c>
+      <c r="K60" s="3">
         <v>19100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>18900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>18200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>19000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>20100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>20300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>20600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>19400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>19100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>18600</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>19400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>17500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>17000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>16700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>16000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>15700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>15500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>15300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>15300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>14800</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>14800</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AF60" s="3">
         <v>14500</v>
       </c>
-      <c r="AE60" s="3">
+      <c r="AG60" s="3">
         <v>14300</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>13300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>13200</v>
+      </c>
+      <c r="F61" s="3">
         <v>300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>300</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>300</v>
-      </c>
-      <c r="I61" s="3">
-        <v>200</v>
-      </c>
-      <c r="J61" s="3">
-        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>200</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -5025,34 +5311,40 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G62" s="3">
         <v>1200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>1200</v>
       </c>
-      <c r="F62" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>1100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>1000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>1000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>900</v>
-      </c>
-      <c r="K62" s="3">
-        <v>900</v>
       </c>
       <c r="L62" s="3">
         <v>900</v>
@@ -5070,52 +5362,58 @@
         <v>900</v>
       </c>
       <c r="Q62" s="3">
+        <v>900</v>
+      </c>
+      <c r="R62" s="3">
+        <v>900</v>
+      </c>
+      <c r="S62" s="3">
         <v>700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>800</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>700</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>900</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="AA62" s="3">
-        <v>1100</v>
       </c>
       <c r="AB62" s="3">
         <v>1000</v>
       </c>
       <c r="AC62" s="3">
+        <v>1100</v>
+      </c>
+      <c r="AD62" s="3">
         <v>1000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="AF62" s="3">
         <v>900</v>
       </c>
-      <c r="AE62" s="3">
+      <c r="AG62" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5501,14 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5596,14 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,97 +5691,109 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>24300</v>
+        <v>26200</v>
       </c>
       <c r="E66" s="3">
-        <v>23400</v>
+        <v>25400</v>
       </c>
       <c r="F66" s="3">
-        <v>22400</v>
+        <v>23800</v>
       </c>
       <c r="G66" s="3">
-        <v>21600</v>
+        <v>23000</v>
       </c>
       <c r="H66" s="3">
-        <v>20800</v>
+        <v>22000</v>
       </c>
       <c r="I66" s="3">
+        <v>21200</v>
+      </c>
+      <c r="J66" s="3">
         <v>20400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
+        <v>20400</v>
+      </c>
+      <c r="L66" s="3">
         <v>20100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>19300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>19900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>21000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>21200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>21500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>20300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>19800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>19300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>20200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>18200</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>17700</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>17500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>16800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>16700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>16500</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>16300</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>16400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>15700</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>15800</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AF66" s="3">
         <v>15400</v>
       </c>
-      <c r="AE66" s="3">
+      <c r="AG66" s="3">
         <v>15200</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5825,10 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+      <c r="AG67" s="3"/>
+    </row>
+    <row r="68" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5916,14 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +6011,14 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +6106,14 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,97 +6201,109 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-60500</v>
+        <v>-61200</v>
       </c>
       <c r="E72" s="3">
-        <v>-59700</v>
+        <v>-60800</v>
       </c>
       <c r="F72" s="3">
-        <v>-58500</v>
+        <v>-59400</v>
       </c>
       <c r="G72" s="3">
-        <v>-57600</v>
+        <v>-58600</v>
       </c>
       <c r="H72" s="3">
+        <v>-57400</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-56100</v>
+      </c>
+      <c r="K72" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-56300</v>
+      </c>
+      <c r="M72" s="3">
+        <v>-54300</v>
+      </c>
+      <c r="N72" s="3">
         <v>-57100</v>
       </c>
-      <c r="I72" s="3">
-        <v>-56300</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-56300</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-54300</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-57100</v>
-      </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-59300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-59200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-60900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-60000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-59100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-58700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-60200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-57000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-55700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-55200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-53900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-45300</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-45400</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-44900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-45100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-45100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-44800</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AF72" s="3">
         <v>-44500</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AG72" s="3">
         <v>-44100</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6391,14 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6486,14 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,97 +6581,109 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-20000</v>
+        <v>-21400</v>
       </c>
       <c r="E76" s="3">
-        <v>-19200</v>
+        <v>-21100</v>
       </c>
       <c r="F76" s="3">
-        <v>-18000</v>
+        <v>-19600</v>
       </c>
       <c r="G76" s="3">
-        <v>-17100</v>
+        <v>-18800</v>
       </c>
       <c r="H76" s="3">
-        <v>-16600</v>
+        <v>-17600</v>
       </c>
       <c r="I76" s="3">
-        <v>-16300</v>
+        <v>-16800</v>
       </c>
       <c r="J76" s="3">
         <v>-16300</v>
       </c>
       <c r="K76" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-16300</v>
+      </c>
+      <c r="M76" s="3">
         <v>-15300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-16500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-18400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-18300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-19500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-18600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>-17900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>-17600</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>-18400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>-16400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>-15600</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>-15000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>-14200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>-11500</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>-11500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>-11100</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>-11200</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>-10200</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>-9800</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AF76" s="3">
         <v>-9500</v>
       </c>
-      <c r="AE76" s="3">
+      <c r="AG76" s="3">
         <v>-9200</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6771,209 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:33" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45169</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45077</v>
+      </c>
+      <c r="F80" s="2">
         <v>44985</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44895</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44804</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44712</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44620</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44530</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44439</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44347</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44255</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44165</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44074</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43982</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43890</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43799</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43708</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43616</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43524</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43434</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43343</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43251</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43159</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43069</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42978</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42886</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42794</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42704</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AF80" s="2">
         <v>42613</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AG80" s="2">
         <v>42521</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F81" s="3">
         <v>-800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-1200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-700</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-2600</v>
       </c>
-      <c r="X81" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-400</v>
       </c>
-      <c r="Z81" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC81" s="3">
         <v>-1300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-400</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-300</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AF81" s="3">
         <v>-300</v>
       </c>
-      <c r="AE81" s="3">
+      <c r="AG81" s="3">
         <v>-6900</v>
       </c>
     </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +7005,10 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+    </row>
+    <row r="83" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6624,14 +7022,14 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
+        <v>100</v>
+      </c>
+      <c r="H83" s="3">
+        <v>100</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
-        <v>100</v>
-      </c>
-      <c r="I83" s="3">
-        <v>100</v>
-      </c>
       <c r="J83" s="3">
         <v>100</v>
       </c>
@@ -6648,10 +7046,10 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -6660,19 +7058,19 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X83" s="3">
         <v>100</v>
@@ -6696,10 +7094,16 @@
         <v>100</v>
       </c>
       <c r="AE83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF83" s="3">
+        <v>100</v>
+      </c>
+      <c r="AG83" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +7191,14 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7286,14 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7381,14 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7476,14 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7571,109 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>300</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>100</v>
+      </c>
+      <c r="T89" s="3">
+        <v>100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
-      <c r="V89" s="3">
-        <v>0</v>
-      </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-400</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AD89" s="3">
         <v>300</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AE89" s="3">
         <v>200</v>
       </c>
-      <c r="AD89" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,62 +7705,64 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+      <c r="AG90" s="3"/>
+    </row>
+    <row r="91" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>100</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
@@ -7331,22 +7773,22 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y91" s="3">
         <v>0</v>
       </c>
       <c r="Z91" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>200</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AC91" s="3">
-        <v>-200</v>
       </c>
       <c r="AD91" s="3">
         <v>-200</v>
@@ -7354,8 +7796,14 @@
       <c r="AE91" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AG91" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="92" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7891,14 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,52 +7986,58 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>100</v>
+      </c>
+      <c r="F94" s="3">
         <v>-300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
         <v>200</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-400</v>
       </c>
       <c r="J94" s="3">
         <v>-100</v>
       </c>
       <c r="K94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
-      </c>
       <c r="Q94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>-100</v>
@@ -7586,16 +8046,16 @@
         <v>-100</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U94" s="3">
         <v>-100</v>
       </c>
       <c r="V94" s="3">
+        <v>0</v>
+      </c>
+      <c r="W94" s="3">
         <v>-100</v>
-      </c>
-      <c r="W94" s="3">
-        <v>0</v>
       </c>
       <c r="X94" s="3">
         <v>-100</v>
@@ -7604,16 +8064,16 @@
         <v>0</v>
       </c>
       <c r="Z94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>300</v>
-      </c>
-      <c r="AB94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="AC94" s="3">
-        <v>-200</v>
       </c>
       <c r="AD94" s="3">
         <v>-200</v>
@@ -7621,8 +8081,14 @@
       <c r="AE94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AG94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +8120,10 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+      <c r="AG95" s="3"/>
+    </row>
+    <row r="96" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +8211,14 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8306,14 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8401,14 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,16 +8496,22 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
@@ -8028,49 +8520,49 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>-100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>100</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>8</v>
+      <c r="P100" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S100" s="3">
+      <c r="S100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>100</v>
-      </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -8079,28 +8571,34 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
-        <v>100</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC100" s="3">
         <v>0</v>
       </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="3">
         <v>200</v>
       </c>
-      <c r="AE100" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AG100" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,53 +8686,59 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:33" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
-        <v>100</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
+        <v>100</v>
+      </c>
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
+        <v>100</v>
+      </c>
+      <c r="N102" s="3">
         <v>200</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>200</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
       <c r="R102" s="3">
         <v>0</v>
       </c>
@@ -8275,6 +8779,12 @@
         <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG102" s="3">
         <v>0</v>
       </c>
     </row>
